--- a/001_GPSCamera_Document/004＿GPSカメラアプリ＿必要な技術.xlsx
+++ b/001_GPSCamera_Document/004＿GPSカメラアプリ＿必要な技術.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
   <si>
     <t>プロジェクト名：</t>
     <rPh sb="6" eb="7">
@@ -534,16 +534,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　　Menuのクリックイベントを処理方法</t>
-    <rPh sb="16" eb="18">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>技術リストを変更</t>
     <rPh sb="0" eb="2">
       <t>ギジュツ</t>
@@ -552,23 +542,29 @@
       <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>　　Menuのクリックイベントを処理方法</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -632,7 +628,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -640,7 +636,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -648,9 +644,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -680,7 +684,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -741,46 +745,33 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="dotted">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="dotted">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="dotted">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="dotted">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top/>
       <bottom style="dotted">
@@ -789,10 +780,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -800,23 +811,69 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="dotted">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -845,7 +902,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -867,26 +924,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -895,6 +936,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -908,7 +950,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -923,15 +965,52 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -947,7 +1026,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -989,7 +1068,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1024,7 +1103,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1235,730 +1314,730 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="6.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="7" width="8.875" style="1" customWidth="1"/>
+    <col min="4" max="7" width="8.85546875" style="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="9.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="1" customWidth="1"/>
     <col min="15" max="256" width="9" style="1"/>
-    <col min="257" max="257" width="2.875" style="1" customWidth="1"/>
-    <col min="258" max="258" width="6.25" style="1" customWidth="1"/>
-    <col min="259" max="263" width="8.875" style="1" customWidth="1"/>
+    <col min="257" max="257" width="2.85546875" style="1" customWidth="1"/>
+    <col min="258" max="258" width="6.28515625" style="1" customWidth="1"/>
+    <col min="259" max="263" width="8.85546875" style="1" customWidth="1"/>
     <col min="264" max="265" width="9" style="1"/>
-    <col min="266" max="266" width="9.5" style="1" customWidth="1"/>
-    <col min="267" max="267" width="6.625" style="1" customWidth="1"/>
-    <col min="268" max="268" width="9.625" style="1" customWidth="1"/>
-    <col min="269" max="269" width="12.625" style="1" customWidth="1"/>
-    <col min="270" max="270" width="6.75" style="1" customWidth="1"/>
+    <col min="266" max="266" width="9.42578125" style="1" customWidth="1"/>
+    <col min="267" max="267" width="6.5703125" style="1" customWidth="1"/>
+    <col min="268" max="268" width="9.5703125" style="1" customWidth="1"/>
+    <col min="269" max="269" width="12.5703125" style="1" customWidth="1"/>
+    <col min="270" max="270" width="6.7109375" style="1" customWidth="1"/>
     <col min="271" max="512" width="9" style="1"/>
-    <col min="513" max="513" width="2.875" style="1" customWidth="1"/>
-    <col min="514" max="514" width="6.25" style="1" customWidth="1"/>
-    <col min="515" max="519" width="8.875" style="1" customWidth="1"/>
+    <col min="513" max="513" width="2.85546875" style="1" customWidth="1"/>
+    <col min="514" max="514" width="6.28515625" style="1" customWidth="1"/>
+    <col min="515" max="519" width="8.85546875" style="1" customWidth="1"/>
     <col min="520" max="521" width="9" style="1"/>
-    <col min="522" max="522" width="9.5" style="1" customWidth="1"/>
-    <col min="523" max="523" width="6.625" style="1" customWidth="1"/>
-    <col min="524" max="524" width="9.625" style="1" customWidth="1"/>
-    <col min="525" max="525" width="12.625" style="1" customWidth="1"/>
-    <col min="526" max="526" width="6.75" style="1" customWidth="1"/>
+    <col min="522" max="522" width="9.42578125" style="1" customWidth="1"/>
+    <col min="523" max="523" width="6.5703125" style="1" customWidth="1"/>
+    <col min="524" max="524" width="9.5703125" style="1" customWidth="1"/>
+    <col min="525" max="525" width="12.5703125" style="1" customWidth="1"/>
+    <col min="526" max="526" width="6.7109375" style="1" customWidth="1"/>
     <col min="527" max="768" width="9" style="1"/>
-    <col min="769" max="769" width="2.875" style="1" customWidth="1"/>
-    <col min="770" max="770" width="6.25" style="1" customWidth="1"/>
-    <col min="771" max="775" width="8.875" style="1" customWidth="1"/>
+    <col min="769" max="769" width="2.85546875" style="1" customWidth="1"/>
+    <col min="770" max="770" width="6.28515625" style="1" customWidth="1"/>
+    <col min="771" max="775" width="8.85546875" style="1" customWidth="1"/>
     <col min="776" max="777" width="9" style="1"/>
-    <col min="778" max="778" width="9.5" style="1" customWidth="1"/>
-    <col min="779" max="779" width="6.625" style="1" customWidth="1"/>
-    <col min="780" max="780" width="9.625" style="1" customWidth="1"/>
-    <col min="781" max="781" width="12.625" style="1" customWidth="1"/>
-    <col min="782" max="782" width="6.75" style="1" customWidth="1"/>
+    <col min="778" max="778" width="9.42578125" style="1" customWidth="1"/>
+    <col min="779" max="779" width="6.5703125" style="1" customWidth="1"/>
+    <col min="780" max="780" width="9.5703125" style="1" customWidth="1"/>
+    <col min="781" max="781" width="12.5703125" style="1" customWidth="1"/>
+    <col min="782" max="782" width="6.7109375" style="1" customWidth="1"/>
     <col min="783" max="1024" width="9" style="1"/>
-    <col min="1025" max="1025" width="2.875" style="1" customWidth="1"/>
-    <col min="1026" max="1026" width="6.25" style="1" customWidth="1"/>
-    <col min="1027" max="1031" width="8.875" style="1" customWidth="1"/>
+    <col min="1025" max="1025" width="2.85546875" style="1" customWidth="1"/>
+    <col min="1026" max="1026" width="6.28515625" style="1" customWidth="1"/>
+    <col min="1027" max="1031" width="8.85546875" style="1" customWidth="1"/>
     <col min="1032" max="1033" width="9" style="1"/>
-    <col min="1034" max="1034" width="9.5" style="1" customWidth="1"/>
-    <col min="1035" max="1035" width="6.625" style="1" customWidth="1"/>
-    <col min="1036" max="1036" width="9.625" style="1" customWidth="1"/>
-    <col min="1037" max="1037" width="12.625" style="1" customWidth="1"/>
-    <col min="1038" max="1038" width="6.75" style="1" customWidth="1"/>
+    <col min="1034" max="1034" width="9.42578125" style="1" customWidth="1"/>
+    <col min="1035" max="1035" width="6.5703125" style="1" customWidth="1"/>
+    <col min="1036" max="1036" width="9.5703125" style="1" customWidth="1"/>
+    <col min="1037" max="1037" width="12.5703125" style="1" customWidth="1"/>
+    <col min="1038" max="1038" width="6.7109375" style="1" customWidth="1"/>
     <col min="1039" max="1280" width="9" style="1"/>
-    <col min="1281" max="1281" width="2.875" style="1" customWidth="1"/>
-    <col min="1282" max="1282" width="6.25" style="1" customWidth="1"/>
-    <col min="1283" max="1287" width="8.875" style="1" customWidth="1"/>
+    <col min="1281" max="1281" width="2.85546875" style="1" customWidth="1"/>
+    <col min="1282" max="1282" width="6.28515625" style="1" customWidth="1"/>
+    <col min="1283" max="1287" width="8.85546875" style="1" customWidth="1"/>
     <col min="1288" max="1289" width="9" style="1"/>
-    <col min="1290" max="1290" width="9.5" style="1" customWidth="1"/>
-    <col min="1291" max="1291" width="6.625" style="1" customWidth="1"/>
-    <col min="1292" max="1292" width="9.625" style="1" customWidth="1"/>
-    <col min="1293" max="1293" width="12.625" style="1" customWidth="1"/>
-    <col min="1294" max="1294" width="6.75" style="1" customWidth="1"/>
+    <col min="1290" max="1290" width="9.42578125" style="1" customWidth="1"/>
+    <col min="1291" max="1291" width="6.5703125" style="1" customWidth="1"/>
+    <col min="1292" max="1292" width="9.5703125" style="1" customWidth="1"/>
+    <col min="1293" max="1293" width="12.5703125" style="1" customWidth="1"/>
+    <col min="1294" max="1294" width="6.7109375" style="1" customWidth="1"/>
     <col min="1295" max="1536" width="9" style="1"/>
-    <col min="1537" max="1537" width="2.875" style="1" customWidth="1"/>
-    <col min="1538" max="1538" width="6.25" style="1" customWidth="1"/>
-    <col min="1539" max="1543" width="8.875" style="1" customWidth="1"/>
+    <col min="1537" max="1537" width="2.85546875" style="1" customWidth="1"/>
+    <col min="1538" max="1538" width="6.28515625" style="1" customWidth="1"/>
+    <col min="1539" max="1543" width="8.85546875" style="1" customWidth="1"/>
     <col min="1544" max="1545" width="9" style="1"/>
-    <col min="1546" max="1546" width="9.5" style="1" customWidth="1"/>
-    <col min="1547" max="1547" width="6.625" style="1" customWidth="1"/>
-    <col min="1548" max="1548" width="9.625" style="1" customWidth="1"/>
-    <col min="1549" max="1549" width="12.625" style="1" customWidth="1"/>
-    <col min="1550" max="1550" width="6.75" style="1" customWidth="1"/>
+    <col min="1546" max="1546" width="9.42578125" style="1" customWidth="1"/>
+    <col min="1547" max="1547" width="6.5703125" style="1" customWidth="1"/>
+    <col min="1548" max="1548" width="9.5703125" style="1" customWidth="1"/>
+    <col min="1549" max="1549" width="12.5703125" style="1" customWidth="1"/>
+    <col min="1550" max="1550" width="6.7109375" style="1" customWidth="1"/>
     <col min="1551" max="1792" width="9" style="1"/>
-    <col min="1793" max="1793" width="2.875" style="1" customWidth="1"/>
-    <col min="1794" max="1794" width="6.25" style="1" customWidth="1"/>
-    <col min="1795" max="1799" width="8.875" style="1" customWidth="1"/>
+    <col min="1793" max="1793" width="2.85546875" style="1" customWidth="1"/>
+    <col min="1794" max="1794" width="6.28515625" style="1" customWidth="1"/>
+    <col min="1795" max="1799" width="8.85546875" style="1" customWidth="1"/>
     <col min="1800" max="1801" width="9" style="1"/>
-    <col min="1802" max="1802" width="9.5" style="1" customWidth="1"/>
-    <col min="1803" max="1803" width="6.625" style="1" customWidth="1"/>
-    <col min="1804" max="1804" width="9.625" style="1" customWidth="1"/>
-    <col min="1805" max="1805" width="12.625" style="1" customWidth="1"/>
-    <col min="1806" max="1806" width="6.75" style="1" customWidth="1"/>
+    <col min="1802" max="1802" width="9.42578125" style="1" customWidth="1"/>
+    <col min="1803" max="1803" width="6.5703125" style="1" customWidth="1"/>
+    <col min="1804" max="1804" width="9.5703125" style="1" customWidth="1"/>
+    <col min="1805" max="1805" width="12.5703125" style="1" customWidth="1"/>
+    <col min="1806" max="1806" width="6.7109375" style="1" customWidth="1"/>
     <col min="1807" max="2048" width="9" style="1"/>
-    <col min="2049" max="2049" width="2.875" style="1" customWidth="1"/>
-    <col min="2050" max="2050" width="6.25" style="1" customWidth="1"/>
-    <col min="2051" max="2055" width="8.875" style="1" customWidth="1"/>
+    <col min="2049" max="2049" width="2.85546875" style="1" customWidth="1"/>
+    <col min="2050" max="2050" width="6.28515625" style="1" customWidth="1"/>
+    <col min="2051" max="2055" width="8.85546875" style="1" customWidth="1"/>
     <col min="2056" max="2057" width="9" style="1"/>
-    <col min="2058" max="2058" width="9.5" style="1" customWidth="1"/>
-    <col min="2059" max="2059" width="6.625" style="1" customWidth="1"/>
-    <col min="2060" max="2060" width="9.625" style="1" customWidth="1"/>
-    <col min="2061" max="2061" width="12.625" style="1" customWidth="1"/>
-    <col min="2062" max="2062" width="6.75" style="1" customWidth="1"/>
+    <col min="2058" max="2058" width="9.42578125" style="1" customWidth="1"/>
+    <col min="2059" max="2059" width="6.5703125" style="1" customWidth="1"/>
+    <col min="2060" max="2060" width="9.5703125" style="1" customWidth="1"/>
+    <col min="2061" max="2061" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2062" max="2062" width="6.7109375" style="1" customWidth="1"/>
     <col min="2063" max="2304" width="9" style="1"/>
-    <col min="2305" max="2305" width="2.875" style="1" customWidth="1"/>
-    <col min="2306" max="2306" width="6.25" style="1" customWidth="1"/>
-    <col min="2307" max="2311" width="8.875" style="1" customWidth="1"/>
+    <col min="2305" max="2305" width="2.85546875" style="1" customWidth="1"/>
+    <col min="2306" max="2306" width="6.28515625" style="1" customWidth="1"/>
+    <col min="2307" max="2311" width="8.85546875" style="1" customWidth="1"/>
     <col min="2312" max="2313" width="9" style="1"/>
-    <col min="2314" max="2314" width="9.5" style="1" customWidth="1"/>
-    <col min="2315" max="2315" width="6.625" style="1" customWidth="1"/>
-    <col min="2316" max="2316" width="9.625" style="1" customWidth="1"/>
-    <col min="2317" max="2317" width="12.625" style="1" customWidth="1"/>
-    <col min="2318" max="2318" width="6.75" style="1" customWidth="1"/>
+    <col min="2314" max="2314" width="9.42578125" style="1" customWidth="1"/>
+    <col min="2315" max="2315" width="6.5703125" style="1" customWidth="1"/>
+    <col min="2316" max="2316" width="9.5703125" style="1" customWidth="1"/>
+    <col min="2317" max="2317" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2318" max="2318" width="6.7109375" style="1" customWidth="1"/>
     <col min="2319" max="2560" width="9" style="1"/>
-    <col min="2561" max="2561" width="2.875" style="1" customWidth="1"/>
-    <col min="2562" max="2562" width="6.25" style="1" customWidth="1"/>
-    <col min="2563" max="2567" width="8.875" style="1" customWidth="1"/>
+    <col min="2561" max="2561" width="2.85546875" style="1" customWidth="1"/>
+    <col min="2562" max="2562" width="6.28515625" style="1" customWidth="1"/>
+    <col min="2563" max="2567" width="8.85546875" style="1" customWidth="1"/>
     <col min="2568" max="2569" width="9" style="1"/>
-    <col min="2570" max="2570" width="9.5" style="1" customWidth="1"/>
-    <col min="2571" max="2571" width="6.625" style="1" customWidth="1"/>
-    <col min="2572" max="2572" width="9.625" style="1" customWidth="1"/>
-    <col min="2573" max="2573" width="12.625" style="1" customWidth="1"/>
-    <col min="2574" max="2574" width="6.75" style="1" customWidth="1"/>
+    <col min="2570" max="2570" width="9.42578125" style="1" customWidth="1"/>
+    <col min="2571" max="2571" width="6.5703125" style="1" customWidth="1"/>
+    <col min="2572" max="2572" width="9.5703125" style="1" customWidth="1"/>
+    <col min="2573" max="2573" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2574" max="2574" width="6.7109375" style="1" customWidth="1"/>
     <col min="2575" max="2816" width="9" style="1"/>
-    <col min="2817" max="2817" width="2.875" style="1" customWidth="1"/>
-    <col min="2818" max="2818" width="6.25" style="1" customWidth="1"/>
-    <col min="2819" max="2823" width="8.875" style="1" customWidth="1"/>
+    <col min="2817" max="2817" width="2.85546875" style="1" customWidth="1"/>
+    <col min="2818" max="2818" width="6.28515625" style="1" customWidth="1"/>
+    <col min="2819" max="2823" width="8.85546875" style="1" customWidth="1"/>
     <col min="2824" max="2825" width="9" style="1"/>
-    <col min="2826" max="2826" width="9.5" style="1" customWidth="1"/>
-    <col min="2827" max="2827" width="6.625" style="1" customWidth="1"/>
-    <col min="2828" max="2828" width="9.625" style="1" customWidth="1"/>
-    <col min="2829" max="2829" width="12.625" style="1" customWidth="1"/>
-    <col min="2830" max="2830" width="6.75" style="1" customWidth="1"/>
+    <col min="2826" max="2826" width="9.42578125" style="1" customWidth="1"/>
+    <col min="2827" max="2827" width="6.5703125" style="1" customWidth="1"/>
+    <col min="2828" max="2828" width="9.5703125" style="1" customWidth="1"/>
+    <col min="2829" max="2829" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2830" max="2830" width="6.7109375" style="1" customWidth="1"/>
     <col min="2831" max="3072" width="9" style="1"/>
-    <col min="3073" max="3073" width="2.875" style="1" customWidth="1"/>
-    <col min="3074" max="3074" width="6.25" style="1" customWidth="1"/>
-    <col min="3075" max="3079" width="8.875" style="1" customWidth="1"/>
+    <col min="3073" max="3073" width="2.85546875" style="1" customWidth="1"/>
+    <col min="3074" max="3074" width="6.28515625" style="1" customWidth="1"/>
+    <col min="3075" max="3079" width="8.85546875" style="1" customWidth="1"/>
     <col min="3080" max="3081" width="9" style="1"/>
-    <col min="3082" max="3082" width="9.5" style="1" customWidth="1"/>
-    <col min="3083" max="3083" width="6.625" style="1" customWidth="1"/>
-    <col min="3084" max="3084" width="9.625" style="1" customWidth="1"/>
-    <col min="3085" max="3085" width="12.625" style="1" customWidth="1"/>
-    <col min="3086" max="3086" width="6.75" style="1" customWidth="1"/>
+    <col min="3082" max="3082" width="9.42578125" style="1" customWidth="1"/>
+    <col min="3083" max="3083" width="6.5703125" style="1" customWidth="1"/>
+    <col min="3084" max="3084" width="9.5703125" style="1" customWidth="1"/>
+    <col min="3085" max="3085" width="12.5703125" style="1" customWidth="1"/>
+    <col min="3086" max="3086" width="6.7109375" style="1" customWidth="1"/>
     <col min="3087" max="3328" width="9" style="1"/>
-    <col min="3329" max="3329" width="2.875" style="1" customWidth="1"/>
-    <col min="3330" max="3330" width="6.25" style="1" customWidth="1"/>
-    <col min="3331" max="3335" width="8.875" style="1" customWidth="1"/>
+    <col min="3329" max="3329" width="2.85546875" style="1" customWidth="1"/>
+    <col min="3330" max="3330" width="6.28515625" style="1" customWidth="1"/>
+    <col min="3331" max="3335" width="8.85546875" style="1" customWidth="1"/>
     <col min="3336" max="3337" width="9" style="1"/>
-    <col min="3338" max="3338" width="9.5" style="1" customWidth="1"/>
-    <col min="3339" max="3339" width="6.625" style="1" customWidth="1"/>
-    <col min="3340" max="3340" width="9.625" style="1" customWidth="1"/>
-    <col min="3341" max="3341" width="12.625" style="1" customWidth="1"/>
-    <col min="3342" max="3342" width="6.75" style="1" customWidth="1"/>
+    <col min="3338" max="3338" width="9.42578125" style="1" customWidth="1"/>
+    <col min="3339" max="3339" width="6.5703125" style="1" customWidth="1"/>
+    <col min="3340" max="3340" width="9.5703125" style="1" customWidth="1"/>
+    <col min="3341" max="3341" width="12.5703125" style="1" customWidth="1"/>
+    <col min="3342" max="3342" width="6.7109375" style="1" customWidth="1"/>
     <col min="3343" max="3584" width="9" style="1"/>
-    <col min="3585" max="3585" width="2.875" style="1" customWidth="1"/>
-    <col min="3586" max="3586" width="6.25" style="1" customWidth="1"/>
-    <col min="3587" max="3591" width="8.875" style="1" customWidth="1"/>
+    <col min="3585" max="3585" width="2.85546875" style="1" customWidth="1"/>
+    <col min="3586" max="3586" width="6.28515625" style="1" customWidth="1"/>
+    <col min="3587" max="3591" width="8.85546875" style="1" customWidth="1"/>
     <col min="3592" max="3593" width="9" style="1"/>
-    <col min="3594" max="3594" width="9.5" style="1" customWidth="1"/>
-    <col min="3595" max="3595" width="6.625" style="1" customWidth="1"/>
-    <col min="3596" max="3596" width="9.625" style="1" customWidth="1"/>
-    <col min="3597" max="3597" width="12.625" style="1" customWidth="1"/>
-    <col min="3598" max="3598" width="6.75" style="1" customWidth="1"/>
+    <col min="3594" max="3594" width="9.42578125" style="1" customWidth="1"/>
+    <col min="3595" max="3595" width="6.5703125" style="1" customWidth="1"/>
+    <col min="3596" max="3596" width="9.5703125" style="1" customWidth="1"/>
+    <col min="3597" max="3597" width="12.5703125" style="1" customWidth="1"/>
+    <col min="3598" max="3598" width="6.7109375" style="1" customWidth="1"/>
     <col min="3599" max="3840" width="9" style="1"/>
-    <col min="3841" max="3841" width="2.875" style="1" customWidth="1"/>
-    <col min="3842" max="3842" width="6.25" style="1" customWidth="1"/>
-    <col min="3843" max="3847" width="8.875" style="1" customWidth="1"/>
+    <col min="3841" max="3841" width="2.85546875" style="1" customWidth="1"/>
+    <col min="3842" max="3842" width="6.28515625" style="1" customWidth="1"/>
+    <col min="3843" max="3847" width="8.85546875" style="1" customWidth="1"/>
     <col min="3848" max="3849" width="9" style="1"/>
-    <col min="3850" max="3850" width="9.5" style="1" customWidth="1"/>
-    <col min="3851" max="3851" width="6.625" style="1" customWidth="1"/>
-    <col min="3852" max="3852" width="9.625" style="1" customWidth="1"/>
-    <col min="3853" max="3853" width="12.625" style="1" customWidth="1"/>
-    <col min="3854" max="3854" width="6.75" style="1" customWidth="1"/>
+    <col min="3850" max="3850" width="9.42578125" style="1" customWidth="1"/>
+    <col min="3851" max="3851" width="6.5703125" style="1" customWidth="1"/>
+    <col min="3852" max="3852" width="9.5703125" style="1" customWidth="1"/>
+    <col min="3853" max="3853" width="12.5703125" style="1" customWidth="1"/>
+    <col min="3854" max="3854" width="6.7109375" style="1" customWidth="1"/>
     <col min="3855" max="4096" width="9" style="1"/>
-    <col min="4097" max="4097" width="2.875" style="1" customWidth="1"/>
-    <col min="4098" max="4098" width="6.25" style="1" customWidth="1"/>
-    <col min="4099" max="4103" width="8.875" style="1" customWidth="1"/>
+    <col min="4097" max="4097" width="2.85546875" style="1" customWidth="1"/>
+    <col min="4098" max="4098" width="6.28515625" style="1" customWidth="1"/>
+    <col min="4099" max="4103" width="8.85546875" style="1" customWidth="1"/>
     <col min="4104" max="4105" width="9" style="1"/>
-    <col min="4106" max="4106" width="9.5" style="1" customWidth="1"/>
-    <col min="4107" max="4107" width="6.625" style="1" customWidth="1"/>
-    <col min="4108" max="4108" width="9.625" style="1" customWidth="1"/>
-    <col min="4109" max="4109" width="12.625" style="1" customWidth="1"/>
-    <col min="4110" max="4110" width="6.75" style="1" customWidth="1"/>
+    <col min="4106" max="4106" width="9.42578125" style="1" customWidth="1"/>
+    <col min="4107" max="4107" width="6.5703125" style="1" customWidth="1"/>
+    <col min="4108" max="4108" width="9.5703125" style="1" customWidth="1"/>
+    <col min="4109" max="4109" width="12.5703125" style="1" customWidth="1"/>
+    <col min="4110" max="4110" width="6.7109375" style="1" customWidth="1"/>
     <col min="4111" max="4352" width="9" style="1"/>
-    <col min="4353" max="4353" width="2.875" style="1" customWidth="1"/>
-    <col min="4354" max="4354" width="6.25" style="1" customWidth="1"/>
-    <col min="4355" max="4359" width="8.875" style="1" customWidth="1"/>
+    <col min="4353" max="4353" width="2.85546875" style="1" customWidth="1"/>
+    <col min="4354" max="4354" width="6.28515625" style="1" customWidth="1"/>
+    <col min="4355" max="4359" width="8.85546875" style="1" customWidth="1"/>
     <col min="4360" max="4361" width="9" style="1"/>
-    <col min="4362" max="4362" width="9.5" style="1" customWidth="1"/>
-    <col min="4363" max="4363" width="6.625" style="1" customWidth="1"/>
-    <col min="4364" max="4364" width="9.625" style="1" customWidth="1"/>
-    <col min="4365" max="4365" width="12.625" style="1" customWidth="1"/>
-    <col min="4366" max="4366" width="6.75" style="1" customWidth="1"/>
+    <col min="4362" max="4362" width="9.42578125" style="1" customWidth="1"/>
+    <col min="4363" max="4363" width="6.5703125" style="1" customWidth="1"/>
+    <col min="4364" max="4364" width="9.5703125" style="1" customWidth="1"/>
+    <col min="4365" max="4365" width="12.5703125" style="1" customWidth="1"/>
+    <col min="4366" max="4366" width="6.7109375" style="1" customWidth="1"/>
     <col min="4367" max="4608" width="9" style="1"/>
-    <col min="4609" max="4609" width="2.875" style="1" customWidth="1"/>
-    <col min="4610" max="4610" width="6.25" style="1" customWidth="1"/>
-    <col min="4611" max="4615" width="8.875" style="1" customWidth="1"/>
+    <col min="4609" max="4609" width="2.85546875" style="1" customWidth="1"/>
+    <col min="4610" max="4610" width="6.28515625" style="1" customWidth="1"/>
+    <col min="4611" max="4615" width="8.85546875" style="1" customWidth="1"/>
     <col min="4616" max="4617" width="9" style="1"/>
-    <col min="4618" max="4618" width="9.5" style="1" customWidth="1"/>
-    <col min="4619" max="4619" width="6.625" style="1" customWidth="1"/>
-    <col min="4620" max="4620" width="9.625" style="1" customWidth="1"/>
-    <col min="4621" max="4621" width="12.625" style="1" customWidth="1"/>
-    <col min="4622" max="4622" width="6.75" style="1" customWidth="1"/>
+    <col min="4618" max="4618" width="9.42578125" style="1" customWidth="1"/>
+    <col min="4619" max="4619" width="6.5703125" style="1" customWidth="1"/>
+    <col min="4620" max="4620" width="9.5703125" style="1" customWidth="1"/>
+    <col min="4621" max="4621" width="12.5703125" style="1" customWidth="1"/>
+    <col min="4622" max="4622" width="6.7109375" style="1" customWidth="1"/>
     <col min="4623" max="4864" width="9" style="1"/>
-    <col min="4865" max="4865" width="2.875" style="1" customWidth="1"/>
-    <col min="4866" max="4866" width="6.25" style="1" customWidth="1"/>
-    <col min="4867" max="4871" width="8.875" style="1" customWidth="1"/>
+    <col min="4865" max="4865" width="2.85546875" style="1" customWidth="1"/>
+    <col min="4866" max="4866" width="6.28515625" style="1" customWidth="1"/>
+    <col min="4867" max="4871" width="8.85546875" style="1" customWidth="1"/>
     <col min="4872" max="4873" width="9" style="1"/>
-    <col min="4874" max="4874" width="9.5" style="1" customWidth="1"/>
-    <col min="4875" max="4875" width="6.625" style="1" customWidth="1"/>
-    <col min="4876" max="4876" width="9.625" style="1" customWidth="1"/>
-    <col min="4877" max="4877" width="12.625" style="1" customWidth="1"/>
-    <col min="4878" max="4878" width="6.75" style="1" customWidth="1"/>
+    <col min="4874" max="4874" width="9.42578125" style="1" customWidth="1"/>
+    <col min="4875" max="4875" width="6.5703125" style="1" customWidth="1"/>
+    <col min="4876" max="4876" width="9.5703125" style="1" customWidth="1"/>
+    <col min="4877" max="4877" width="12.5703125" style="1" customWidth="1"/>
+    <col min="4878" max="4878" width="6.7109375" style="1" customWidth="1"/>
     <col min="4879" max="5120" width="9" style="1"/>
-    <col min="5121" max="5121" width="2.875" style="1" customWidth="1"/>
-    <col min="5122" max="5122" width="6.25" style="1" customWidth="1"/>
-    <col min="5123" max="5127" width="8.875" style="1" customWidth="1"/>
+    <col min="5121" max="5121" width="2.85546875" style="1" customWidth="1"/>
+    <col min="5122" max="5122" width="6.28515625" style="1" customWidth="1"/>
+    <col min="5123" max="5127" width="8.85546875" style="1" customWidth="1"/>
     <col min="5128" max="5129" width="9" style="1"/>
-    <col min="5130" max="5130" width="9.5" style="1" customWidth="1"/>
-    <col min="5131" max="5131" width="6.625" style="1" customWidth="1"/>
-    <col min="5132" max="5132" width="9.625" style="1" customWidth="1"/>
-    <col min="5133" max="5133" width="12.625" style="1" customWidth="1"/>
-    <col min="5134" max="5134" width="6.75" style="1" customWidth="1"/>
+    <col min="5130" max="5130" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5131" max="5131" width="6.5703125" style="1" customWidth="1"/>
+    <col min="5132" max="5132" width="9.5703125" style="1" customWidth="1"/>
+    <col min="5133" max="5133" width="12.5703125" style="1" customWidth="1"/>
+    <col min="5134" max="5134" width="6.7109375" style="1" customWidth="1"/>
     <col min="5135" max="5376" width="9" style="1"/>
-    <col min="5377" max="5377" width="2.875" style="1" customWidth="1"/>
-    <col min="5378" max="5378" width="6.25" style="1" customWidth="1"/>
-    <col min="5379" max="5383" width="8.875" style="1" customWidth="1"/>
+    <col min="5377" max="5377" width="2.85546875" style="1" customWidth="1"/>
+    <col min="5378" max="5378" width="6.28515625" style="1" customWidth="1"/>
+    <col min="5379" max="5383" width="8.85546875" style="1" customWidth="1"/>
     <col min="5384" max="5385" width="9" style="1"/>
-    <col min="5386" max="5386" width="9.5" style="1" customWidth="1"/>
-    <col min="5387" max="5387" width="6.625" style="1" customWidth="1"/>
-    <col min="5388" max="5388" width="9.625" style="1" customWidth="1"/>
-    <col min="5389" max="5389" width="12.625" style="1" customWidth="1"/>
-    <col min="5390" max="5390" width="6.75" style="1" customWidth="1"/>
+    <col min="5386" max="5386" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5387" max="5387" width="6.5703125" style="1" customWidth="1"/>
+    <col min="5388" max="5388" width="9.5703125" style="1" customWidth="1"/>
+    <col min="5389" max="5389" width="12.5703125" style="1" customWidth="1"/>
+    <col min="5390" max="5390" width="6.7109375" style="1" customWidth="1"/>
     <col min="5391" max="5632" width="9" style="1"/>
-    <col min="5633" max="5633" width="2.875" style="1" customWidth="1"/>
-    <col min="5634" max="5634" width="6.25" style="1" customWidth="1"/>
-    <col min="5635" max="5639" width="8.875" style="1" customWidth="1"/>
+    <col min="5633" max="5633" width="2.85546875" style="1" customWidth="1"/>
+    <col min="5634" max="5634" width="6.28515625" style="1" customWidth="1"/>
+    <col min="5635" max="5639" width="8.85546875" style="1" customWidth="1"/>
     <col min="5640" max="5641" width="9" style="1"/>
-    <col min="5642" max="5642" width="9.5" style="1" customWidth="1"/>
-    <col min="5643" max="5643" width="6.625" style="1" customWidth="1"/>
-    <col min="5644" max="5644" width="9.625" style="1" customWidth="1"/>
-    <col min="5645" max="5645" width="12.625" style="1" customWidth="1"/>
-    <col min="5646" max="5646" width="6.75" style="1" customWidth="1"/>
+    <col min="5642" max="5642" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5643" max="5643" width="6.5703125" style="1" customWidth="1"/>
+    <col min="5644" max="5644" width="9.5703125" style="1" customWidth="1"/>
+    <col min="5645" max="5645" width="12.5703125" style="1" customWidth="1"/>
+    <col min="5646" max="5646" width="6.7109375" style="1" customWidth="1"/>
     <col min="5647" max="5888" width="9" style="1"/>
-    <col min="5889" max="5889" width="2.875" style="1" customWidth="1"/>
-    <col min="5890" max="5890" width="6.25" style="1" customWidth="1"/>
-    <col min="5891" max="5895" width="8.875" style="1" customWidth="1"/>
+    <col min="5889" max="5889" width="2.85546875" style="1" customWidth="1"/>
+    <col min="5890" max="5890" width="6.28515625" style="1" customWidth="1"/>
+    <col min="5891" max="5895" width="8.85546875" style="1" customWidth="1"/>
     <col min="5896" max="5897" width="9" style="1"/>
-    <col min="5898" max="5898" width="9.5" style="1" customWidth="1"/>
-    <col min="5899" max="5899" width="6.625" style="1" customWidth="1"/>
-    <col min="5900" max="5900" width="9.625" style="1" customWidth="1"/>
-    <col min="5901" max="5901" width="12.625" style="1" customWidth="1"/>
-    <col min="5902" max="5902" width="6.75" style="1" customWidth="1"/>
+    <col min="5898" max="5898" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5899" max="5899" width="6.5703125" style="1" customWidth="1"/>
+    <col min="5900" max="5900" width="9.5703125" style="1" customWidth="1"/>
+    <col min="5901" max="5901" width="12.5703125" style="1" customWidth="1"/>
+    <col min="5902" max="5902" width="6.7109375" style="1" customWidth="1"/>
     <col min="5903" max="6144" width="9" style="1"/>
-    <col min="6145" max="6145" width="2.875" style="1" customWidth="1"/>
-    <col min="6146" max="6146" width="6.25" style="1" customWidth="1"/>
-    <col min="6147" max="6151" width="8.875" style="1" customWidth="1"/>
+    <col min="6145" max="6145" width="2.85546875" style="1" customWidth="1"/>
+    <col min="6146" max="6146" width="6.28515625" style="1" customWidth="1"/>
+    <col min="6147" max="6151" width="8.85546875" style="1" customWidth="1"/>
     <col min="6152" max="6153" width="9" style="1"/>
-    <col min="6154" max="6154" width="9.5" style="1" customWidth="1"/>
-    <col min="6155" max="6155" width="6.625" style="1" customWidth="1"/>
-    <col min="6156" max="6156" width="9.625" style="1" customWidth="1"/>
-    <col min="6157" max="6157" width="12.625" style="1" customWidth="1"/>
-    <col min="6158" max="6158" width="6.75" style="1" customWidth="1"/>
+    <col min="6154" max="6154" width="9.42578125" style="1" customWidth="1"/>
+    <col min="6155" max="6155" width="6.5703125" style="1" customWidth="1"/>
+    <col min="6156" max="6156" width="9.5703125" style="1" customWidth="1"/>
+    <col min="6157" max="6157" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6158" max="6158" width="6.7109375" style="1" customWidth="1"/>
     <col min="6159" max="6400" width="9" style="1"/>
-    <col min="6401" max="6401" width="2.875" style="1" customWidth="1"/>
-    <col min="6402" max="6402" width="6.25" style="1" customWidth="1"/>
-    <col min="6403" max="6407" width="8.875" style="1" customWidth="1"/>
+    <col min="6401" max="6401" width="2.85546875" style="1" customWidth="1"/>
+    <col min="6402" max="6402" width="6.28515625" style="1" customWidth="1"/>
+    <col min="6403" max="6407" width="8.85546875" style="1" customWidth="1"/>
     <col min="6408" max="6409" width="9" style="1"/>
-    <col min="6410" max="6410" width="9.5" style="1" customWidth="1"/>
-    <col min="6411" max="6411" width="6.625" style="1" customWidth="1"/>
-    <col min="6412" max="6412" width="9.625" style="1" customWidth="1"/>
-    <col min="6413" max="6413" width="12.625" style="1" customWidth="1"/>
-    <col min="6414" max="6414" width="6.75" style="1" customWidth="1"/>
+    <col min="6410" max="6410" width="9.42578125" style="1" customWidth="1"/>
+    <col min="6411" max="6411" width="6.5703125" style="1" customWidth="1"/>
+    <col min="6412" max="6412" width="9.5703125" style="1" customWidth="1"/>
+    <col min="6413" max="6413" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6414" max="6414" width="6.7109375" style="1" customWidth="1"/>
     <col min="6415" max="6656" width="9" style="1"/>
-    <col min="6657" max="6657" width="2.875" style="1" customWidth="1"/>
-    <col min="6658" max="6658" width="6.25" style="1" customWidth="1"/>
-    <col min="6659" max="6663" width="8.875" style="1" customWidth="1"/>
+    <col min="6657" max="6657" width="2.85546875" style="1" customWidth="1"/>
+    <col min="6658" max="6658" width="6.28515625" style="1" customWidth="1"/>
+    <col min="6659" max="6663" width="8.85546875" style="1" customWidth="1"/>
     <col min="6664" max="6665" width="9" style="1"/>
-    <col min="6666" max="6666" width="9.5" style="1" customWidth="1"/>
-    <col min="6667" max="6667" width="6.625" style="1" customWidth="1"/>
-    <col min="6668" max="6668" width="9.625" style="1" customWidth="1"/>
-    <col min="6669" max="6669" width="12.625" style="1" customWidth="1"/>
-    <col min="6670" max="6670" width="6.75" style="1" customWidth="1"/>
+    <col min="6666" max="6666" width="9.42578125" style="1" customWidth="1"/>
+    <col min="6667" max="6667" width="6.5703125" style="1" customWidth="1"/>
+    <col min="6668" max="6668" width="9.5703125" style="1" customWidth="1"/>
+    <col min="6669" max="6669" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6670" max="6670" width="6.7109375" style="1" customWidth="1"/>
     <col min="6671" max="6912" width="9" style="1"/>
-    <col min="6913" max="6913" width="2.875" style="1" customWidth="1"/>
-    <col min="6914" max="6914" width="6.25" style="1" customWidth="1"/>
-    <col min="6915" max="6919" width="8.875" style="1" customWidth="1"/>
+    <col min="6913" max="6913" width="2.85546875" style="1" customWidth="1"/>
+    <col min="6914" max="6914" width="6.28515625" style="1" customWidth="1"/>
+    <col min="6915" max="6919" width="8.85546875" style="1" customWidth="1"/>
     <col min="6920" max="6921" width="9" style="1"/>
-    <col min="6922" max="6922" width="9.5" style="1" customWidth="1"/>
-    <col min="6923" max="6923" width="6.625" style="1" customWidth="1"/>
-    <col min="6924" max="6924" width="9.625" style="1" customWidth="1"/>
-    <col min="6925" max="6925" width="12.625" style="1" customWidth="1"/>
-    <col min="6926" max="6926" width="6.75" style="1" customWidth="1"/>
+    <col min="6922" max="6922" width="9.42578125" style="1" customWidth="1"/>
+    <col min="6923" max="6923" width="6.5703125" style="1" customWidth="1"/>
+    <col min="6924" max="6924" width="9.5703125" style="1" customWidth="1"/>
+    <col min="6925" max="6925" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6926" max="6926" width="6.7109375" style="1" customWidth="1"/>
     <col min="6927" max="7168" width="9" style="1"/>
-    <col min="7169" max="7169" width="2.875" style="1" customWidth="1"/>
-    <col min="7170" max="7170" width="6.25" style="1" customWidth="1"/>
-    <col min="7171" max="7175" width="8.875" style="1" customWidth="1"/>
+    <col min="7169" max="7169" width="2.85546875" style="1" customWidth="1"/>
+    <col min="7170" max="7170" width="6.28515625" style="1" customWidth="1"/>
+    <col min="7171" max="7175" width="8.85546875" style="1" customWidth="1"/>
     <col min="7176" max="7177" width="9" style="1"/>
-    <col min="7178" max="7178" width="9.5" style="1" customWidth="1"/>
-    <col min="7179" max="7179" width="6.625" style="1" customWidth="1"/>
-    <col min="7180" max="7180" width="9.625" style="1" customWidth="1"/>
-    <col min="7181" max="7181" width="12.625" style="1" customWidth="1"/>
-    <col min="7182" max="7182" width="6.75" style="1" customWidth="1"/>
+    <col min="7178" max="7178" width="9.42578125" style="1" customWidth="1"/>
+    <col min="7179" max="7179" width="6.5703125" style="1" customWidth="1"/>
+    <col min="7180" max="7180" width="9.5703125" style="1" customWidth="1"/>
+    <col min="7181" max="7181" width="12.5703125" style="1" customWidth="1"/>
+    <col min="7182" max="7182" width="6.7109375" style="1" customWidth="1"/>
     <col min="7183" max="7424" width="9" style="1"/>
-    <col min="7425" max="7425" width="2.875" style="1" customWidth="1"/>
-    <col min="7426" max="7426" width="6.25" style="1" customWidth="1"/>
-    <col min="7427" max="7431" width="8.875" style="1" customWidth="1"/>
+    <col min="7425" max="7425" width="2.85546875" style="1" customWidth="1"/>
+    <col min="7426" max="7426" width="6.28515625" style="1" customWidth="1"/>
+    <col min="7427" max="7431" width="8.85546875" style="1" customWidth="1"/>
     <col min="7432" max="7433" width="9" style="1"/>
-    <col min="7434" max="7434" width="9.5" style="1" customWidth="1"/>
-    <col min="7435" max="7435" width="6.625" style="1" customWidth="1"/>
-    <col min="7436" max="7436" width="9.625" style="1" customWidth="1"/>
-    <col min="7437" max="7437" width="12.625" style="1" customWidth="1"/>
-    <col min="7438" max="7438" width="6.75" style="1" customWidth="1"/>
+    <col min="7434" max="7434" width="9.42578125" style="1" customWidth="1"/>
+    <col min="7435" max="7435" width="6.5703125" style="1" customWidth="1"/>
+    <col min="7436" max="7436" width="9.5703125" style="1" customWidth="1"/>
+    <col min="7437" max="7437" width="12.5703125" style="1" customWidth="1"/>
+    <col min="7438" max="7438" width="6.7109375" style="1" customWidth="1"/>
     <col min="7439" max="7680" width="9" style="1"/>
-    <col min="7681" max="7681" width="2.875" style="1" customWidth="1"/>
-    <col min="7682" max="7682" width="6.25" style="1" customWidth="1"/>
-    <col min="7683" max="7687" width="8.875" style="1" customWidth="1"/>
+    <col min="7681" max="7681" width="2.85546875" style="1" customWidth="1"/>
+    <col min="7682" max="7682" width="6.28515625" style="1" customWidth="1"/>
+    <col min="7683" max="7687" width="8.85546875" style="1" customWidth="1"/>
     <col min="7688" max="7689" width="9" style="1"/>
-    <col min="7690" max="7690" width="9.5" style="1" customWidth="1"/>
-    <col min="7691" max="7691" width="6.625" style="1" customWidth="1"/>
-    <col min="7692" max="7692" width="9.625" style="1" customWidth="1"/>
-    <col min="7693" max="7693" width="12.625" style="1" customWidth="1"/>
-    <col min="7694" max="7694" width="6.75" style="1" customWidth="1"/>
+    <col min="7690" max="7690" width="9.42578125" style="1" customWidth="1"/>
+    <col min="7691" max="7691" width="6.5703125" style="1" customWidth="1"/>
+    <col min="7692" max="7692" width="9.5703125" style="1" customWidth="1"/>
+    <col min="7693" max="7693" width="12.5703125" style="1" customWidth="1"/>
+    <col min="7694" max="7694" width="6.7109375" style="1" customWidth="1"/>
     <col min="7695" max="7936" width="9" style="1"/>
-    <col min="7937" max="7937" width="2.875" style="1" customWidth="1"/>
-    <col min="7938" max="7938" width="6.25" style="1" customWidth="1"/>
-    <col min="7939" max="7943" width="8.875" style="1" customWidth="1"/>
+    <col min="7937" max="7937" width="2.85546875" style="1" customWidth="1"/>
+    <col min="7938" max="7938" width="6.28515625" style="1" customWidth="1"/>
+    <col min="7939" max="7943" width="8.85546875" style="1" customWidth="1"/>
     <col min="7944" max="7945" width="9" style="1"/>
-    <col min="7946" max="7946" width="9.5" style="1" customWidth="1"/>
-    <col min="7947" max="7947" width="6.625" style="1" customWidth="1"/>
-    <col min="7948" max="7948" width="9.625" style="1" customWidth="1"/>
-    <col min="7949" max="7949" width="12.625" style="1" customWidth="1"/>
-    <col min="7950" max="7950" width="6.75" style="1" customWidth="1"/>
+    <col min="7946" max="7946" width="9.42578125" style="1" customWidth="1"/>
+    <col min="7947" max="7947" width="6.5703125" style="1" customWidth="1"/>
+    <col min="7948" max="7948" width="9.5703125" style="1" customWidth="1"/>
+    <col min="7949" max="7949" width="12.5703125" style="1" customWidth="1"/>
+    <col min="7950" max="7950" width="6.7109375" style="1" customWidth="1"/>
     <col min="7951" max="8192" width="9" style="1"/>
-    <col min="8193" max="8193" width="2.875" style="1" customWidth="1"/>
-    <col min="8194" max="8194" width="6.25" style="1" customWidth="1"/>
-    <col min="8195" max="8199" width="8.875" style="1" customWidth="1"/>
+    <col min="8193" max="8193" width="2.85546875" style="1" customWidth="1"/>
+    <col min="8194" max="8194" width="6.28515625" style="1" customWidth="1"/>
+    <col min="8195" max="8199" width="8.85546875" style="1" customWidth="1"/>
     <col min="8200" max="8201" width="9" style="1"/>
-    <col min="8202" max="8202" width="9.5" style="1" customWidth="1"/>
-    <col min="8203" max="8203" width="6.625" style="1" customWidth="1"/>
-    <col min="8204" max="8204" width="9.625" style="1" customWidth="1"/>
-    <col min="8205" max="8205" width="12.625" style="1" customWidth="1"/>
-    <col min="8206" max="8206" width="6.75" style="1" customWidth="1"/>
+    <col min="8202" max="8202" width="9.42578125" style="1" customWidth="1"/>
+    <col min="8203" max="8203" width="6.5703125" style="1" customWidth="1"/>
+    <col min="8204" max="8204" width="9.5703125" style="1" customWidth="1"/>
+    <col min="8205" max="8205" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8206" max="8206" width="6.7109375" style="1" customWidth="1"/>
     <col min="8207" max="8448" width="9" style="1"/>
-    <col min="8449" max="8449" width="2.875" style="1" customWidth="1"/>
-    <col min="8450" max="8450" width="6.25" style="1" customWidth="1"/>
-    <col min="8451" max="8455" width="8.875" style="1" customWidth="1"/>
+    <col min="8449" max="8449" width="2.85546875" style="1" customWidth="1"/>
+    <col min="8450" max="8450" width="6.28515625" style="1" customWidth="1"/>
+    <col min="8451" max="8455" width="8.85546875" style="1" customWidth="1"/>
     <col min="8456" max="8457" width="9" style="1"/>
-    <col min="8458" max="8458" width="9.5" style="1" customWidth="1"/>
-    <col min="8459" max="8459" width="6.625" style="1" customWidth="1"/>
-    <col min="8460" max="8460" width="9.625" style="1" customWidth="1"/>
-    <col min="8461" max="8461" width="12.625" style="1" customWidth="1"/>
-    <col min="8462" max="8462" width="6.75" style="1" customWidth="1"/>
+    <col min="8458" max="8458" width="9.42578125" style="1" customWidth="1"/>
+    <col min="8459" max="8459" width="6.5703125" style="1" customWidth="1"/>
+    <col min="8460" max="8460" width="9.5703125" style="1" customWidth="1"/>
+    <col min="8461" max="8461" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8462" max="8462" width="6.7109375" style="1" customWidth="1"/>
     <col min="8463" max="8704" width="9" style="1"/>
-    <col min="8705" max="8705" width="2.875" style="1" customWidth="1"/>
-    <col min="8706" max="8706" width="6.25" style="1" customWidth="1"/>
-    <col min="8707" max="8711" width="8.875" style="1" customWidth="1"/>
+    <col min="8705" max="8705" width="2.85546875" style="1" customWidth="1"/>
+    <col min="8706" max="8706" width="6.28515625" style="1" customWidth="1"/>
+    <col min="8707" max="8711" width="8.85546875" style="1" customWidth="1"/>
     <col min="8712" max="8713" width="9" style="1"/>
-    <col min="8714" max="8714" width="9.5" style="1" customWidth="1"/>
-    <col min="8715" max="8715" width="6.625" style="1" customWidth="1"/>
-    <col min="8716" max="8716" width="9.625" style="1" customWidth="1"/>
-    <col min="8717" max="8717" width="12.625" style="1" customWidth="1"/>
-    <col min="8718" max="8718" width="6.75" style="1" customWidth="1"/>
+    <col min="8714" max="8714" width="9.42578125" style="1" customWidth="1"/>
+    <col min="8715" max="8715" width="6.5703125" style="1" customWidth="1"/>
+    <col min="8716" max="8716" width="9.5703125" style="1" customWidth="1"/>
+    <col min="8717" max="8717" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8718" max="8718" width="6.7109375" style="1" customWidth="1"/>
     <col min="8719" max="8960" width="9" style="1"/>
-    <col min="8961" max="8961" width="2.875" style="1" customWidth="1"/>
-    <col min="8962" max="8962" width="6.25" style="1" customWidth="1"/>
-    <col min="8963" max="8967" width="8.875" style="1" customWidth="1"/>
+    <col min="8961" max="8961" width="2.85546875" style="1" customWidth="1"/>
+    <col min="8962" max="8962" width="6.28515625" style="1" customWidth="1"/>
+    <col min="8963" max="8967" width="8.85546875" style="1" customWidth="1"/>
     <col min="8968" max="8969" width="9" style="1"/>
-    <col min="8970" max="8970" width="9.5" style="1" customWidth="1"/>
-    <col min="8971" max="8971" width="6.625" style="1" customWidth="1"/>
-    <col min="8972" max="8972" width="9.625" style="1" customWidth="1"/>
-    <col min="8973" max="8973" width="12.625" style="1" customWidth="1"/>
-    <col min="8974" max="8974" width="6.75" style="1" customWidth="1"/>
+    <col min="8970" max="8970" width="9.42578125" style="1" customWidth="1"/>
+    <col min="8971" max="8971" width="6.5703125" style="1" customWidth="1"/>
+    <col min="8972" max="8972" width="9.5703125" style="1" customWidth="1"/>
+    <col min="8973" max="8973" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8974" max="8974" width="6.7109375" style="1" customWidth="1"/>
     <col min="8975" max="9216" width="9" style="1"/>
-    <col min="9217" max="9217" width="2.875" style="1" customWidth="1"/>
-    <col min="9218" max="9218" width="6.25" style="1" customWidth="1"/>
-    <col min="9219" max="9223" width="8.875" style="1" customWidth="1"/>
+    <col min="9217" max="9217" width="2.85546875" style="1" customWidth="1"/>
+    <col min="9218" max="9218" width="6.28515625" style="1" customWidth="1"/>
+    <col min="9219" max="9223" width="8.85546875" style="1" customWidth="1"/>
     <col min="9224" max="9225" width="9" style="1"/>
-    <col min="9226" max="9226" width="9.5" style="1" customWidth="1"/>
-    <col min="9227" max="9227" width="6.625" style="1" customWidth="1"/>
-    <col min="9228" max="9228" width="9.625" style="1" customWidth="1"/>
-    <col min="9229" max="9229" width="12.625" style="1" customWidth="1"/>
-    <col min="9230" max="9230" width="6.75" style="1" customWidth="1"/>
+    <col min="9226" max="9226" width="9.42578125" style="1" customWidth="1"/>
+    <col min="9227" max="9227" width="6.5703125" style="1" customWidth="1"/>
+    <col min="9228" max="9228" width="9.5703125" style="1" customWidth="1"/>
+    <col min="9229" max="9229" width="12.5703125" style="1" customWidth="1"/>
+    <col min="9230" max="9230" width="6.7109375" style="1" customWidth="1"/>
     <col min="9231" max="9472" width="9" style="1"/>
-    <col min="9473" max="9473" width="2.875" style="1" customWidth="1"/>
-    <col min="9474" max="9474" width="6.25" style="1" customWidth="1"/>
-    <col min="9475" max="9479" width="8.875" style="1" customWidth="1"/>
+    <col min="9473" max="9473" width="2.85546875" style="1" customWidth="1"/>
+    <col min="9474" max="9474" width="6.28515625" style="1" customWidth="1"/>
+    <col min="9475" max="9479" width="8.85546875" style="1" customWidth="1"/>
     <col min="9480" max="9481" width="9" style="1"/>
-    <col min="9482" max="9482" width="9.5" style="1" customWidth="1"/>
-    <col min="9483" max="9483" width="6.625" style="1" customWidth="1"/>
-    <col min="9484" max="9484" width="9.625" style="1" customWidth="1"/>
-    <col min="9485" max="9485" width="12.625" style="1" customWidth="1"/>
-    <col min="9486" max="9486" width="6.75" style="1" customWidth="1"/>
+    <col min="9482" max="9482" width="9.42578125" style="1" customWidth="1"/>
+    <col min="9483" max="9483" width="6.5703125" style="1" customWidth="1"/>
+    <col min="9484" max="9484" width="9.5703125" style="1" customWidth="1"/>
+    <col min="9485" max="9485" width="12.5703125" style="1" customWidth="1"/>
+    <col min="9486" max="9486" width="6.7109375" style="1" customWidth="1"/>
     <col min="9487" max="9728" width="9" style="1"/>
-    <col min="9729" max="9729" width="2.875" style="1" customWidth="1"/>
-    <col min="9730" max="9730" width="6.25" style="1" customWidth="1"/>
-    <col min="9731" max="9735" width="8.875" style="1" customWidth="1"/>
+    <col min="9729" max="9729" width="2.85546875" style="1" customWidth="1"/>
+    <col min="9730" max="9730" width="6.28515625" style="1" customWidth="1"/>
+    <col min="9731" max="9735" width="8.85546875" style="1" customWidth="1"/>
     <col min="9736" max="9737" width="9" style="1"/>
-    <col min="9738" max="9738" width="9.5" style="1" customWidth="1"/>
-    <col min="9739" max="9739" width="6.625" style="1" customWidth="1"/>
-    <col min="9740" max="9740" width="9.625" style="1" customWidth="1"/>
-    <col min="9741" max="9741" width="12.625" style="1" customWidth="1"/>
-    <col min="9742" max="9742" width="6.75" style="1" customWidth="1"/>
+    <col min="9738" max="9738" width="9.42578125" style="1" customWidth="1"/>
+    <col min="9739" max="9739" width="6.5703125" style="1" customWidth="1"/>
+    <col min="9740" max="9740" width="9.5703125" style="1" customWidth="1"/>
+    <col min="9741" max="9741" width="12.5703125" style="1" customWidth="1"/>
+    <col min="9742" max="9742" width="6.7109375" style="1" customWidth="1"/>
     <col min="9743" max="9984" width="9" style="1"/>
-    <col min="9985" max="9985" width="2.875" style="1" customWidth="1"/>
-    <col min="9986" max="9986" width="6.25" style="1" customWidth="1"/>
-    <col min="9987" max="9991" width="8.875" style="1" customWidth="1"/>
+    <col min="9985" max="9985" width="2.85546875" style="1" customWidth="1"/>
+    <col min="9986" max="9986" width="6.28515625" style="1" customWidth="1"/>
+    <col min="9987" max="9991" width="8.85546875" style="1" customWidth="1"/>
     <col min="9992" max="9993" width="9" style="1"/>
-    <col min="9994" max="9994" width="9.5" style="1" customWidth="1"/>
-    <col min="9995" max="9995" width="6.625" style="1" customWidth="1"/>
-    <col min="9996" max="9996" width="9.625" style="1" customWidth="1"/>
-    <col min="9997" max="9997" width="12.625" style="1" customWidth="1"/>
-    <col min="9998" max="9998" width="6.75" style="1" customWidth="1"/>
+    <col min="9994" max="9994" width="9.42578125" style="1" customWidth="1"/>
+    <col min="9995" max="9995" width="6.5703125" style="1" customWidth="1"/>
+    <col min="9996" max="9996" width="9.5703125" style="1" customWidth="1"/>
+    <col min="9997" max="9997" width="12.5703125" style="1" customWidth="1"/>
+    <col min="9998" max="9998" width="6.7109375" style="1" customWidth="1"/>
     <col min="9999" max="10240" width="9" style="1"/>
-    <col min="10241" max="10241" width="2.875" style="1" customWidth="1"/>
-    <col min="10242" max="10242" width="6.25" style="1" customWidth="1"/>
-    <col min="10243" max="10247" width="8.875" style="1" customWidth="1"/>
+    <col min="10241" max="10241" width="2.85546875" style="1" customWidth="1"/>
+    <col min="10242" max="10242" width="6.28515625" style="1" customWidth="1"/>
+    <col min="10243" max="10247" width="8.85546875" style="1" customWidth="1"/>
     <col min="10248" max="10249" width="9" style="1"/>
-    <col min="10250" max="10250" width="9.5" style="1" customWidth="1"/>
-    <col min="10251" max="10251" width="6.625" style="1" customWidth="1"/>
-    <col min="10252" max="10252" width="9.625" style="1" customWidth="1"/>
-    <col min="10253" max="10253" width="12.625" style="1" customWidth="1"/>
-    <col min="10254" max="10254" width="6.75" style="1" customWidth="1"/>
+    <col min="10250" max="10250" width="9.42578125" style="1" customWidth="1"/>
+    <col min="10251" max="10251" width="6.5703125" style="1" customWidth="1"/>
+    <col min="10252" max="10252" width="9.5703125" style="1" customWidth="1"/>
+    <col min="10253" max="10253" width="12.5703125" style="1" customWidth="1"/>
+    <col min="10254" max="10254" width="6.7109375" style="1" customWidth="1"/>
     <col min="10255" max="10496" width="9" style="1"/>
-    <col min="10497" max="10497" width="2.875" style="1" customWidth="1"/>
-    <col min="10498" max="10498" width="6.25" style="1" customWidth="1"/>
-    <col min="10499" max="10503" width="8.875" style="1" customWidth="1"/>
+    <col min="10497" max="10497" width="2.85546875" style="1" customWidth="1"/>
+    <col min="10498" max="10498" width="6.28515625" style="1" customWidth="1"/>
+    <col min="10499" max="10503" width="8.85546875" style="1" customWidth="1"/>
     <col min="10504" max="10505" width="9" style="1"/>
-    <col min="10506" max="10506" width="9.5" style="1" customWidth="1"/>
-    <col min="10507" max="10507" width="6.625" style="1" customWidth="1"/>
-    <col min="10508" max="10508" width="9.625" style="1" customWidth="1"/>
-    <col min="10509" max="10509" width="12.625" style="1" customWidth="1"/>
-    <col min="10510" max="10510" width="6.75" style="1" customWidth="1"/>
+    <col min="10506" max="10506" width="9.42578125" style="1" customWidth="1"/>
+    <col min="10507" max="10507" width="6.5703125" style="1" customWidth="1"/>
+    <col min="10508" max="10508" width="9.5703125" style="1" customWidth="1"/>
+    <col min="10509" max="10509" width="12.5703125" style="1" customWidth="1"/>
+    <col min="10510" max="10510" width="6.7109375" style="1" customWidth="1"/>
     <col min="10511" max="10752" width="9" style="1"/>
-    <col min="10753" max="10753" width="2.875" style="1" customWidth="1"/>
-    <col min="10754" max="10754" width="6.25" style="1" customWidth="1"/>
-    <col min="10755" max="10759" width="8.875" style="1" customWidth="1"/>
+    <col min="10753" max="10753" width="2.85546875" style="1" customWidth="1"/>
+    <col min="10754" max="10754" width="6.28515625" style="1" customWidth="1"/>
+    <col min="10755" max="10759" width="8.85546875" style="1" customWidth="1"/>
     <col min="10760" max="10761" width="9" style="1"/>
-    <col min="10762" max="10762" width="9.5" style="1" customWidth="1"/>
-    <col min="10763" max="10763" width="6.625" style="1" customWidth="1"/>
-    <col min="10764" max="10764" width="9.625" style="1" customWidth="1"/>
-    <col min="10765" max="10765" width="12.625" style="1" customWidth="1"/>
-    <col min="10766" max="10766" width="6.75" style="1" customWidth="1"/>
+    <col min="10762" max="10762" width="9.42578125" style="1" customWidth="1"/>
+    <col min="10763" max="10763" width="6.5703125" style="1" customWidth="1"/>
+    <col min="10764" max="10764" width="9.5703125" style="1" customWidth="1"/>
+    <col min="10765" max="10765" width="12.5703125" style="1" customWidth="1"/>
+    <col min="10766" max="10766" width="6.7109375" style="1" customWidth="1"/>
     <col min="10767" max="11008" width="9" style="1"/>
-    <col min="11009" max="11009" width="2.875" style="1" customWidth="1"/>
-    <col min="11010" max="11010" width="6.25" style="1" customWidth="1"/>
-    <col min="11011" max="11015" width="8.875" style="1" customWidth="1"/>
+    <col min="11009" max="11009" width="2.85546875" style="1" customWidth="1"/>
+    <col min="11010" max="11010" width="6.28515625" style="1" customWidth="1"/>
+    <col min="11011" max="11015" width="8.85546875" style="1" customWidth="1"/>
     <col min="11016" max="11017" width="9" style="1"/>
-    <col min="11018" max="11018" width="9.5" style="1" customWidth="1"/>
-    <col min="11019" max="11019" width="6.625" style="1" customWidth="1"/>
-    <col min="11020" max="11020" width="9.625" style="1" customWidth="1"/>
-    <col min="11021" max="11021" width="12.625" style="1" customWidth="1"/>
-    <col min="11022" max="11022" width="6.75" style="1" customWidth="1"/>
+    <col min="11018" max="11018" width="9.42578125" style="1" customWidth="1"/>
+    <col min="11019" max="11019" width="6.5703125" style="1" customWidth="1"/>
+    <col min="11020" max="11020" width="9.5703125" style="1" customWidth="1"/>
+    <col min="11021" max="11021" width="12.5703125" style="1" customWidth="1"/>
+    <col min="11022" max="11022" width="6.7109375" style="1" customWidth="1"/>
     <col min="11023" max="11264" width="9" style="1"/>
-    <col min="11265" max="11265" width="2.875" style="1" customWidth="1"/>
-    <col min="11266" max="11266" width="6.25" style="1" customWidth="1"/>
-    <col min="11267" max="11271" width="8.875" style="1" customWidth="1"/>
+    <col min="11265" max="11265" width="2.85546875" style="1" customWidth="1"/>
+    <col min="11266" max="11266" width="6.28515625" style="1" customWidth="1"/>
+    <col min="11267" max="11271" width="8.85546875" style="1" customWidth="1"/>
     <col min="11272" max="11273" width="9" style="1"/>
-    <col min="11274" max="11274" width="9.5" style="1" customWidth="1"/>
-    <col min="11275" max="11275" width="6.625" style="1" customWidth="1"/>
-    <col min="11276" max="11276" width="9.625" style="1" customWidth="1"/>
-    <col min="11277" max="11277" width="12.625" style="1" customWidth="1"/>
-    <col min="11278" max="11278" width="6.75" style="1" customWidth="1"/>
+    <col min="11274" max="11274" width="9.42578125" style="1" customWidth="1"/>
+    <col min="11275" max="11275" width="6.5703125" style="1" customWidth="1"/>
+    <col min="11276" max="11276" width="9.5703125" style="1" customWidth="1"/>
+    <col min="11277" max="11277" width="12.5703125" style="1" customWidth="1"/>
+    <col min="11278" max="11278" width="6.7109375" style="1" customWidth="1"/>
     <col min="11279" max="11520" width="9" style="1"/>
-    <col min="11521" max="11521" width="2.875" style="1" customWidth="1"/>
-    <col min="11522" max="11522" width="6.25" style="1" customWidth="1"/>
-    <col min="11523" max="11527" width="8.875" style="1" customWidth="1"/>
+    <col min="11521" max="11521" width="2.85546875" style="1" customWidth="1"/>
+    <col min="11522" max="11522" width="6.28515625" style="1" customWidth="1"/>
+    <col min="11523" max="11527" width="8.85546875" style="1" customWidth="1"/>
     <col min="11528" max="11529" width="9" style="1"/>
-    <col min="11530" max="11530" width="9.5" style="1" customWidth="1"/>
-    <col min="11531" max="11531" width="6.625" style="1" customWidth="1"/>
-    <col min="11532" max="11532" width="9.625" style="1" customWidth="1"/>
-    <col min="11533" max="11533" width="12.625" style="1" customWidth="1"/>
-    <col min="11534" max="11534" width="6.75" style="1" customWidth="1"/>
+    <col min="11530" max="11530" width="9.42578125" style="1" customWidth="1"/>
+    <col min="11531" max="11531" width="6.5703125" style="1" customWidth="1"/>
+    <col min="11532" max="11532" width="9.5703125" style="1" customWidth="1"/>
+    <col min="11533" max="11533" width="12.5703125" style="1" customWidth="1"/>
+    <col min="11534" max="11534" width="6.7109375" style="1" customWidth="1"/>
     <col min="11535" max="11776" width="9" style="1"/>
-    <col min="11777" max="11777" width="2.875" style="1" customWidth="1"/>
-    <col min="11778" max="11778" width="6.25" style="1" customWidth="1"/>
-    <col min="11779" max="11783" width="8.875" style="1" customWidth="1"/>
+    <col min="11777" max="11777" width="2.85546875" style="1" customWidth="1"/>
+    <col min="11778" max="11778" width="6.28515625" style="1" customWidth="1"/>
+    <col min="11779" max="11783" width="8.85546875" style="1" customWidth="1"/>
     <col min="11784" max="11785" width="9" style="1"/>
-    <col min="11786" max="11786" width="9.5" style="1" customWidth="1"/>
-    <col min="11787" max="11787" width="6.625" style="1" customWidth="1"/>
-    <col min="11788" max="11788" width="9.625" style="1" customWidth="1"/>
-    <col min="11789" max="11789" width="12.625" style="1" customWidth="1"/>
-    <col min="11790" max="11790" width="6.75" style="1" customWidth="1"/>
+    <col min="11786" max="11786" width="9.42578125" style="1" customWidth="1"/>
+    <col min="11787" max="11787" width="6.5703125" style="1" customWidth="1"/>
+    <col min="11788" max="11788" width="9.5703125" style="1" customWidth="1"/>
+    <col min="11789" max="11789" width="12.5703125" style="1" customWidth="1"/>
+    <col min="11790" max="11790" width="6.7109375" style="1" customWidth="1"/>
     <col min="11791" max="12032" width="9" style="1"/>
-    <col min="12033" max="12033" width="2.875" style="1" customWidth="1"/>
-    <col min="12034" max="12034" width="6.25" style="1" customWidth="1"/>
-    <col min="12035" max="12039" width="8.875" style="1" customWidth="1"/>
+    <col min="12033" max="12033" width="2.85546875" style="1" customWidth="1"/>
+    <col min="12034" max="12034" width="6.28515625" style="1" customWidth="1"/>
+    <col min="12035" max="12039" width="8.85546875" style="1" customWidth="1"/>
     <col min="12040" max="12041" width="9" style="1"/>
-    <col min="12042" max="12042" width="9.5" style="1" customWidth="1"/>
-    <col min="12043" max="12043" width="6.625" style="1" customWidth="1"/>
-    <col min="12044" max="12044" width="9.625" style="1" customWidth="1"/>
-    <col min="12045" max="12045" width="12.625" style="1" customWidth="1"/>
-    <col min="12046" max="12046" width="6.75" style="1" customWidth="1"/>
+    <col min="12042" max="12042" width="9.42578125" style="1" customWidth="1"/>
+    <col min="12043" max="12043" width="6.5703125" style="1" customWidth="1"/>
+    <col min="12044" max="12044" width="9.5703125" style="1" customWidth="1"/>
+    <col min="12045" max="12045" width="12.5703125" style="1" customWidth="1"/>
+    <col min="12046" max="12046" width="6.7109375" style="1" customWidth="1"/>
     <col min="12047" max="12288" width="9" style="1"/>
-    <col min="12289" max="12289" width="2.875" style="1" customWidth="1"/>
-    <col min="12290" max="12290" width="6.25" style="1" customWidth="1"/>
-    <col min="12291" max="12295" width="8.875" style="1" customWidth="1"/>
+    <col min="12289" max="12289" width="2.85546875" style="1" customWidth="1"/>
+    <col min="12290" max="12290" width="6.28515625" style="1" customWidth="1"/>
+    <col min="12291" max="12295" width="8.85546875" style="1" customWidth="1"/>
     <col min="12296" max="12297" width="9" style="1"/>
-    <col min="12298" max="12298" width="9.5" style="1" customWidth="1"/>
-    <col min="12299" max="12299" width="6.625" style="1" customWidth="1"/>
-    <col min="12300" max="12300" width="9.625" style="1" customWidth="1"/>
-    <col min="12301" max="12301" width="12.625" style="1" customWidth="1"/>
-    <col min="12302" max="12302" width="6.75" style="1" customWidth="1"/>
+    <col min="12298" max="12298" width="9.42578125" style="1" customWidth="1"/>
+    <col min="12299" max="12299" width="6.5703125" style="1" customWidth="1"/>
+    <col min="12300" max="12300" width="9.5703125" style="1" customWidth="1"/>
+    <col min="12301" max="12301" width="12.5703125" style="1" customWidth="1"/>
+    <col min="12302" max="12302" width="6.7109375" style="1" customWidth="1"/>
     <col min="12303" max="12544" width="9" style="1"/>
-    <col min="12545" max="12545" width="2.875" style="1" customWidth="1"/>
-    <col min="12546" max="12546" width="6.25" style="1" customWidth="1"/>
-    <col min="12547" max="12551" width="8.875" style="1" customWidth="1"/>
+    <col min="12545" max="12545" width="2.85546875" style="1" customWidth="1"/>
+    <col min="12546" max="12546" width="6.28515625" style="1" customWidth="1"/>
+    <col min="12547" max="12551" width="8.85546875" style="1" customWidth="1"/>
     <col min="12552" max="12553" width="9" style="1"/>
-    <col min="12554" max="12554" width="9.5" style="1" customWidth="1"/>
-    <col min="12555" max="12555" width="6.625" style="1" customWidth="1"/>
-    <col min="12556" max="12556" width="9.625" style="1" customWidth="1"/>
-    <col min="12557" max="12557" width="12.625" style="1" customWidth="1"/>
-    <col min="12558" max="12558" width="6.75" style="1" customWidth="1"/>
+    <col min="12554" max="12554" width="9.42578125" style="1" customWidth="1"/>
+    <col min="12555" max="12555" width="6.5703125" style="1" customWidth="1"/>
+    <col min="12556" max="12556" width="9.5703125" style="1" customWidth="1"/>
+    <col min="12557" max="12557" width="12.5703125" style="1" customWidth="1"/>
+    <col min="12558" max="12558" width="6.7109375" style="1" customWidth="1"/>
     <col min="12559" max="12800" width="9" style="1"/>
-    <col min="12801" max="12801" width="2.875" style="1" customWidth="1"/>
-    <col min="12802" max="12802" width="6.25" style="1" customWidth="1"/>
-    <col min="12803" max="12807" width="8.875" style="1" customWidth="1"/>
+    <col min="12801" max="12801" width="2.85546875" style="1" customWidth="1"/>
+    <col min="12802" max="12802" width="6.28515625" style="1" customWidth="1"/>
+    <col min="12803" max="12807" width="8.85546875" style="1" customWidth="1"/>
     <col min="12808" max="12809" width="9" style="1"/>
-    <col min="12810" max="12810" width="9.5" style="1" customWidth="1"/>
-    <col min="12811" max="12811" width="6.625" style="1" customWidth="1"/>
-    <col min="12812" max="12812" width="9.625" style="1" customWidth="1"/>
-    <col min="12813" max="12813" width="12.625" style="1" customWidth="1"/>
-    <col min="12814" max="12814" width="6.75" style="1" customWidth="1"/>
+    <col min="12810" max="12810" width="9.42578125" style="1" customWidth="1"/>
+    <col min="12811" max="12811" width="6.5703125" style="1" customWidth="1"/>
+    <col min="12812" max="12812" width="9.5703125" style="1" customWidth="1"/>
+    <col min="12813" max="12813" width="12.5703125" style="1" customWidth="1"/>
+    <col min="12814" max="12814" width="6.7109375" style="1" customWidth="1"/>
     <col min="12815" max="13056" width="9" style="1"/>
-    <col min="13057" max="13057" width="2.875" style="1" customWidth="1"/>
-    <col min="13058" max="13058" width="6.25" style="1" customWidth="1"/>
-    <col min="13059" max="13063" width="8.875" style="1" customWidth="1"/>
+    <col min="13057" max="13057" width="2.85546875" style="1" customWidth="1"/>
+    <col min="13058" max="13058" width="6.28515625" style="1" customWidth="1"/>
+    <col min="13059" max="13063" width="8.85546875" style="1" customWidth="1"/>
     <col min="13064" max="13065" width="9" style="1"/>
-    <col min="13066" max="13066" width="9.5" style="1" customWidth="1"/>
-    <col min="13067" max="13067" width="6.625" style="1" customWidth="1"/>
-    <col min="13068" max="13068" width="9.625" style="1" customWidth="1"/>
-    <col min="13069" max="13069" width="12.625" style="1" customWidth="1"/>
-    <col min="13070" max="13070" width="6.75" style="1" customWidth="1"/>
+    <col min="13066" max="13066" width="9.42578125" style="1" customWidth="1"/>
+    <col min="13067" max="13067" width="6.5703125" style="1" customWidth="1"/>
+    <col min="13068" max="13068" width="9.5703125" style="1" customWidth="1"/>
+    <col min="13069" max="13069" width="12.5703125" style="1" customWidth="1"/>
+    <col min="13070" max="13070" width="6.7109375" style="1" customWidth="1"/>
     <col min="13071" max="13312" width="9" style="1"/>
-    <col min="13313" max="13313" width="2.875" style="1" customWidth="1"/>
-    <col min="13314" max="13314" width="6.25" style="1" customWidth="1"/>
-    <col min="13315" max="13319" width="8.875" style="1" customWidth="1"/>
+    <col min="13313" max="13313" width="2.85546875" style="1" customWidth="1"/>
+    <col min="13314" max="13314" width="6.28515625" style="1" customWidth="1"/>
+    <col min="13315" max="13319" width="8.85546875" style="1" customWidth="1"/>
     <col min="13320" max="13321" width="9" style="1"/>
-    <col min="13322" max="13322" width="9.5" style="1" customWidth="1"/>
-    <col min="13323" max="13323" width="6.625" style="1" customWidth="1"/>
-    <col min="13324" max="13324" width="9.625" style="1" customWidth="1"/>
-    <col min="13325" max="13325" width="12.625" style="1" customWidth="1"/>
-    <col min="13326" max="13326" width="6.75" style="1" customWidth="1"/>
+    <col min="13322" max="13322" width="9.42578125" style="1" customWidth="1"/>
+    <col min="13323" max="13323" width="6.5703125" style="1" customWidth="1"/>
+    <col min="13324" max="13324" width="9.5703125" style="1" customWidth="1"/>
+    <col min="13325" max="13325" width="12.5703125" style="1" customWidth="1"/>
+    <col min="13326" max="13326" width="6.7109375" style="1" customWidth="1"/>
     <col min="13327" max="13568" width="9" style="1"/>
-    <col min="13569" max="13569" width="2.875" style="1" customWidth="1"/>
-    <col min="13570" max="13570" width="6.25" style="1" customWidth="1"/>
-    <col min="13571" max="13575" width="8.875" style="1" customWidth="1"/>
+    <col min="13569" max="13569" width="2.85546875" style="1" customWidth="1"/>
+    <col min="13570" max="13570" width="6.28515625" style="1" customWidth="1"/>
+    <col min="13571" max="13575" width="8.85546875" style="1" customWidth="1"/>
     <col min="13576" max="13577" width="9" style="1"/>
-    <col min="13578" max="13578" width="9.5" style="1" customWidth="1"/>
-    <col min="13579" max="13579" width="6.625" style="1" customWidth="1"/>
-    <col min="13580" max="13580" width="9.625" style="1" customWidth="1"/>
-    <col min="13581" max="13581" width="12.625" style="1" customWidth="1"/>
-    <col min="13582" max="13582" width="6.75" style="1" customWidth="1"/>
+    <col min="13578" max="13578" width="9.42578125" style="1" customWidth="1"/>
+    <col min="13579" max="13579" width="6.5703125" style="1" customWidth="1"/>
+    <col min="13580" max="13580" width="9.5703125" style="1" customWidth="1"/>
+    <col min="13581" max="13581" width="12.5703125" style="1" customWidth="1"/>
+    <col min="13582" max="13582" width="6.7109375" style="1" customWidth="1"/>
     <col min="13583" max="13824" width="9" style="1"/>
-    <col min="13825" max="13825" width="2.875" style="1" customWidth="1"/>
-    <col min="13826" max="13826" width="6.25" style="1" customWidth="1"/>
-    <col min="13827" max="13831" width="8.875" style="1" customWidth="1"/>
+    <col min="13825" max="13825" width="2.85546875" style="1" customWidth="1"/>
+    <col min="13826" max="13826" width="6.28515625" style="1" customWidth="1"/>
+    <col min="13827" max="13831" width="8.85546875" style="1" customWidth="1"/>
     <col min="13832" max="13833" width="9" style="1"/>
-    <col min="13834" max="13834" width="9.5" style="1" customWidth="1"/>
-    <col min="13835" max="13835" width="6.625" style="1" customWidth="1"/>
-    <col min="13836" max="13836" width="9.625" style="1" customWidth="1"/>
-    <col min="13837" max="13837" width="12.625" style="1" customWidth="1"/>
-    <col min="13838" max="13838" width="6.75" style="1" customWidth="1"/>
+    <col min="13834" max="13834" width="9.42578125" style="1" customWidth="1"/>
+    <col min="13835" max="13835" width="6.5703125" style="1" customWidth="1"/>
+    <col min="13836" max="13836" width="9.5703125" style="1" customWidth="1"/>
+    <col min="13837" max="13837" width="12.5703125" style="1" customWidth="1"/>
+    <col min="13838" max="13838" width="6.7109375" style="1" customWidth="1"/>
     <col min="13839" max="14080" width="9" style="1"/>
-    <col min="14081" max="14081" width="2.875" style="1" customWidth="1"/>
-    <col min="14082" max="14082" width="6.25" style="1" customWidth="1"/>
-    <col min="14083" max="14087" width="8.875" style="1" customWidth="1"/>
+    <col min="14081" max="14081" width="2.85546875" style="1" customWidth="1"/>
+    <col min="14082" max="14082" width="6.28515625" style="1" customWidth="1"/>
+    <col min="14083" max="14087" width="8.85546875" style="1" customWidth="1"/>
     <col min="14088" max="14089" width="9" style="1"/>
-    <col min="14090" max="14090" width="9.5" style="1" customWidth="1"/>
-    <col min="14091" max="14091" width="6.625" style="1" customWidth="1"/>
-    <col min="14092" max="14092" width="9.625" style="1" customWidth="1"/>
-    <col min="14093" max="14093" width="12.625" style="1" customWidth="1"/>
-    <col min="14094" max="14094" width="6.75" style="1" customWidth="1"/>
+    <col min="14090" max="14090" width="9.42578125" style="1" customWidth="1"/>
+    <col min="14091" max="14091" width="6.5703125" style="1" customWidth="1"/>
+    <col min="14092" max="14092" width="9.5703125" style="1" customWidth="1"/>
+    <col min="14093" max="14093" width="12.5703125" style="1" customWidth="1"/>
+    <col min="14094" max="14094" width="6.7109375" style="1" customWidth="1"/>
     <col min="14095" max="14336" width="9" style="1"/>
-    <col min="14337" max="14337" width="2.875" style="1" customWidth="1"/>
-    <col min="14338" max="14338" width="6.25" style="1" customWidth="1"/>
-    <col min="14339" max="14343" width="8.875" style="1" customWidth="1"/>
+    <col min="14337" max="14337" width="2.85546875" style="1" customWidth="1"/>
+    <col min="14338" max="14338" width="6.28515625" style="1" customWidth="1"/>
+    <col min="14339" max="14343" width="8.85546875" style="1" customWidth="1"/>
     <col min="14344" max="14345" width="9" style="1"/>
-    <col min="14346" max="14346" width="9.5" style="1" customWidth="1"/>
-    <col min="14347" max="14347" width="6.625" style="1" customWidth="1"/>
-    <col min="14348" max="14348" width="9.625" style="1" customWidth="1"/>
-    <col min="14349" max="14349" width="12.625" style="1" customWidth="1"/>
-    <col min="14350" max="14350" width="6.75" style="1" customWidth="1"/>
+    <col min="14346" max="14346" width="9.42578125" style="1" customWidth="1"/>
+    <col min="14347" max="14347" width="6.5703125" style="1" customWidth="1"/>
+    <col min="14348" max="14348" width="9.5703125" style="1" customWidth="1"/>
+    <col min="14349" max="14349" width="12.5703125" style="1" customWidth="1"/>
+    <col min="14350" max="14350" width="6.7109375" style="1" customWidth="1"/>
     <col min="14351" max="14592" width="9" style="1"/>
-    <col min="14593" max="14593" width="2.875" style="1" customWidth="1"/>
-    <col min="14594" max="14594" width="6.25" style="1" customWidth="1"/>
-    <col min="14595" max="14599" width="8.875" style="1" customWidth="1"/>
+    <col min="14593" max="14593" width="2.85546875" style="1" customWidth="1"/>
+    <col min="14594" max="14594" width="6.28515625" style="1" customWidth="1"/>
+    <col min="14595" max="14599" width="8.85546875" style="1" customWidth="1"/>
     <col min="14600" max="14601" width="9" style="1"/>
-    <col min="14602" max="14602" width="9.5" style="1" customWidth="1"/>
-    <col min="14603" max="14603" width="6.625" style="1" customWidth="1"/>
-    <col min="14604" max="14604" width="9.625" style="1" customWidth="1"/>
-    <col min="14605" max="14605" width="12.625" style="1" customWidth="1"/>
-    <col min="14606" max="14606" width="6.75" style="1" customWidth="1"/>
+    <col min="14602" max="14602" width="9.42578125" style="1" customWidth="1"/>
+    <col min="14603" max="14603" width="6.5703125" style="1" customWidth="1"/>
+    <col min="14604" max="14604" width="9.5703125" style="1" customWidth="1"/>
+    <col min="14605" max="14605" width="12.5703125" style="1" customWidth="1"/>
+    <col min="14606" max="14606" width="6.7109375" style="1" customWidth="1"/>
     <col min="14607" max="14848" width="9" style="1"/>
-    <col min="14849" max="14849" width="2.875" style="1" customWidth="1"/>
-    <col min="14850" max="14850" width="6.25" style="1" customWidth="1"/>
-    <col min="14851" max="14855" width="8.875" style="1" customWidth="1"/>
+    <col min="14849" max="14849" width="2.85546875" style="1" customWidth="1"/>
+    <col min="14850" max="14850" width="6.28515625" style="1" customWidth="1"/>
+    <col min="14851" max="14855" width="8.85546875" style="1" customWidth="1"/>
     <col min="14856" max="14857" width="9" style="1"/>
-    <col min="14858" max="14858" width="9.5" style="1" customWidth="1"/>
-    <col min="14859" max="14859" width="6.625" style="1" customWidth="1"/>
-    <col min="14860" max="14860" width="9.625" style="1" customWidth="1"/>
-    <col min="14861" max="14861" width="12.625" style="1" customWidth="1"/>
-    <col min="14862" max="14862" width="6.75" style="1" customWidth="1"/>
+    <col min="14858" max="14858" width="9.42578125" style="1" customWidth="1"/>
+    <col min="14859" max="14859" width="6.5703125" style="1" customWidth="1"/>
+    <col min="14860" max="14860" width="9.5703125" style="1" customWidth="1"/>
+    <col min="14861" max="14861" width="12.5703125" style="1" customWidth="1"/>
+    <col min="14862" max="14862" width="6.7109375" style="1" customWidth="1"/>
     <col min="14863" max="15104" width="9" style="1"/>
-    <col min="15105" max="15105" width="2.875" style="1" customWidth="1"/>
-    <col min="15106" max="15106" width="6.25" style="1" customWidth="1"/>
-    <col min="15107" max="15111" width="8.875" style="1" customWidth="1"/>
+    <col min="15105" max="15105" width="2.85546875" style="1" customWidth="1"/>
+    <col min="15106" max="15106" width="6.28515625" style="1" customWidth="1"/>
+    <col min="15107" max="15111" width="8.85546875" style="1" customWidth="1"/>
     <col min="15112" max="15113" width="9" style="1"/>
-    <col min="15114" max="15114" width="9.5" style="1" customWidth="1"/>
-    <col min="15115" max="15115" width="6.625" style="1" customWidth="1"/>
-    <col min="15116" max="15116" width="9.625" style="1" customWidth="1"/>
-    <col min="15117" max="15117" width="12.625" style="1" customWidth="1"/>
-    <col min="15118" max="15118" width="6.75" style="1" customWidth="1"/>
+    <col min="15114" max="15114" width="9.42578125" style="1" customWidth="1"/>
+    <col min="15115" max="15115" width="6.5703125" style="1" customWidth="1"/>
+    <col min="15116" max="15116" width="9.5703125" style="1" customWidth="1"/>
+    <col min="15117" max="15117" width="12.5703125" style="1" customWidth="1"/>
+    <col min="15118" max="15118" width="6.7109375" style="1" customWidth="1"/>
     <col min="15119" max="15360" width="9" style="1"/>
-    <col min="15361" max="15361" width="2.875" style="1" customWidth="1"/>
-    <col min="15362" max="15362" width="6.25" style="1" customWidth="1"/>
-    <col min="15363" max="15367" width="8.875" style="1" customWidth="1"/>
+    <col min="15361" max="15361" width="2.85546875" style="1" customWidth="1"/>
+    <col min="15362" max="15362" width="6.28515625" style="1" customWidth="1"/>
+    <col min="15363" max="15367" width="8.85546875" style="1" customWidth="1"/>
     <col min="15368" max="15369" width="9" style="1"/>
-    <col min="15370" max="15370" width="9.5" style="1" customWidth="1"/>
-    <col min="15371" max="15371" width="6.625" style="1" customWidth="1"/>
-    <col min="15372" max="15372" width="9.625" style="1" customWidth="1"/>
-    <col min="15373" max="15373" width="12.625" style="1" customWidth="1"/>
-    <col min="15374" max="15374" width="6.75" style="1" customWidth="1"/>
+    <col min="15370" max="15370" width="9.42578125" style="1" customWidth="1"/>
+    <col min="15371" max="15371" width="6.5703125" style="1" customWidth="1"/>
+    <col min="15372" max="15372" width="9.5703125" style="1" customWidth="1"/>
+    <col min="15373" max="15373" width="12.5703125" style="1" customWidth="1"/>
+    <col min="15374" max="15374" width="6.7109375" style="1" customWidth="1"/>
     <col min="15375" max="15616" width="9" style="1"/>
-    <col min="15617" max="15617" width="2.875" style="1" customWidth="1"/>
-    <col min="15618" max="15618" width="6.25" style="1" customWidth="1"/>
-    <col min="15619" max="15623" width="8.875" style="1" customWidth="1"/>
+    <col min="15617" max="15617" width="2.85546875" style="1" customWidth="1"/>
+    <col min="15618" max="15618" width="6.28515625" style="1" customWidth="1"/>
+    <col min="15619" max="15623" width="8.85546875" style="1" customWidth="1"/>
     <col min="15624" max="15625" width="9" style="1"/>
-    <col min="15626" max="15626" width="9.5" style="1" customWidth="1"/>
-    <col min="15627" max="15627" width="6.625" style="1" customWidth="1"/>
-    <col min="15628" max="15628" width="9.625" style="1" customWidth="1"/>
-    <col min="15629" max="15629" width="12.625" style="1" customWidth="1"/>
-    <col min="15630" max="15630" width="6.75" style="1" customWidth="1"/>
+    <col min="15626" max="15626" width="9.42578125" style="1" customWidth="1"/>
+    <col min="15627" max="15627" width="6.5703125" style="1" customWidth="1"/>
+    <col min="15628" max="15628" width="9.5703125" style="1" customWidth="1"/>
+    <col min="15629" max="15629" width="12.5703125" style="1" customWidth="1"/>
+    <col min="15630" max="15630" width="6.7109375" style="1" customWidth="1"/>
     <col min="15631" max="15872" width="9" style="1"/>
-    <col min="15873" max="15873" width="2.875" style="1" customWidth="1"/>
-    <col min="15874" max="15874" width="6.25" style="1" customWidth="1"/>
-    <col min="15875" max="15879" width="8.875" style="1" customWidth="1"/>
+    <col min="15873" max="15873" width="2.85546875" style="1" customWidth="1"/>
+    <col min="15874" max="15874" width="6.28515625" style="1" customWidth="1"/>
+    <col min="15875" max="15879" width="8.85546875" style="1" customWidth="1"/>
     <col min="15880" max="15881" width="9" style="1"/>
-    <col min="15882" max="15882" width="9.5" style="1" customWidth="1"/>
-    <col min="15883" max="15883" width="6.625" style="1" customWidth="1"/>
-    <col min="15884" max="15884" width="9.625" style="1" customWidth="1"/>
-    <col min="15885" max="15885" width="12.625" style="1" customWidth="1"/>
-    <col min="15886" max="15886" width="6.75" style="1" customWidth="1"/>
+    <col min="15882" max="15882" width="9.42578125" style="1" customWidth="1"/>
+    <col min="15883" max="15883" width="6.5703125" style="1" customWidth="1"/>
+    <col min="15884" max="15884" width="9.5703125" style="1" customWidth="1"/>
+    <col min="15885" max="15885" width="12.5703125" style="1" customWidth="1"/>
+    <col min="15886" max="15886" width="6.7109375" style="1" customWidth="1"/>
     <col min="15887" max="16128" width="9" style="1"/>
-    <col min="16129" max="16129" width="2.875" style="1" customWidth="1"/>
-    <col min="16130" max="16130" width="6.25" style="1" customWidth="1"/>
-    <col min="16131" max="16135" width="8.875" style="1" customWidth="1"/>
+    <col min="16129" max="16129" width="2.85546875" style="1" customWidth="1"/>
+    <col min="16130" max="16130" width="6.28515625" style="1" customWidth="1"/>
+    <col min="16131" max="16135" width="8.85546875" style="1" customWidth="1"/>
     <col min="16136" max="16137" width="9" style="1"/>
-    <col min="16138" max="16138" width="9.5" style="1" customWidth="1"/>
-    <col min="16139" max="16139" width="6.625" style="1" customWidth="1"/>
-    <col min="16140" max="16140" width="9.625" style="1" customWidth="1"/>
-    <col min="16141" max="16141" width="12.625" style="1" customWidth="1"/>
-    <col min="16142" max="16142" width="6.75" style="1" customWidth="1"/>
+    <col min="16138" max="16138" width="9.42578125" style="1" customWidth="1"/>
+    <col min="16139" max="16139" width="6.5703125" style="1" customWidth="1"/>
+    <col min="16140" max="16140" width="9.5703125" style="1" customWidth="1"/>
+    <col min="16141" max="16141" width="12.5703125" style="1" customWidth="1"/>
+    <col min="16142" max="16142" width="6.7109375" style="1" customWidth="1"/>
     <col min="16143" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="28.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-    </row>
-    <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" spans="1:18" s="4" customFormat="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
       <c r="H4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="42"/>
+      <c r="J4" s="35"/>
       <c r="K4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="43">
+      <c r="L4" s="36">
         <v>42241</v>
       </c>
-      <c r="M4" s="43"/>
+      <c r="M4" s="36"/>
       <c r="N4" s="6"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="4" customFormat="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="42" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="42"/>
+      <c r="J5" s="35"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -1967,7 +2046,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="7"/>
     </row>
-    <row r="6" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" s="4" customFormat="1">
       <c r="A6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="8"/>
@@ -1983,7 +2062,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="7"/>
     </row>
-    <row r="7" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" s="4" customFormat="1">
       <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
         <v>6</v>
@@ -2004,7 +2083,7 @@
       <c r="P7" s="3"/>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" s="4" customFormat="1" ht="24">
       <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
@@ -2020,22 +2099,22 @@
       <c r="F8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="45" t="s">
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="47"/>
+      <c r="M8" s="40"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="7"/>
     </row>
-    <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" s="4" customFormat="1">
       <c r="B9" s="13">
         <v>1</v>
       </c>
@@ -2049,47 +2128,47 @@
       <c r="F9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="37"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="29"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="7"/>
     </row>
-    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" s="4" customFormat="1">
       <c r="B10" s="13">
         <v>2</v>
       </c>
       <c r="C10" s="14">
         <v>42250</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="24">
         <v>0.2</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="37"/>
+      <c r="G10" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="29"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="7"/>
     </row>
-    <row r="11" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" s="4" customFormat="1">
       <c r="B11" s="13">
         <v>3</v>
       </c>
@@ -2097,18 +2176,18 @@
       <c r="D11" s="15"/>
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="37"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="29"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="7"/>
     </row>
-    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" s="4" customFormat="1">
       <c r="B12" s="13">
         <v>4</v>
       </c>
@@ -2116,18 +2195,18 @@
       <c r="D12" s="15"/>
       <c r="E12" s="16"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="37"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="29"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" s="4" customFormat="1">
       <c r="B13" s="13">
         <v>5</v>
       </c>
@@ -2135,31 +2214,23 @@
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="37"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="29"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="7"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18">
       <c r="A14" s="19"/>
       <c r="E14" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:M12"/>
     <mergeCell ref="G9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="B2:M2"/>
@@ -2173,6 +2244,14 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -2190,469 +2269,429 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E56"/>
+  <dimension ref="B1:E45"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" style="22" customWidth="1"/>
     <col min="2" max="2" width="8" style="22" customWidth="1"/>
-    <col min="3" max="3" width="67.875" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="67.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="22" customWidth="1"/>
     <col min="5" max="5" width="11" style="22" customWidth="1"/>
     <col min="6" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:5">
       <c r="B1" s="23"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="2:5">
+      <c r="B2" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="23"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="25" t="s">
+    <row r="5" spans="2:5">
+      <c r="B5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="49" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="26">
+    <row r="6" spans="2:5">
+      <c r="B6" s="53">
         <v>1</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B7" s="26"/>
-      <c r="C7" s="30" t="s">
+      <c r="D6" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="50"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="53"/>
+      <c r="C7" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-    </row>
-    <row r="8" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B8" s="26"/>
-      <c r="C8" s="30" t="s">
+      <c r="D7" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="50"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="54"/>
+      <c r="C8" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-    </row>
-    <row r="9" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="26"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-    </row>
-    <row r="10" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B10" s="26">
+      <c r="D8" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="51"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="53">
         <v>2</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C9" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-    </row>
-    <row r="11" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B11" s="26"/>
-      <c r="C11" s="30" t="s">
+      <c r="D9" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="50"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="53"/>
+      <c r="C10" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-    </row>
-    <row r="12" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="26"/>
-      <c r="C12" s="30" t="s">
+      <c r="D10" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="50"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="54"/>
+      <c r="C11" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-    </row>
-    <row r="13" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B13" s="26"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-    </row>
-    <row r="14" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="26">
+      <c r="D11" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="51"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="53">
         <v>3</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C12" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-    </row>
-    <row r="15" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="26"/>
-      <c r="C15" s="30" t="s">
+      <c r="D12" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="50"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="53"/>
+      <c r="C13" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-    </row>
-    <row r="16" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B16" s="26"/>
-      <c r="C16" s="30" t="s">
+      <c r="D13" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="50"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="53"/>
+      <c r="C14" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-    </row>
-    <row r="17" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B17" s="26"/>
-      <c r="C17" s="30" t="s">
+      <c r="D14" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="50"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="54"/>
+      <c r="C15" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-    </row>
-    <row r="18" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B18" s="26"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-    </row>
-    <row r="19" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B19" s="26">
+      <c r="D15" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="51"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="53">
         <v>4</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C16" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-    </row>
-    <row r="20" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B20" s="26"/>
-      <c r="C20" s="30" t="s">
+      <c r="D16" s="56"/>
+      <c r="E16" s="50"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="53"/>
+      <c r="C17" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-    </row>
-    <row r="21" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B21" s="26"/>
-      <c r="C21" s="30" t="s">
+      <c r="D17" s="57"/>
+      <c r="E17" s="50"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="53"/>
+      <c r="C18" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-    </row>
-    <row r="22" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B22" s="26"/>
-      <c r="C22" s="30" t="s">
+      <c r="D18" s="57"/>
+      <c r="E18" s="50"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="54"/>
+      <c r="C19" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-    </row>
-    <row r="23" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B23" s="26"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-    </row>
-    <row r="24" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B24" s="26">
+      <c r="D19" s="58"/>
+      <c r="E19" s="51"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="53">
         <v>5</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C20" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-    </row>
-    <row r="25" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B25" s="26"/>
-      <c r="C25" s="30" t="s">
+      <c r="D20" s="56"/>
+      <c r="E20" s="50"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="53"/>
+      <c r="C21" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-    </row>
-    <row r="26" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B26" s="26"/>
-      <c r="C26" s="30" t="s">
+      <c r="D21" s="57"/>
+      <c r="E21" s="50"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="53"/>
+      <c r="C22" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-    </row>
-    <row r="27" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B27" s="26"/>
-      <c r="C27" s="30" t="s">
+      <c r="D22" s="57"/>
+      <c r="E22" s="50"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="54"/>
+      <c r="C23" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-    </row>
-    <row r="28" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B28" s="26"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-    </row>
-    <row r="29" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B29" s="26">
+      <c r="D23" s="58"/>
+      <c r="E23" s="51"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="53">
         <v>6</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C24" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-    </row>
-    <row r="30" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B30" s="26"/>
-      <c r="C30" s="30" t="s">
+      <c r="D24" s="56"/>
+      <c r="E24" s="50"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="53"/>
+      <c r="C25" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-    </row>
-    <row r="31" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B31" s="26"/>
-      <c r="C31" s="30" t="s">
+      <c r="D25" s="57"/>
+      <c r="E25" s="50"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="53"/>
+      <c r="C26" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-    </row>
-    <row r="32" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B32" s="26"/>
-      <c r="C32" s="30" t="s">
+      <c r="D26" s="57"/>
+      <c r="E26" s="50"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="54"/>
+      <c r="C27" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-    </row>
-    <row r="33" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B33" s="26"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-    </row>
-    <row r="34" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B34" s="26">
+      <c r="D27" s="58"/>
+      <c r="E27" s="51"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="53">
         <v>7</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C28" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-    </row>
-    <row r="35" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B35" s="26"/>
-      <c r="C35" s="30" t="s">
+      <c r="D28" s="56"/>
+      <c r="E28" s="50"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="53"/>
+      <c r="C29" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-    </row>
-    <row r="36" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B36" s="26"/>
-      <c r="C36" s="30" t="s">
+      <c r="D29" s="57"/>
+      <c r="E29" s="50"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="53"/>
+      <c r="C30" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-    </row>
-    <row r="37" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B37" s="26"/>
-      <c r="C37" s="30" t="s">
+      <c r="D30" s="57"/>
+      <c r="E30" s="50"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="53"/>
+      <c r="C31" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-    </row>
-    <row r="38" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B38" s="26"/>
-      <c r="C38" s="30" t="s">
+      <c r="D31" s="57"/>
+      <c r="E31" s="50"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="53"/>
+      <c r="C32" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-    </row>
-    <row r="39" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B39" s="26"/>
-      <c r="C39" s="30" t="s">
+      <c r="D32" s="57"/>
+      <c r="E32" s="50"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="53"/>
+      <c r="C33" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-    </row>
-    <row r="40" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B40" s="26"/>
-      <c r="C40" s="30" t="s">
+      <c r="D33" s="57"/>
+      <c r="E33" s="50"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="54"/>
+      <c r="C34" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-    </row>
-    <row r="41" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B41" s="26"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-    </row>
-    <row r="42" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B42" s="26">
+      <c r="D34" s="58"/>
+      <c r="E34" s="51"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="53">
         <v>8</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C35" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-    </row>
-    <row r="43" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B43" s="26"/>
-      <c r="C43" s="30" t="s">
+      <c r="D35" s="56"/>
+      <c r="E35" s="50"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="53"/>
+      <c r="C36" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-    </row>
-    <row r="44" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B44" s="26"/>
-      <c r="C44" s="30" t="s">
+      <c r="D36" s="57"/>
+      <c r="E36" s="50"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="54"/>
+      <c r="C37" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-    </row>
-    <row r="45" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B45" s="26"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-    </row>
-    <row r="46" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B46" s="26">
+      <c r="D37" s="58"/>
+      <c r="E37" s="51"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="53">
         <v>9</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="C38" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-    </row>
-    <row r="47" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B47" s="26"/>
-      <c r="C47" s="30" t="s">
+      <c r="D38" s="56"/>
+      <c r="E38" s="50"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="53"/>
+      <c r="C39" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-    </row>
-    <row r="48" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B48" s="26"/>
-      <c r="C48" s="30" t="s">
+      <c r="D39" s="57"/>
+      <c r="E39" s="50"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="54"/>
+      <c r="C40" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-    </row>
-    <row r="49" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B49" s="26"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-    </row>
-    <row r="50" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B50" s="26">
+      <c r="D40" s="58"/>
+      <c r="E40" s="51"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="53">
         <v>10</v>
       </c>
-      <c r="C50" s="51" t="s">
+      <c r="C41" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-    </row>
-    <row r="51" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B51" s="26"/>
-      <c r="C51" s="30" t="s">
+      <c r="D41" s="56"/>
+      <c r="E41" s="50"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="54"/>
+      <c r="C42" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-    </row>
-    <row r="52" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B52" s="26"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-    </row>
-    <row r="53" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B53" s="26">
+      <c r="D42" s="58"/>
+      <c r="E42" s="51"/>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="53">
         <v>11</v>
       </c>
-      <c r="C53" s="51" t="s">
+      <c r="C43" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-    </row>
-    <row r="54" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B54" s="26"/>
-      <c r="C54" s="30" t="s">
+      <c r="D43" s="56"/>
+      <c r="E43" s="50"/>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="53"/>
+      <c r="C44" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-    </row>
-    <row r="55" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B55" s="26"/>
-      <c r="C55" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-    </row>
-    <row r="56" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B56" s="27"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="50"/>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="55"/>
+      <c r="C45" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="59"/>
+      <c r="E45" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D45">
+      <formula1>"完了,研修中,未研究"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/001_GPSCamera_Document/004＿GPSカメラアプリ＿必要な技術.xlsx
+++ b/001_GPSCamera_Document/004＿GPSカメラアプリ＿必要な技術.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
   <si>
     <t>プロジェクト名：</t>
     <rPh sb="6" eb="7">
@@ -119,13 +119,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>研究</t>
-    <rPh sb="0" eb="2">
-      <t>ケンキュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コメント</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -417,26 +410,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　　ListDialogの利用する方法</t>
-    <rPh sb="13" eb="15">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　AlertDialogを利用する方法</t>
-    <rPh sb="14" eb="16">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Service</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -548,6 +521,15 @@
   </si>
   <si>
     <t>　　Menuのクリックイベントを処理方法</t>
+  </si>
+  <si>
+    <t>研究状況</t>
+  </si>
+  <si>
+    <t>　　ListDialogの利用する方法</t>
+  </si>
+  <si>
+    <t>　　AlertDialogを利用する方法</t>
   </si>
 </sst>
 </file>
@@ -927,47 +909,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1006,6 +947,47 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1965,54 +1947,54 @@
   <sheetData>
     <row r="2" spans="1:18" ht="28.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
+      <c r="B2" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
       <c r="H4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="35"/>
+      <c r="J4" s="52"/>
       <c r="K4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="36">
+      <c r="L4" s="53">
         <v>42241</v>
       </c>
-      <c r="M4" s="36"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="6"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -2021,23 +2003,23 @@
     </row>
     <row r="5" spans="1:18" s="4" customFormat="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="35" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="35"/>
+      <c r="J5" s="52"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -2099,17 +2081,17 @@
       <c r="F8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="38" t="s">
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="40"/>
+      <c r="M8" s="57"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="7"/>
@@ -2128,15 +2110,15 @@
       <c r="F9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="29"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="47"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="7"/>
@@ -2153,17 +2135,17 @@
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="29"/>
+        <v>21</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="47"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="7"/>
@@ -2176,13 +2158,13 @@
       <c r="D11" s="15"/>
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="29"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="47"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="7"/>
@@ -2195,13 +2177,13 @@
       <c r="D12" s="15"/>
       <c r="E12" s="16"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="29"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="47"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="7"/>
@@ -2214,13 +2196,13 @@
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="29"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="7"/>
@@ -2231,6 +2213,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:M12"/>
     <mergeCell ref="G9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="B2:M2"/>
@@ -2244,14 +2234,6 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -2271,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2280,7 +2262,7 @@
     <col min="1" max="1" width="2.5703125" style="22" customWidth="1"/>
     <col min="2" max="2" width="8" style="22" customWidth="1"/>
     <col min="3" max="3" width="67.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="22" customWidth="1"/>
     <col min="5" max="5" width="11" style="22" customWidth="1"/>
     <col min="6" max="16384" width="9" style="22"/>
   </cols>
@@ -2289,397 +2271,409 @@
       <c r="B1" s="23"/>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="23"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="49" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="53">
+      <c r="B6" s="36">
         <v>1</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="33"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="36"/>
+      <c r="C7" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="33"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="37"/>
+      <c r="C8" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="36">
+        <v>2</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="33"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="36"/>
+      <c r="C10" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="33"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="37"/>
+      <c r="C11" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="34"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="36">
+        <v>3</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="33"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="36"/>
+      <c r="C13" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="33"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="36"/>
+      <c r="C14" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="33"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="37"/>
+      <c r="C15" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="34"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="36">
+        <v>4</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="33"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="36"/>
+      <c r="C17" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="E17" s="33"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="36"/>
+      <c r="C18" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="40"/>
+      <c r="E18" s="33"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="37"/>
+      <c r="C19" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="41"/>
+      <c r="E19" s="34"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="36">
+        <v>5</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="33"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="36"/>
+      <c r="C21" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="33"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="36"/>
+      <c r="C22" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="40"/>
+      <c r="E22" s="33"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="37"/>
+      <c r="C23" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="41"/>
+      <c r="E23" s="34"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="36">
+        <v>6</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="39"/>
+      <c r="E24" s="33"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="36"/>
+      <c r="C25" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="40"/>
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="36"/>
+      <c r="C26" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="33"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="37"/>
+      <c r="C27" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="E27" s="34"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="36">
+        <v>7</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="39"/>
+      <c r="E28" s="33"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="36"/>
+      <c r="C29" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="40"/>
+      <c r="E29" s="33"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="36"/>
+      <c r="C30" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="40"/>
+      <c r="E30" s="33"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="36"/>
+      <c r="C31" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="40"/>
+      <c r="E31" s="33"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="36"/>
+      <c r="C32" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="40"/>
+      <c r="E32" s="33"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="36"/>
+      <c r="C33" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="40"/>
+      <c r="E33" s="33"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="37"/>
+      <c r="C34" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="41"/>
+      <c r="E34" s="34"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="36">
+        <v>8</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="33"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="36"/>
+      <c r="C36" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="50"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="53"/>
-      <c r="C7" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="50"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="54"/>
-      <c r="C8" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="51"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="53">
-        <v>2</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="50"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="53"/>
-      <c r="C10" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="50"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="54"/>
-      <c r="C11" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="51"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="53">
-        <v>3</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="50"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="53"/>
-      <c r="C13" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="50"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="53"/>
-      <c r="C14" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="50"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="54"/>
-      <c r="C15" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="51"/>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="53">
-        <v>4</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="50"/>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="53"/>
-      <c r="C17" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="50"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="53"/>
-      <c r="C18" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="50"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="54"/>
-      <c r="C19" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="51"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="53">
-        <v>5</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="50"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="53"/>
-      <c r="C21" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="50"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="53"/>
-      <c r="C22" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="50"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="54"/>
-      <c r="C23" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="51"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="53">
-        <v>6</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="50"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="53"/>
-      <c r="C25" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="50"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="53"/>
-      <c r="C26" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="50"/>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="54"/>
-      <c r="C27" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="58"/>
-      <c r="E27" s="51"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="53">
-        <v>7</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="50"/>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="53"/>
-      <c r="C29" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="50"/>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="53"/>
-      <c r="C30" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="50"/>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="53"/>
-      <c r="C31" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="50"/>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="53"/>
-      <c r="C32" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="57"/>
-      <c r="E32" s="50"/>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="53"/>
-      <c r="C33" s="46" t="s">
+      <c r="D36" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="50"/>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="54"/>
-      <c r="C34" s="47" t="s">
+      <c r="E36" s="33"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="37"/>
+      <c r="C37" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="34"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="36">
+        <v>9</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="39"/>
+      <c r="E38" s="33"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="36"/>
+      <c r="C39" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="40"/>
+      <c r="E39" s="33"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="37"/>
+      <c r="C40" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="41"/>
+      <c r="E40" s="34"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="36">
+        <v>10</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="39"/>
+      <c r="E41" s="33"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="37"/>
+      <c r="C42" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="41"/>
+      <c r="E42" s="34"/>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="36">
+        <v>11</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="33"/>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="36"/>
+      <c r="C44" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="33"/>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="38"/>
+      <c r="C45" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="51"/>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="53">
-        <v>8</v>
-      </c>
-      <c r="C35" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="50"/>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="53"/>
-      <c r="C36" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="50"/>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="54"/>
-      <c r="C37" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="58"/>
-      <c r="E37" s="51"/>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="53">
-        <v>9</v>
-      </c>
-      <c r="C38" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="50"/>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="53"/>
-      <c r="C39" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="50"/>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="54"/>
-      <c r="C40" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="58"/>
-      <c r="E40" s="51"/>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="53">
-        <v>10</v>
-      </c>
-      <c r="C41" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="56"/>
-      <c r="E41" s="50"/>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="54"/>
-      <c r="C42" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="51"/>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="53">
-        <v>11</v>
-      </c>
-      <c r="C43" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="50"/>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="53"/>
-      <c r="C44" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="57"/>
-      <c r="E44" s="50"/>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="B45" s="55"/>
-      <c r="C45" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" s="59"/>
-      <c r="E45" s="52"/>
+      <c r="D45" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/001_GPSCamera_Document/004＿GPSカメラアプリ＿必要な技術.xlsx
+++ b/001_GPSCamera_Document/004＿GPSカメラアプリ＿必要な技術.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>プロジェクト名：</t>
     <rPh sb="6" eb="7">
@@ -949,7 +949,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -958,6 +958,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -986,7 +987,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1947,54 +1947,54 @@
   <sheetData>
     <row r="2" spans="1:18" ht="28.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
       <c r="H4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="52"/>
+      <c r="J4" s="53"/>
       <c r="K4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="53">
+      <c r="L4" s="54">
         <v>42241</v>
       </c>
-      <c r="M4" s="53"/>
+      <c r="M4" s="54"/>
       <c r="N4" s="6"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -2003,23 +2003,23 @@
     </row>
     <row r="5" spans="1:18" s="4" customFormat="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="52" t="s">
+      <c r="C5" s="55"/>
+      <c r="D5" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="52"/>
+      <c r="J5" s="53"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -2081,17 +2081,17 @@
       <c r="F8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="55" t="s">
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="57"/>
+      <c r="M8" s="58"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="7"/>
@@ -2110,7 +2110,7 @@
       <c r="F9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="48" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="44"/>
@@ -2137,7 +2137,7 @@
       <c r="F10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="48" t="s">
         <v>60</v>
       </c>
       <c r="H10" s="44"/>
@@ -2158,7 +2158,7 @@
       <c r="D11" s="15"/>
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="58"/>
+      <c r="G11" s="43"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
@@ -2177,7 +2177,7 @@
       <c r="D12" s="15"/>
       <c r="E12" s="16"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="58"/>
+      <c r="G12" s="43"/>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
@@ -2196,7 +2196,7 @@
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="58"/>
+      <c r="G13" s="43"/>
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
@@ -2213,14 +2213,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:M12"/>
     <mergeCell ref="G9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="B2:M2"/>
@@ -2234,6 +2226,14 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -2253,7 +2253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -2632,7 +2632,9 @@
       <c r="C41" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="39"/>
+      <c r="D41" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="E41" s="33"/>
     </row>
     <row r="42" spans="2:5">
@@ -2640,7 +2642,9 @@
       <c r="C42" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="41"/>
+      <c r="D42" s="41" t="s">
+        <v>61</v>
+      </c>
       <c r="E42" s="34"/>
     </row>
     <row r="43" spans="2:5">

--- a/001_GPSCamera_Document/004＿GPSカメラアプリ＿必要な技術.xlsx
+++ b/001_GPSCamera_Document/004＿GPSカメラアプリ＿必要な技術.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
   <si>
     <t>プロジェクト名：</t>
     <rPh sb="6" eb="7">
@@ -530,23 +530,26 @@
   </si>
   <si>
     <t>　　AlertDialogを利用する方法</t>
+  </si>
+  <si>
+    <t>研修中</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -610,7 +613,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -618,7 +621,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -626,7 +629,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -635,7 +638,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -949,7 +952,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -958,7 +961,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -987,12 +989,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1008,7 +1011,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1050,7 +1053,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1085,7 +1088,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1300,726 +1303,726 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="6.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="7" width="8.85546875" style="1" customWidth="1"/>
+    <col min="4" max="7" width="8.875" style="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="9.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.75" style="1" customWidth="1"/>
     <col min="15" max="256" width="9" style="1"/>
-    <col min="257" max="257" width="2.85546875" style="1" customWidth="1"/>
-    <col min="258" max="258" width="6.28515625" style="1" customWidth="1"/>
-    <col min="259" max="263" width="8.85546875" style="1" customWidth="1"/>
+    <col min="257" max="257" width="2.875" style="1" customWidth="1"/>
+    <col min="258" max="258" width="6.25" style="1" customWidth="1"/>
+    <col min="259" max="263" width="8.875" style="1" customWidth="1"/>
     <col min="264" max="265" width="9" style="1"/>
-    <col min="266" max="266" width="9.42578125" style="1" customWidth="1"/>
-    <col min="267" max="267" width="6.5703125" style="1" customWidth="1"/>
-    <col min="268" max="268" width="9.5703125" style="1" customWidth="1"/>
-    <col min="269" max="269" width="12.5703125" style="1" customWidth="1"/>
-    <col min="270" max="270" width="6.7109375" style="1" customWidth="1"/>
+    <col min="266" max="266" width="9.375" style="1" customWidth="1"/>
+    <col min="267" max="267" width="6.625" style="1" customWidth="1"/>
+    <col min="268" max="268" width="9.625" style="1" customWidth="1"/>
+    <col min="269" max="269" width="12.625" style="1" customWidth="1"/>
+    <col min="270" max="270" width="6.75" style="1" customWidth="1"/>
     <col min="271" max="512" width="9" style="1"/>
-    <col min="513" max="513" width="2.85546875" style="1" customWidth="1"/>
-    <col min="514" max="514" width="6.28515625" style="1" customWidth="1"/>
-    <col min="515" max="519" width="8.85546875" style="1" customWidth="1"/>
+    <col min="513" max="513" width="2.875" style="1" customWidth="1"/>
+    <col min="514" max="514" width="6.25" style="1" customWidth="1"/>
+    <col min="515" max="519" width="8.875" style="1" customWidth="1"/>
     <col min="520" max="521" width="9" style="1"/>
-    <col min="522" max="522" width="9.42578125" style="1" customWidth="1"/>
-    <col min="523" max="523" width="6.5703125" style="1" customWidth="1"/>
-    <col min="524" max="524" width="9.5703125" style="1" customWidth="1"/>
-    <col min="525" max="525" width="12.5703125" style="1" customWidth="1"/>
-    <col min="526" max="526" width="6.7109375" style="1" customWidth="1"/>
+    <col min="522" max="522" width="9.375" style="1" customWidth="1"/>
+    <col min="523" max="523" width="6.625" style="1" customWidth="1"/>
+    <col min="524" max="524" width="9.625" style="1" customWidth="1"/>
+    <col min="525" max="525" width="12.625" style="1" customWidth="1"/>
+    <col min="526" max="526" width="6.75" style="1" customWidth="1"/>
     <col min="527" max="768" width="9" style="1"/>
-    <col min="769" max="769" width="2.85546875" style="1" customWidth="1"/>
-    <col min="770" max="770" width="6.28515625" style="1" customWidth="1"/>
-    <col min="771" max="775" width="8.85546875" style="1" customWidth="1"/>
+    <col min="769" max="769" width="2.875" style="1" customWidth="1"/>
+    <col min="770" max="770" width="6.25" style="1" customWidth="1"/>
+    <col min="771" max="775" width="8.875" style="1" customWidth="1"/>
     <col min="776" max="777" width="9" style="1"/>
-    <col min="778" max="778" width="9.42578125" style="1" customWidth="1"/>
-    <col min="779" max="779" width="6.5703125" style="1" customWidth="1"/>
-    <col min="780" max="780" width="9.5703125" style="1" customWidth="1"/>
-    <col min="781" max="781" width="12.5703125" style="1" customWidth="1"/>
-    <col min="782" max="782" width="6.7109375" style="1" customWidth="1"/>
+    <col min="778" max="778" width="9.375" style="1" customWidth="1"/>
+    <col min="779" max="779" width="6.625" style="1" customWidth="1"/>
+    <col min="780" max="780" width="9.625" style="1" customWidth="1"/>
+    <col min="781" max="781" width="12.625" style="1" customWidth="1"/>
+    <col min="782" max="782" width="6.75" style="1" customWidth="1"/>
     <col min="783" max="1024" width="9" style="1"/>
-    <col min="1025" max="1025" width="2.85546875" style="1" customWidth="1"/>
-    <col min="1026" max="1026" width="6.28515625" style="1" customWidth="1"/>
-    <col min="1027" max="1031" width="8.85546875" style="1" customWidth="1"/>
+    <col min="1025" max="1025" width="2.875" style="1" customWidth="1"/>
+    <col min="1026" max="1026" width="6.25" style="1" customWidth="1"/>
+    <col min="1027" max="1031" width="8.875" style="1" customWidth="1"/>
     <col min="1032" max="1033" width="9" style="1"/>
-    <col min="1034" max="1034" width="9.42578125" style="1" customWidth="1"/>
-    <col min="1035" max="1035" width="6.5703125" style="1" customWidth="1"/>
-    <col min="1036" max="1036" width="9.5703125" style="1" customWidth="1"/>
-    <col min="1037" max="1037" width="12.5703125" style="1" customWidth="1"/>
-    <col min="1038" max="1038" width="6.7109375" style="1" customWidth="1"/>
+    <col min="1034" max="1034" width="9.375" style="1" customWidth="1"/>
+    <col min="1035" max="1035" width="6.625" style="1" customWidth="1"/>
+    <col min="1036" max="1036" width="9.625" style="1" customWidth="1"/>
+    <col min="1037" max="1037" width="12.625" style="1" customWidth="1"/>
+    <col min="1038" max="1038" width="6.75" style="1" customWidth="1"/>
     <col min="1039" max="1280" width="9" style="1"/>
-    <col min="1281" max="1281" width="2.85546875" style="1" customWidth="1"/>
-    <col min="1282" max="1282" width="6.28515625" style="1" customWidth="1"/>
-    <col min="1283" max="1287" width="8.85546875" style="1" customWidth="1"/>
+    <col min="1281" max="1281" width="2.875" style="1" customWidth="1"/>
+    <col min="1282" max="1282" width="6.25" style="1" customWidth="1"/>
+    <col min="1283" max="1287" width="8.875" style="1" customWidth="1"/>
     <col min="1288" max="1289" width="9" style="1"/>
-    <col min="1290" max="1290" width="9.42578125" style="1" customWidth="1"/>
-    <col min="1291" max="1291" width="6.5703125" style="1" customWidth="1"/>
-    <col min="1292" max="1292" width="9.5703125" style="1" customWidth="1"/>
-    <col min="1293" max="1293" width="12.5703125" style="1" customWidth="1"/>
-    <col min="1294" max="1294" width="6.7109375" style="1" customWidth="1"/>
+    <col min="1290" max="1290" width="9.375" style="1" customWidth="1"/>
+    <col min="1291" max="1291" width="6.625" style="1" customWidth="1"/>
+    <col min="1292" max="1292" width="9.625" style="1" customWidth="1"/>
+    <col min="1293" max="1293" width="12.625" style="1" customWidth="1"/>
+    <col min="1294" max="1294" width="6.75" style="1" customWidth="1"/>
     <col min="1295" max="1536" width="9" style="1"/>
-    <col min="1537" max="1537" width="2.85546875" style="1" customWidth="1"/>
-    <col min="1538" max="1538" width="6.28515625" style="1" customWidth="1"/>
-    <col min="1539" max="1543" width="8.85546875" style="1" customWidth="1"/>
+    <col min="1537" max="1537" width="2.875" style="1" customWidth="1"/>
+    <col min="1538" max="1538" width="6.25" style="1" customWidth="1"/>
+    <col min="1539" max="1543" width="8.875" style="1" customWidth="1"/>
     <col min="1544" max="1545" width="9" style="1"/>
-    <col min="1546" max="1546" width="9.42578125" style="1" customWidth="1"/>
-    <col min="1547" max="1547" width="6.5703125" style="1" customWidth="1"/>
-    <col min="1548" max="1548" width="9.5703125" style="1" customWidth="1"/>
-    <col min="1549" max="1549" width="12.5703125" style="1" customWidth="1"/>
-    <col min="1550" max="1550" width="6.7109375" style="1" customWidth="1"/>
+    <col min="1546" max="1546" width="9.375" style="1" customWidth="1"/>
+    <col min="1547" max="1547" width="6.625" style="1" customWidth="1"/>
+    <col min="1548" max="1548" width="9.625" style="1" customWidth="1"/>
+    <col min="1549" max="1549" width="12.625" style="1" customWidth="1"/>
+    <col min="1550" max="1550" width="6.75" style="1" customWidth="1"/>
     <col min="1551" max="1792" width="9" style="1"/>
-    <col min="1793" max="1793" width="2.85546875" style="1" customWidth="1"/>
-    <col min="1794" max="1794" width="6.28515625" style="1" customWidth="1"/>
-    <col min="1795" max="1799" width="8.85546875" style="1" customWidth="1"/>
+    <col min="1793" max="1793" width="2.875" style="1" customWidth="1"/>
+    <col min="1794" max="1794" width="6.25" style="1" customWidth="1"/>
+    <col min="1795" max="1799" width="8.875" style="1" customWidth="1"/>
     <col min="1800" max="1801" width="9" style="1"/>
-    <col min="1802" max="1802" width="9.42578125" style="1" customWidth="1"/>
-    <col min="1803" max="1803" width="6.5703125" style="1" customWidth="1"/>
-    <col min="1804" max="1804" width="9.5703125" style="1" customWidth="1"/>
-    <col min="1805" max="1805" width="12.5703125" style="1" customWidth="1"/>
-    <col min="1806" max="1806" width="6.7109375" style="1" customWidth="1"/>
+    <col min="1802" max="1802" width="9.375" style="1" customWidth="1"/>
+    <col min="1803" max="1803" width="6.625" style="1" customWidth="1"/>
+    <col min="1804" max="1804" width="9.625" style="1" customWidth="1"/>
+    <col min="1805" max="1805" width="12.625" style="1" customWidth="1"/>
+    <col min="1806" max="1806" width="6.75" style="1" customWidth="1"/>
     <col min="1807" max="2048" width="9" style="1"/>
-    <col min="2049" max="2049" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2050" max="2050" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2051" max="2055" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2049" max="2049" width="2.875" style="1" customWidth="1"/>
+    <col min="2050" max="2050" width="6.25" style="1" customWidth="1"/>
+    <col min="2051" max="2055" width="8.875" style="1" customWidth="1"/>
     <col min="2056" max="2057" width="9" style="1"/>
-    <col min="2058" max="2058" width="9.42578125" style="1" customWidth="1"/>
-    <col min="2059" max="2059" width="6.5703125" style="1" customWidth="1"/>
-    <col min="2060" max="2060" width="9.5703125" style="1" customWidth="1"/>
-    <col min="2061" max="2061" width="12.5703125" style="1" customWidth="1"/>
-    <col min="2062" max="2062" width="6.7109375" style="1" customWidth="1"/>
+    <col min="2058" max="2058" width="9.375" style="1" customWidth="1"/>
+    <col min="2059" max="2059" width="6.625" style="1" customWidth="1"/>
+    <col min="2060" max="2060" width="9.625" style="1" customWidth="1"/>
+    <col min="2061" max="2061" width="12.625" style="1" customWidth="1"/>
+    <col min="2062" max="2062" width="6.75" style="1" customWidth="1"/>
     <col min="2063" max="2304" width="9" style="1"/>
-    <col min="2305" max="2305" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2306" max="2306" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2307" max="2311" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2305" max="2305" width="2.875" style="1" customWidth="1"/>
+    <col min="2306" max="2306" width="6.25" style="1" customWidth="1"/>
+    <col min="2307" max="2311" width="8.875" style="1" customWidth="1"/>
     <col min="2312" max="2313" width="9" style="1"/>
-    <col min="2314" max="2314" width="9.42578125" style="1" customWidth="1"/>
-    <col min="2315" max="2315" width="6.5703125" style="1" customWidth="1"/>
-    <col min="2316" max="2316" width="9.5703125" style="1" customWidth="1"/>
-    <col min="2317" max="2317" width="12.5703125" style="1" customWidth="1"/>
-    <col min="2318" max="2318" width="6.7109375" style="1" customWidth="1"/>
+    <col min="2314" max="2314" width="9.375" style="1" customWidth="1"/>
+    <col min="2315" max="2315" width="6.625" style="1" customWidth="1"/>
+    <col min="2316" max="2316" width="9.625" style="1" customWidth="1"/>
+    <col min="2317" max="2317" width="12.625" style="1" customWidth="1"/>
+    <col min="2318" max="2318" width="6.75" style="1" customWidth="1"/>
     <col min="2319" max="2560" width="9" style="1"/>
-    <col min="2561" max="2561" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2562" max="2562" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2563" max="2567" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2561" max="2561" width="2.875" style="1" customWidth="1"/>
+    <col min="2562" max="2562" width="6.25" style="1" customWidth="1"/>
+    <col min="2563" max="2567" width="8.875" style="1" customWidth="1"/>
     <col min="2568" max="2569" width="9" style="1"/>
-    <col min="2570" max="2570" width="9.42578125" style="1" customWidth="1"/>
-    <col min="2571" max="2571" width="6.5703125" style="1" customWidth="1"/>
-    <col min="2572" max="2572" width="9.5703125" style="1" customWidth="1"/>
-    <col min="2573" max="2573" width="12.5703125" style="1" customWidth="1"/>
-    <col min="2574" max="2574" width="6.7109375" style="1" customWidth="1"/>
+    <col min="2570" max="2570" width="9.375" style="1" customWidth="1"/>
+    <col min="2571" max="2571" width="6.625" style="1" customWidth="1"/>
+    <col min="2572" max="2572" width="9.625" style="1" customWidth="1"/>
+    <col min="2573" max="2573" width="12.625" style="1" customWidth="1"/>
+    <col min="2574" max="2574" width="6.75" style="1" customWidth="1"/>
     <col min="2575" max="2816" width="9" style="1"/>
-    <col min="2817" max="2817" width="2.85546875" style="1" customWidth="1"/>
-    <col min="2818" max="2818" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2819" max="2823" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2817" max="2817" width="2.875" style="1" customWidth="1"/>
+    <col min="2818" max="2818" width="6.25" style="1" customWidth="1"/>
+    <col min="2819" max="2823" width="8.875" style="1" customWidth="1"/>
     <col min="2824" max="2825" width="9" style="1"/>
-    <col min="2826" max="2826" width="9.42578125" style="1" customWidth="1"/>
-    <col min="2827" max="2827" width="6.5703125" style="1" customWidth="1"/>
-    <col min="2828" max="2828" width="9.5703125" style="1" customWidth="1"/>
-    <col min="2829" max="2829" width="12.5703125" style="1" customWidth="1"/>
-    <col min="2830" max="2830" width="6.7109375" style="1" customWidth="1"/>
+    <col min="2826" max="2826" width="9.375" style="1" customWidth="1"/>
+    <col min="2827" max="2827" width="6.625" style="1" customWidth="1"/>
+    <col min="2828" max="2828" width="9.625" style="1" customWidth="1"/>
+    <col min="2829" max="2829" width="12.625" style="1" customWidth="1"/>
+    <col min="2830" max="2830" width="6.75" style="1" customWidth="1"/>
     <col min="2831" max="3072" width="9" style="1"/>
-    <col min="3073" max="3073" width="2.85546875" style="1" customWidth="1"/>
-    <col min="3074" max="3074" width="6.28515625" style="1" customWidth="1"/>
-    <col min="3075" max="3079" width="8.85546875" style="1" customWidth="1"/>
+    <col min="3073" max="3073" width="2.875" style="1" customWidth="1"/>
+    <col min="3074" max="3074" width="6.25" style="1" customWidth="1"/>
+    <col min="3075" max="3079" width="8.875" style="1" customWidth="1"/>
     <col min="3080" max="3081" width="9" style="1"/>
-    <col min="3082" max="3082" width="9.42578125" style="1" customWidth="1"/>
-    <col min="3083" max="3083" width="6.5703125" style="1" customWidth="1"/>
-    <col min="3084" max="3084" width="9.5703125" style="1" customWidth="1"/>
-    <col min="3085" max="3085" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3086" max="3086" width="6.7109375" style="1" customWidth="1"/>
+    <col min="3082" max="3082" width="9.375" style="1" customWidth="1"/>
+    <col min="3083" max="3083" width="6.625" style="1" customWidth="1"/>
+    <col min="3084" max="3084" width="9.625" style="1" customWidth="1"/>
+    <col min="3085" max="3085" width="12.625" style="1" customWidth="1"/>
+    <col min="3086" max="3086" width="6.75" style="1" customWidth="1"/>
     <col min="3087" max="3328" width="9" style="1"/>
-    <col min="3329" max="3329" width="2.85546875" style="1" customWidth="1"/>
-    <col min="3330" max="3330" width="6.28515625" style="1" customWidth="1"/>
-    <col min="3331" max="3335" width="8.85546875" style="1" customWidth="1"/>
+    <col min="3329" max="3329" width="2.875" style="1" customWidth="1"/>
+    <col min="3330" max="3330" width="6.25" style="1" customWidth="1"/>
+    <col min="3331" max="3335" width="8.875" style="1" customWidth="1"/>
     <col min="3336" max="3337" width="9" style="1"/>
-    <col min="3338" max="3338" width="9.42578125" style="1" customWidth="1"/>
-    <col min="3339" max="3339" width="6.5703125" style="1" customWidth="1"/>
-    <col min="3340" max="3340" width="9.5703125" style="1" customWidth="1"/>
-    <col min="3341" max="3341" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3342" max="3342" width="6.7109375" style="1" customWidth="1"/>
+    <col min="3338" max="3338" width="9.375" style="1" customWidth="1"/>
+    <col min="3339" max="3339" width="6.625" style="1" customWidth="1"/>
+    <col min="3340" max="3340" width="9.625" style="1" customWidth="1"/>
+    <col min="3341" max="3341" width="12.625" style="1" customWidth="1"/>
+    <col min="3342" max="3342" width="6.75" style="1" customWidth="1"/>
     <col min="3343" max="3584" width="9" style="1"/>
-    <col min="3585" max="3585" width="2.85546875" style="1" customWidth="1"/>
-    <col min="3586" max="3586" width="6.28515625" style="1" customWidth="1"/>
-    <col min="3587" max="3591" width="8.85546875" style="1" customWidth="1"/>
+    <col min="3585" max="3585" width="2.875" style="1" customWidth="1"/>
+    <col min="3586" max="3586" width="6.25" style="1" customWidth="1"/>
+    <col min="3587" max="3591" width="8.875" style="1" customWidth="1"/>
     <col min="3592" max="3593" width="9" style="1"/>
-    <col min="3594" max="3594" width="9.42578125" style="1" customWidth="1"/>
-    <col min="3595" max="3595" width="6.5703125" style="1" customWidth="1"/>
-    <col min="3596" max="3596" width="9.5703125" style="1" customWidth="1"/>
-    <col min="3597" max="3597" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3598" max="3598" width="6.7109375" style="1" customWidth="1"/>
+    <col min="3594" max="3594" width="9.375" style="1" customWidth="1"/>
+    <col min="3595" max="3595" width="6.625" style="1" customWidth="1"/>
+    <col min="3596" max="3596" width="9.625" style="1" customWidth="1"/>
+    <col min="3597" max="3597" width="12.625" style="1" customWidth="1"/>
+    <col min="3598" max="3598" width="6.75" style="1" customWidth="1"/>
     <col min="3599" max="3840" width="9" style="1"/>
-    <col min="3841" max="3841" width="2.85546875" style="1" customWidth="1"/>
-    <col min="3842" max="3842" width="6.28515625" style="1" customWidth="1"/>
-    <col min="3843" max="3847" width="8.85546875" style="1" customWidth="1"/>
+    <col min="3841" max="3841" width="2.875" style="1" customWidth="1"/>
+    <col min="3842" max="3842" width="6.25" style="1" customWidth="1"/>
+    <col min="3843" max="3847" width="8.875" style="1" customWidth="1"/>
     <col min="3848" max="3849" width="9" style="1"/>
-    <col min="3850" max="3850" width="9.42578125" style="1" customWidth="1"/>
-    <col min="3851" max="3851" width="6.5703125" style="1" customWidth="1"/>
-    <col min="3852" max="3852" width="9.5703125" style="1" customWidth="1"/>
-    <col min="3853" max="3853" width="12.5703125" style="1" customWidth="1"/>
-    <col min="3854" max="3854" width="6.7109375" style="1" customWidth="1"/>
+    <col min="3850" max="3850" width="9.375" style="1" customWidth="1"/>
+    <col min="3851" max="3851" width="6.625" style="1" customWidth="1"/>
+    <col min="3852" max="3852" width="9.625" style="1" customWidth="1"/>
+    <col min="3853" max="3853" width="12.625" style="1" customWidth="1"/>
+    <col min="3854" max="3854" width="6.75" style="1" customWidth="1"/>
     <col min="3855" max="4096" width="9" style="1"/>
-    <col min="4097" max="4097" width="2.85546875" style="1" customWidth="1"/>
-    <col min="4098" max="4098" width="6.28515625" style="1" customWidth="1"/>
-    <col min="4099" max="4103" width="8.85546875" style="1" customWidth="1"/>
+    <col min="4097" max="4097" width="2.875" style="1" customWidth="1"/>
+    <col min="4098" max="4098" width="6.25" style="1" customWidth="1"/>
+    <col min="4099" max="4103" width="8.875" style="1" customWidth="1"/>
     <col min="4104" max="4105" width="9" style="1"/>
-    <col min="4106" max="4106" width="9.42578125" style="1" customWidth="1"/>
-    <col min="4107" max="4107" width="6.5703125" style="1" customWidth="1"/>
-    <col min="4108" max="4108" width="9.5703125" style="1" customWidth="1"/>
-    <col min="4109" max="4109" width="12.5703125" style="1" customWidth="1"/>
-    <col min="4110" max="4110" width="6.7109375" style="1" customWidth="1"/>
+    <col min="4106" max="4106" width="9.375" style="1" customWidth="1"/>
+    <col min="4107" max="4107" width="6.625" style="1" customWidth="1"/>
+    <col min="4108" max="4108" width="9.625" style="1" customWidth="1"/>
+    <col min="4109" max="4109" width="12.625" style="1" customWidth="1"/>
+    <col min="4110" max="4110" width="6.75" style="1" customWidth="1"/>
     <col min="4111" max="4352" width="9" style="1"/>
-    <col min="4353" max="4353" width="2.85546875" style="1" customWidth="1"/>
-    <col min="4354" max="4354" width="6.28515625" style="1" customWidth="1"/>
-    <col min="4355" max="4359" width="8.85546875" style="1" customWidth="1"/>
+    <col min="4353" max="4353" width="2.875" style="1" customWidth="1"/>
+    <col min="4354" max="4354" width="6.25" style="1" customWidth="1"/>
+    <col min="4355" max="4359" width="8.875" style="1" customWidth="1"/>
     <col min="4360" max="4361" width="9" style="1"/>
-    <col min="4362" max="4362" width="9.42578125" style="1" customWidth="1"/>
-    <col min="4363" max="4363" width="6.5703125" style="1" customWidth="1"/>
-    <col min="4364" max="4364" width="9.5703125" style="1" customWidth="1"/>
-    <col min="4365" max="4365" width="12.5703125" style="1" customWidth="1"/>
-    <col min="4366" max="4366" width="6.7109375" style="1" customWidth="1"/>
+    <col min="4362" max="4362" width="9.375" style="1" customWidth="1"/>
+    <col min="4363" max="4363" width="6.625" style="1" customWidth="1"/>
+    <col min="4364" max="4364" width="9.625" style="1" customWidth="1"/>
+    <col min="4365" max="4365" width="12.625" style="1" customWidth="1"/>
+    <col min="4366" max="4366" width="6.75" style="1" customWidth="1"/>
     <col min="4367" max="4608" width="9" style="1"/>
-    <col min="4609" max="4609" width="2.85546875" style="1" customWidth="1"/>
-    <col min="4610" max="4610" width="6.28515625" style="1" customWidth="1"/>
-    <col min="4611" max="4615" width="8.85546875" style="1" customWidth="1"/>
+    <col min="4609" max="4609" width="2.875" style="1" customWidth="1"/>
+    <col min="4610" max="4610" width="6.25" style="1" customWidth="1"/>
+    <col min="4611" max="4615" width="8.875" style="1" customWidth="1"/>
     <col min="4616" max="4617" width="9" style="1"/>
-    <col min="4618" max="4618" width="9.42578125" style="1" customWidth="1"/>
-    <col min="4619" max="4619" width="6.5703125" style="1" customWidth="1"/>
-    <col min="4620" max="4620" width="9.5703125" style="1" customWidth="1"/>
-    <col min="4621" max="4621" width="12.5703125" style="1" customWidth="1"/>
-    <col min="4622" max="4622" width="6.7109375" style="1" customWidth="1"/>
+    <col min="4618" max="4618" width="9.375" style="1" customWidth="1"/>
+    <col min="4619" max="4619" width="6.625" style="1" customWidth="1"/>
+    <col min="4620" max="4620" width="9.625" style="1" customWidth="1"/>
+    <col min="4621" max="4621" width="12.625" style="1" customWidth="1"/>
+    <col min="4622" max="4622" width="6.75" style="1" customWidth="1"/>
     <col min="4623" max="4864" width="9" style="1"/>
-    <col min="4865" max="4865" width="2.85546875" style="1" customWidth="1"/>
-    <col min="4866" max="4866" width="6.28515625" style="1" customWidth="1"/>
-    <col min="4867" max="4871" width="8.85546875" style="1" customWidth="1"/>
+    <col min="4865" max="4865" width="2.875" style="1" customWidth="1"/>
+    <col min="4866" max="4866" width="6.25" style="1" customWidth="1"/>
+    <col min="4867" max="4871" width="8.875" style="1" customWidth="1"/>
     <col min="4872" max="4873" width="9" style="1"/>
-    <col min="4874" max="4874" width="9.42578125" style="1" customWidth="1"/>
-    <col min="4875" max="4875" width="6.5703125" style="1" customWidth="1"/>
-    <col min="4876" max="4876" width="9.5703125" style="1" customWidth="1"/>
-    <col min="4877" max="4877" width="12.5703125" style="1" customWidth="1"/>
-    <col min="4878" max="4878" width="6.7109375" style="1" customWidth="1"/>
+    <col min="4874" max="4874" width="9.375" style="1" customWidth="1"/>
+    <col min="4875" max="4875" width="6.625" style="1" customWidth="1"/>
+    <col min="4876" max="4876" width="9.625" style="1" customWidth="1"/>
+    <col min="4877" max="4877" width="12.625" style="1" customWidth="1"/>
+    <col min="4878" max="4878" width="6.75" style="1" customWidth="1"/>
     <col min="4879" max="5120" width="9" style="1"/>
-    <col min="5121" max="5121" width="2.85546875" style="1" customWidth="1"/>
-    <col min="5122" max="5122" width="6.28515625" style="1" customWidth="1"/>
-    <col min="5123" max="5127" width="8.85546875" style="1" customWidth="1"/>
+    <col min="5121" max="5121" width="2.875" style="1" customWidth="1"/>
+    <col min="5122" max="5122" width="6.25" style="1" customWidth="1"/>
+    <col min="5123" max="5127" width="8.875" style="1" customWidth="1"/>
     <col min="5128" max="5129" width="9" style="1"/>
-    <col min="5130" max="5130" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5131" max="5131" width="6.5703125" style="1" customWidth="1"/>
-    <col min="5132" max="5132" width="9.5703125" style="1" customWidth="1"/>
-    <col min="5133" max="5133" width="12.5703125" style="1" customWidth="1"/>
-    <col min="5134" max="5134" width="6.7109375" style="1" customWidth="1"/>
+    <col min="5130" max="5130" width="9.375" style="1" customWidth="1"/>
+    <col min="5131" max="5131" width="6.625" style="1" customWidth="1"/>
+    <col min="5132" max="5132" width="9.625" style="1" customWidth="1"/>
+    <col min="5133" max="5133" width="12.625" style="1" customWidth="1"/>
+    <col min="5134" max="5134" width="6.75" style="1" customWidth="1"/>
     <col min="5135" max="5376" width="9" style="1"/>
-    <col min="5377" max="5377" width="2.85546875" style="1" customWidth="1"/>
-    <col min="5378" max="5378" width="6.28515625" style="1" customWidth="1"/>
-    <col min="5379" max="5383" width="8.85546875" style="1" customWidth="1"/>
+    <col min="5377" max="5377" width="2.875" style="1" customWidth="1"/>
+    <col min="5378" max="5378" width="6.25" style="1" customWidth="1"/>
+    <col min="5379" max="5383" width="8.875" style="1" customWidth="1"/>
     <col min="5384" max="5385" width="9" style="1"/>
-    <col min="5386" max="5386" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5387" max="5387" width="6.5703125" style="1" customWidth="1"/>
-    <col min="5388" max="5388" width="9.5703125" style="1" customWidth="1"/>
-    <col min="5389" max="5389" width="12.5703125" style="1" customWidth="1"/>
-    <col min="5390" max="5390" width="6.7109375" style="1" customWidth="1"/>
+    <col min="5386" max="5386" width="9.375" style="1" customWidth="1"/>
+    <col min="5387" max="5387" width="6.625" style="1" customWidth="1"/>
+    <col min="5388" max="5388" width="9.625" style="1" customWidth="1"/>
+    <col min="5389" max="5389" width="12.625" style="1" customWidth="1"/>
+    <col min="5390" max="5390" width="6.75" style="1" customWidth="1"/>
     <col min="5391" max="5632" width="9" style="1"/>
-    <col min="5633" max="5633" width="2.85546875" style="1" customWidth="1"/>
-    <col min="5634" max="5634" width="6.28515625" style="1" customWidth="1"/>
-    <col min="5635" max="5639" width="8.85546875" style="1" customWidth="1"/>
+    <col min="5633" max="5633" width="2.875" style="1" customWidth="1"/>
+    <col min="5634" max="5634" width="6.25" style="1" customWidth="1"/>
+    <col min="5635" max="5639" width="8.875" style="1" customWidth="1"/>
     <col min="5640" max="5641" width="9" style="1"/>
-    <col min="5642" max="5642" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5643" max="5643" width="6.5703125" style="1" customWidth="1"/>
-    <col min="5644" max="5644" width="9.5703125" style="1" customWidth="1"/>
-    <col min="5645" max="5645" width="12.5703125" style="1" customWidth="1"/>
-    <col min="5646" max="5646" width="6.7109375" style="1" customWidth="1"/>
+    <col min="5642" max="5642" width="9.375" style="1" customWidth="1"/>
+    <col min="5643" max="5643" width="6.625" style="1" customWidth="1"/>
+    <col min="5644" max="5644" width="9.625" style="1" customWidth="1"/>
+    <col min="5645" max="5645" width="12.625" style="1" customWidth="1"/>
+    <col min="5646" max="5646" width="6.75" style="1" customWidth="1"/>
     <col min="5647" max="5888" width="9" style="1"/>
-    <col min="5889" max="5889" width="2.85546875" style="1" customWidth="1"/>
-    <col min="5890" max="5890" width="6.28515625" style="1" customWidth="1"/>
-    <col min="5891" max="5895" width="8.85546875" style="1" customWidth="1"/>
+    <col min="5889" max="5889" width="2.875" style="1" customWidth="1"/>
+    <col min="5890" max="5890" width="6.25" style="1" customWidth="1"/>
+    <col min="5891" max="5895" width="8.875" style="1" customWidth="1"/>
     <col min="5896" max="5897" width="9" style="1"/>
-    <col min="5898" max="5898" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5899" max="5899" width="6.5703125" style="1" customWidth="1"/>
-    <col min="5900" max="5900" width="9.5703125" style="1" customWidth="1"/>
-    <col min="5901" max="5901" width="12.5703125" style="1" customWidth="1"/>
-    <col min="5902" max="5902" width="6.7109375" style="1" customWidth="1"/>
+    <col min="5898" max="5898" width="9.375" style="1" customWidth="1"/>
+    <col min="5899" max="5899" width="6.625" style="1" customWidth="1"/>
+    <col min="5900" max="5900" width="9.625" style="1" customWidth="1"/>
+    <col min="5901" max="5901" width="12.625" style="1" customWidth="1"/>
+    <col min="5902" max="5902" width="6.75" style="1" customWidth="1"/>
     <col min="5903" max="6144" width="9" style="1"/>
-    <col min="6145" max="6145" width="2.85546875" style="1" customWidth="1"/>
-    <col min="6146" max="6146" width="6.28515625" style="1" customWidth="1"/>
-    <col min="6147" max="6151" width="8.85546875" style="1" customWidth="1"/>
+    <col min="6145" max="6145" width="2.875" style="1" customWidth="1"/>
+    <col min="6146" max="6146" width="6.25" style="1" customWidth="1"/>
+    <col min="6147" max="6151" width="8.875" style="1" customWidth="1"/>
     <col min="6152" max="6153" width="9" style="1"/>
-    <col min="6154" max="6154" width="9.42578125" style="1" customWidth="1"/>
-    <col min="6155" max="6155" width="6.5703125" style="1" customWidth="1"/>
-    <col min="6156" max="6156" width="9.5703125" style="1" customWidth="1"/>
-    <col min="6157" max="6157" width="12.5703125" style="1" customWidth="1"/>
-    <col min="6158" max="6158" width="6.7109375" style="1" customWidth="1"/>
+    <col min="6154" max="6154" width="9.375" style="1" customWidth="1"/>
+    <col min="6155" max="6155" width="6.625" style="1" customWidth="1"/>
+    <col min="6156" max="6156" width="9.625" style="1" customWidth="1"/>
+    <col min="6157" max="6157" width="12.625" style="1" customWidth="1"/>
+    <col min="6158" max="6158" width="6.75" style="1" customWidth="1"/>
     <col min="6159" max="6400" width="9" style="1"/>
-    <col min="6401" max="6401" width="2.85546875" style="1" customWidth="1"/>
-    <col min="6402" max="6402" width="6.28515625" style="1" customWidth="1"/>
-    <col min="6403" max="6407" width="8.85546875" style="1" customWidth="1"/>
+    <col min="6401" max="6401" width="2.875" style="1" customWidth="1"/>
+    <col min="6402" max="6402" width="6.25" style="1" customWidth="1"/>
+    <col min="6403" max="6407" width="8.875" style="1" customWidth="1"/>
     <col min="6408" max="6409" width="9" style="1"/>
-    <col min="6410" max="6410" width="9.42578125" style="1" customWidth="1"/>
-    <col min="6411" max="6411" width="6.5703125" style="1" customWidth="1"/>
-    <col min="6412" max="6412" width="9.5703125" style="1" customWidth="1"/>
-    <col min="6413" max="6413" width="12.5703125" style="1" customWidth="1"/>
-    <col min="6414" max="6414" width="6.7109375" style="1" customWidth="1"/>
+    <col min="6410" max="6410" width="9.375" style="1" customWidth="1"/>
+    <col min="6411" max="6411" width="6.625" style="1" customWidth="1"/>
+    <col min="6412" max="6412" width="9.625" style="1" customWidth="1"/>
+    <col min="6413" max="6413" width="12.625" style="1" customWidth="1"/>
+    <col min="6414" max="6414" width="6.75" style="1" customWidth="1"/>
     <col min="6415" max="6656" width="9" style="1"/>
-    <col min="6657" max="6657" width="2.85546875" style="1" customWidth="1"/>
-    <col min="6658" max="6658" width="6.28515625" style="1" customWidth="1"/>
-    <col min="6659" max="6663" width="8.85546875" style="1" customWidth="1"/>
+    <col min="6657" max="6657" width="2.875" style="1" customWidth="1"/>
+    <col min="6658" max="6658" width="6.25" style="1" customWidth="1"/>
+    <col min="6659" max="6663" width="8.875" style="1" customWidth="1"/>
     <col min="6664" max="6665" width="9" style="1"/>
-    <col min="6666" max="6666" width="9.42578125" style="1" customWidth="1"/>
-    <col min="6667" max="6667" width="6.5703125" style="1" customWidth="1"/>
-    <col min="6668" max="6668" width="9.5703125" style="1" customWidth="1"/>
-    <col min="6669" max="6669" width="12.5703125" style="1" customWidth="1"/>
-    <col min="6670" max="6670" width="6.7109375" style="1" customWidth="1"/>
+    <col min="6666" max="6666" width="9.375" style="1" customWidth="1"/>
+    <col min="6667" max="6667" width="6.625" style="1" customWidth="1"/>
+    <col min="6668" max="6668" width="9.625" style="1" customWidth="1"/>
+    <col min="6669" max="6669" width="12.625" style="1" customWidth="1"/>
+    <col min="6670" max="6670" width="6.75" style="1" customWidth="1"/>
     <col min="6671" max="6912" width="9" style="1"/>
-    <col min="6913" max="6913" width="2.85546875" style="1" customWidth="1"/>
-    <col min="6914" max="6914" width="6.28515625" style="1" customWidth="1"/>
-    <col min="6915" max="6919" width="8.85546875" style="1" customWidth="1"/>
+    <col min="6913" max="6913" width="2.875" style="1" customWidth="1"/>
+    <col min="6914" max="6914" width="6.25" style="1" customWidth="1"/>
+    <col min="6915" max="6919" width="8.875" style="1" customWidth="1"/>
     <col min="6920" max="6921" width="9" style="1"/>
-    <col min="6922" max="6922" width="9.42578125" style="1" customWidth="1"/>
-    <col min="6923" max="6923" width="6.5703125" style="1" customWidth="1"/>
-    <col min="6924" max="6924" width="9.5703125" style="1" customWidth="1"/>
-    <col min="6925" max="6925" width="12.5703125" style="1" customWidth="1"/>
-    <col min="6926" max="6926" width="6.7109375" style="1" customWidth="1"/>
+    <col min="6922" max="6922" width="9.375" style="1" customWidth="1"/>
+    <col min="6923" max="6923" width="6.625" style="1" customWidth="1"/>
+    <col min="6924" max="6924" width="9.625" style="1" customWidth="1"/>
+    <col min="6925" max="6925" width="12.625" style="1" customWidth="1"/>
+    <col min="6926" max="6926" width="6.75" style="1" customWidth="1"/>
     <col min="6927" max="7168" width="9" style="1"/>
-    <col min="7169" max="7169" width="2.85546875" style="1" customWidth="1"/>
-    <col min="7170" max="7170" width="6.28515625" style="1" customWidth="1"/>
-    <col min="7171" max="7175" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7169" max="7169" width="2.875" style="1" customWidth="1"/>
+    <col min="7170" max="7170" width="6.25" style="1" customWidth="1"/>
+    <col min="7171" max="7175" width="8.875" style="1" customWidth="1"/>
     <col min="7176" max="7177" width="9" style="1"/>
-    <col min="7178" max="7178" width="9.42578125" style="1" customWidth="1"/>
-    <col min="7179" max="7179" width="6.5703125" style="1" customWidth="1"/>
-    <col min="7180" max="7180" width="9.5703125" style="1" customWidth="1"/>
-    <col min="7181" max="7181" width="12.5703125" style="1" customWidth="1"/>
-    <col min="7182" max="7182" width="6.7109375" style="1" customWidth="1"/>
+    <col min="7178" max="7178" width="9.375" style="1" customWidth="1"/>
+    <col min="7179" max="7179" width="6.625" style="1" customWidth="1"/>
+    <col min="7180" max="7180" width="9.625" style="1" customWidth="1"/>
+    <col min="7181" max="7181" width="12.625" style="1" customWidth="1"/>
+    <col min="7182" max="7182" width="6.75" style="1" customWidth="1"/>
     <col min="7183" max="7424" width="9" style="1"/>
-    <col min="7425" max="7425" width="2.85546875" style="1" customWidth="1"/>
-    <col min="7426" max="7426" width="6.28515625" style="1" customWidth="1"/>
-    <col min="7427" max="7431" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7425" max="7425" width="2.875" style="1" customWidth="1"/>
+    <col min="7426" max="7426" width="6.25" style="1" customWidth="1"/>
+    <col min="7427" max="7431" width="8.875" style="1" customWidth="1"/>
     <col min="7432" max="7433" width="9" style="1"/>
-    <col min="7434" max="7434" width="9.42578125" style="1" customWidth="1"/>
-    <col min="7435" max="7435" width="6.5703125" style="1" customWidth="1"/>
-    <col min="7436" max="7436" width="9.5703125" style="1" customWidth="1"/>
-    <col min="7437" max="7437" width="12.5703125" style="1" customWidth="1"/>
-    <col min="7438" max="7438" width="6.7109375" style="1" customWidth="1"/>
+    <col min="7434" max="7434" width="9.375" style="1" customWidth="1"/>
+    <col min="7435" max="7435" width="6.625" style="1" customWidth="1"/>
+    <col min="7436" max="7436" width="9.625" style="1" customWidth="1"/>
+    <col min="7437" max="7437" width="12.625" style="1" customWidth="1"/>
+    <col min="7438" max="7438" width="6.75" style="1" customWidth="1"/>
     <col min="7439" max="7680" width="9" style="1"/>
-    <col min="7681" max="7681" width="2.85546875" style="1" customWidth="1"/>
-    <col min="7682" max="7682" width="6.28515625" style="1" customWidth="1"/>
-    <col min="7683" max="7687" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7681" max="7681" width="2.875" style="1" customWidth="1"/>
+    <col min="7682" max="7682" width="6.25" style="1" customWidth="1"/>
+    <col min="7683" max="7687" width="8.875" style="1" customWidth="1"/>
     <col min="7688" max="7689" width="9" style="1"/>
-    <col min="7690" max="7690" width="9.42578125" style="1" customWidth="1"/>
-    <col min="7691" max="7691" width="6.5703125" style="1" customWidth="1"/>
-    <col min="7692" max="7692" width="9.5703125" style="1" customWidth="1"/>
-    <col min="7693" max="7693" width="12.5703125" style="1" customWidth="1"/>
-    <col min="7694" max="7694" width="6.7109375" style="1" customWidth="1"/>
+    <col min="7690" max="7690" width="9.375" style="1" customWidth="1"/>
+    <col min="7691" max="7691" width="6.625" style="1" customWidth="1"/>
+    <col min="7692" max="7692" width="9.625" style="1" customWidth="1"/>
+    <col min="7693" max="7693" width="12.625" style="1" customWidth="1"/>
+    <col min="7694" max="7694" width="6.75" style="1" customWidth="1"/>
     <col min="7695" max="7936" width="9" style="1"/>
-    <col min="7937" max="7937" width="2.85546875" style="1" customWidth="1"/>
-    <col min="7938" max="7938" width="6.28515625" style="1" customWidth="1"/>
-    <col min="7939" max="7943" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7937" max="7937" width="2.875" style="1" customWidth="1"/>
+    <col min="7938" max="7938" width="6.25" style="1" customWidth="1"/>
+    <col min="7939" max="7943" width="8.875" style="1" customWidth="1"/>
     <col min="7944" max="7945" width="9" style="1"/>
-    <col min="7946" max="7946" width="9.42578125" style="1" customWidth="1"/>
-    <col min="7947" max="7947" width="6.5703125" style="1" customWidth="1"/>
-    <col min="7948" max="7948" width="9.5703125" style="1" customWidth="1"/>
-    <col min="7949" max="7949" width="12.5703125" style="1" customWidth="1"/>
-    <col min="7950" max="7950" width="6.7109375" style="1" customWidth="1"/>
+    <col min="7946" max="7946" width="9.375" style="1" customWidth="1"/>
+    <col min="7947" max="7947" width="6.625" style="1" customWidth="1"/>
+    <col min="7948" max="7948" width="9.625" style="1" customWidth="1"/>
+    <col min="7949" max="7949" width="12.625" style="1" customWidth="1"/>
+    <col min="7950" max="7950" width="6.75" style="1" customWidth="1"/>
     <col min="7951" max="8192" width="9" style="1"/>
-    <col min="8193" max="8193" width="2.85546875" style="1" customWidth="1"/>
-    <col min="8194" max="8194" width="6.28515625" style="1" customWidth="1"/>
-    <col min="8195" max="8199" width="8.85546875" style="1" customWidth="1"/>
+    <col min="8193" max="8193" width="2.875" style="1" customWidth="1"/>
+    <col min="8194" max="8194" width="6.25" style="1" customWidth="1"/>
+    <col min="8195" max="8199" width="8.875" style="1" customWidth="1"/>
     <col min="8200" max="8201" width="9" style="1"/>
-    <col min="8202" max="8202" width="9.42578125" style="1" customWidth="1"/>
-    <col min="8203" max="8203" width="6.5703125" style="1" customWidth="1"/>
-    <col min="8204" max="8204" width="9.5703125" style="1" customWidth="1"/>
-    <col min="8205" max="8205" width="12.5703125" style="1" customWidth="1"/>
-    <col min="8206" max="8206" width="6.7109375" style="1" customWidth="1"/>
+    <col min="8202" max="8202" width="9.375" style="1" customWidth="1"/>
+    <col min="8203" max="8203" width="6.625" style="1" customWidth="1"/>
+    <col min="8204" max="8204" width="9.625" style="1" customWidth="1"/>
+    <col min="8205" max="8205" width="12.625" style="1" customWidth="1"/>
+    <col min="8206" max="8206" width="6.75" style="1" customWidth="1"/>
     <col min="8207" max="8448" width="9" style="1"/>
-    <col min="8449" max="8449" width="2.85546875" style="1" customWidth="1"/>
-    <col min="8450" max="8450" width="6.28515625" style="1" customWidth="1"/>
-    <col min="8451" max="8455" width="8.85546875" style="1" customWidth="1"/>
+    <col min="8449" max="8449" width="2.875" style="1" customWidth="1"/>
+    <col min="8450" max="8450" width="6.25" style="1" customWidth="1"/>
+    <col min="8451" max="8455" width="8.875" style="1" customWidth="1"/>
     <col min="8456" max="8457" width="9" style="1"/>
-    <col min="8458" max="8458" width="9.42578125" style="1" customWidth="1"/>
-    <col min="8459" max="8459" width="6.5703125" style="1" customWidth="1"/>
-    <col min="8460" max="8460" width="9.5703125" style="1" customWidth="1"/>
-    <col min="8461" max="8461" width="12.5703125" style="1" customWidth="1"/>
-    <col min="8462" max="8462" width="6.7109375" style="1" customWidth="1"/>
+    <col min="8458" max="8458" width="9.375" style="1" customWidth="1"/>
+    <col min="8459" max="8459" width="6.625" style="1" customWidth="1"/>
+    <col min="8460" max="8460" width="9.625" style="1" customWidth="1"/>
+    <col min="8461" max="8461" width="12.625" style="1" customWidth="1"/>
+    <col min="8462" max="8462" width="6.75" style="1" customWidth="1"/>
     <col min="8463" max="8704" width="9" style="1"/>
-    <col min="8705" max="8705" width="2.85546875" style="1" customWidth="1"/>
-    <col min="8706" max="8706" width="6.28515625" style="1" customWidth="1"/>
-    <col min="8707" max="8711" width="8.85546875" style="1" customWidth="1"/>
+    <col min="8705" max="8705" width="2.875" style="1" customWidth="1"/>
+    <col min="8706" max="8706" width="6.25" style="1" customWidth="1"/>
+    <col min="8707" max="8711" width="8.875" style="1" customWidth="1"/>
     <col min="8712" max="8713" width="9" style="1"/>
-    <col min="8714" max="8714" width="9.42578125" style="1" customWidth="1"/>
-    <col min="8715" max="8715" width="6.5703125" style="1" customWidth="1"/>
-    <col min="8716" max="8716" width="9.5703125" style="1" customWidth="1"/>
-    <col min="8717" max="8717" width="12.5703125" style="1" customWidth="1"/>
-    <col min="8718" max="8718" width="6.7109375" style="1" customWidth="1"/>
+    <col min="8714" max="8714" width="9.375" style="1" customWidth="1"/>
+    <col min="8715" max="8715" width="6.625" style="1" customWidth="1"/>
+    <col min="8716" max="8716" width="9.625" style="1" customWidth="1"/>
+    <col min="8717" max="8717" width="12.625" style="1" customWidth="1"/>
+    <col min="8718" max="8718" width="6.75" style="1" customWidth="1"/>
     <col min="8719" max="8960" width="9" style="1"/>
-    <col min="8961" max="8961" width="2.85546875" style="1" customWidth="1"/>
-    <col min="8962" max="8962" width="6.28515625" style="1" customWidth="1"/>
-    <col min="8963" max="8967" width="8.85546875" style="1" customWidth="1"/>
+    <col min="8961" max="8961" width="2.875" style="1" customWidth="1"/>
+    <col min="8962" max="8962" width="6.25" style="1" customWidth="1"/>
+    <col min="8963" max="8967" width="8.875" style="1" customWidth="1"/>
     <col min="8968" max="8969" width="9" style="1"/>
-    <col min="8970" max="8970" width="9.42578125" style="1" customWidth="1"/>
-    <col min="8971" max="8971" width="6.5703125" style="1" customWidth="1"/>
-    <col min="8972" max="8972" width="9.5703125" style="1" customWidth="1"/>
-    <col min="8973" max="8973" width="12.5703125" style="1" customWidth="1"/>
-    <col min="8974" max="8974" width="6.7109375" style="1" customWidth="1"/>
+    <col min="8970" max="8970" width="9.375" style="1" customWidth="1"/>
+    <col min="8971" max="8971" width="6.625" style="1" customWidth="1"/>
+    <col min="8972" max="8972" width="9.625" style="1" customWidth="1"/>
+    <col min="8973" max="8973" width="12.625" style="1" customWidth="1"/>
+    <col min="8974" max="8974" width="6.75" style="1" customWidth="1"/>
     <col min="8975" max="9216" width="9" style="1"/>
-    <col min="9217" max="9217" width="2.85546875" style="1" customWidth="1"/>
-    <col min="9218" max="9218" width="6.28515625" style="1" customWidth="1"/>
-    <col min="9219" max="9223" width="8.85546875" style="1" customWidth="1"/>
+    <col min="9217" max="9217" width="2.875" style="1" customWidth="1"/>
+    <col min="9218" max="9218" width="6.25" style="1" customWidth="1"/>
+    <col min="9219" max="9223" width="8.875" style="1" customWidth="1"/>
     <col min="9224" max="9225" width="9" style="1"/>
-    <col min="9226" max="9226" width="9.42578125" style="1" customWidth="1"/>
-    <col min="9227" max="9227" width="6.5703125" style="1" customWidth="1"/>
-    <col min="9228" max="9228" width="9.5703125" style="1" customWidth="1"/>
-    <col min="9229" max="9229" width="12.5703125" style="1" customWidth="1"/>
-    <col min="9230" max="9230" width="6.7109375" style="1" customWidth="1"/>
+    <col min="9226" max="9226" width="9.375" style="1" customWidth="1"/>
+    <col min="9227" max="9227" width="6.625" style="1" customWidth="1"/>
+    <col min="9228" max="9228" width="9.625" style="1" customWidth="1"/>
+    <col min="9229" max="9229" width="12.625" style="1" customWidth="1"/>
+    <col min="9230" max="9230" width="6.75" style="1" customWidth="1"/>
     <col min="9231" max="9472" width="9" style="1"/>
-    <col min="9473" max="9473" width="2.85546875" style="1" customWidth="1"/>
-    <col min="9474" max="9474" width="6.28515625" style="1" customWidth="1"/>
-    <col min="9475" max="9479" width="8.85546875" style="1" customWidth="1"/>
+    <col min="9473" max="9473" width="2.875" style="1" customWidth="1"/>
+    <col min="9474" max="9474" width="6.25" style="1" customWidth="1"/>
+    <col min="9475" max="9479" width="8.875" style="1" customWidth="1"/>
     <col min="9480" max="9481" width="9" style="1"/>
-    <col min="9482" max="9482" width="9.42578125" style="1" customWidth="1"/>
-    <col min="9483" max="9483" width="6.5703125" style="1" customWidth="1"/>
-    <col min="9484" max="9484" width="9.5703125" style="1" customWidth="1"/>
-    <col min="9485" max="9485" width="12.5703125" style="1" customWidth="1"/>
-    <col min="9486" max="9486" width="6.7109375" style="1" customWidth="1"/>
+    <col min="9482" max="9482" width="9.375" style="1" customWidth="1"/>
+    <col min="9483" max="9483" width="6.625" style="1" customWidth="1"/>
+    <col min="9484" max="9484" width="9.625" style="1" customWidth="1"/>
+    <col min="9485" max="9485" width="12.625" style="1" customWidth="1"/>
+    <col min="9486" max="9486" width="6.75" style="1" customWidth="1"/>
     <col min="9487" max="9728" width="9" style="1"/>
-    <col min="9729" max="9729" width="2.85546875" style="1" customWidth="1"/>
-    <col min="9730" max="9730" width="6.28515625" style="1" customWidth="1"/>
-    <col min="9731" max="9735" width="8.85546875" style="1" customWidth="1"/>
+    <col min="9729" max="9729" width="2.875" style="1" customWidth="1"/>
+    <col min="9730" max="9730" width="6.25" style="1" customWidth="1"/>
+    <col min="9731" max="9735" width="8.875" style="1" customWidth="1"/>
     <col min="9736" max="9737" width="9" style="1"/>
-    <col min="9738" max="9738" width="9.42578125" style="1" customWidth="1"/>
-    <col min="9739" max="9739" width="6.5703125" style="1" customWidth="1"/>
-    <col min="9740" max="9740" width="9.5703125" style="1" customWidth="1"/>
-    <col min="9741" max="9741" width="12.5703125" style="1" customWidth="1"/>
-    <col min="9742" max="9742" width="6.7109375" style="1" customWidth="1"/>
+    <col min="9738" max="9738" width="9.375" style="1" customWidth="1"/>
+    <col min="9739" max="9739" width="6.625" style="1" customWidth="1"/>
+    <col min="9740" max="9740" width="9.625" style="1" customWidth="1"/>
+    <col min="9741" max="9741" width="12.625" style="1" customWidth="1"/>
+    <col min="9742" max="9742" width="6.75" style="1" customWidth="1"/>
     <col min="9743" max="9984" width="9" style="1"/>
-    <col min="9985" max="9985" width="2.85546875" style="1" customWidth="1"/>
-    <col min="9986" max="9986" width="6.28515625" style="1" customWidth="1"/>
-    <col min="9987" max="9991" width="8.85546875" style="1" customWidth="1"/>
+    <col min="9985" max="9985" width="2.875" style="1" customWidth="1"/>
+    <col min="9986" max="9986" width="6.25" style="1" customWidth="1"/>
+    <col min="9987" max="9991" width="8.875" style="1" customWidth="1"/>
     <col min="9992" max="9993" width="9" style="1"/>
-    <col min="9994" max="9994" width="9.42578125" style="1" customWidth="1"/>
-    <col min="9995" max="9995" width="6.5703125" style="1" customWidth="1"/>
-    <col min="9996" max="9996" width="9.5703125" style="1" customWidth="1"/>
-    <col min="9997" max="9997" width="12.5703125" style="1" customWidth="1"/>
-    <col min="9998" max="9998" width="6.7109375" style="1" customWidth="1"/>
+    <col min="9994" max="9994" width="9.375" style="1" customWidth="1"/>
+    <col min="9995" max="9995" width="6.625" style="1" customWidth="1"/>
+    <col min="9996" max="9996" width="9.625" style="1" customWidth="1"/>
+    <col min="9997" max="9997" width="12.625" style="1" customWidth="1"/>
+    <col min="9998" max="9998" width="6.75" style="1" customWidth="1"/>
     <col min="9999" max="10240" width="9" style="1"/>
-    <col min="10241" max="10241" width="2.85546875" style="1" customWidth="1"/>
-    <col min="10242" max="10242" width="6.28515625" style="1" customWidth="1"/>
-    <col min="10243" max="10247" width="8.85546875" style="1" customWidth="1"/>
+    <col min="10241" max="10241" width="2.875" style="1" customWidth="1"/>
+    <col min="10242" max="10242" width="6.25" style="1" customWidth="1"/>
+    <col min="10243" max="10247" width="8.875" style="1" customWidth="1"/>
     <col min="10248" max="10249" width="9" style="1"/>
-    <col min="10250" max="10250" width="9.42578125" style="1" customWidth="1"/>
-    <col min="10251" max="10251" width="6.5703125" style="1" customWidth="1"/>
-    <col min="10252" max="10252" width="9.5703125" style="1" customWidth="1"/>
-    <col min="10253" max="10253" width="12.5703125" style="1" customWidth="1"/>
-    <col min="10254" max="10254" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10250" max="10250" width="9.375" style="1" customWidth="1"/>
+    <col min="10251" max="10251" width="6.625" style="1" customWidth="1"/>
+    <col min="10252" max="10252" width="9.625" style="1" customWidth="1"/>
+    <col min="10253" max="10253" width="12.625" style="1" customWidth="1"/>
+    <col min="10254" max="10254" width="6.75" style="1" customWidth="1"/>
     <col min="10255" max="10496" width="9" style="1"/>
-    <col min="10497" max="10497" width="2.85546875" style="1" customWidth="1"/>
-    <col min="10498" max="10498" width="6.28515625" style="1" customWidth="1"/>
-    <col min="10499" max="10503" width="8.85546875" style="1" customWidth="1"/>
+    <col min="10497" max="10497" width="2.875" style="1" customWidth="1"/>
+    <col min="10498" max="10498" width="6.25" style="1" customWidth="1"/>
+    <col min="10499" max="10503" width="8.875" style="1" customWidth="1"/>
     <col min="10504" max="10505" width="9" style="1"/>
-    <col min="10506" max="10506" width="9.42578125" style="1" customWidth="1"/>
-    <col min="10507" max="10507" width="6.5703125" style="1" customWidth="1"/>
-    <col min="10508" max="10508" width="9.5703125" style="1" customWidth="1"/>
-    <col min="10509" max="10509" width="12.5703125" style="1" customWidth="1"/>
-    <col min="10510" max="10510" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10506" max="10506" width="9.375" style="1" customWidth="1"/>
+    <col min="10507" max="10507" width="6.625" style="1" customWidth="1"/>
+    <col min="10508" max="10508" width="9.625" style="1" customWidth="1"/>
+    <col min="10509" max="10509" width="12.625" style="1" customWidth="1"/>
+    <col min="10510" max="10510" width="6.75" style="1" customWidth="1"/>
     <col min="10511" max="10752" width="9" style="1"/>
-    <col min="10753" max="10753" width="2.85546875" style="1" customWidth="1"/>
-    <col min="10754" max="10754" width="6.28515625" style="1" customWidth="1"/>
-    <col min="10755" max="10759" width="8.85546875" style="1" customWidth="1"/>
+    <col min="10753" max="10753" width="2.875" style="1" customWidth="1"/>
+    <col min="10754" max="10754" width="6.25" style="1" customWidth="1"/>
+    <col min="10755" max="10759" width="8.875" style="1" customWidth="1"/>
     <col min="10760" max="10761" width="9" style="1"/>
-    <col min="10762" max="10762" width="9.42578125" style="1" customWidth="1"/>
-    <col min="10763" max="10763" width="6.5703125" style="1" customWidth="1"/>
-    <col min="10764" max="10764" width="9.5703125" style="1" customWidth="1"/>
-    <col min="10765" max="10765" width="12.5703125" style="1" customWidth="1"/>
-    <col min="10766" max="10766" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10762" max="10762" width="9.375" style="1" customWidth="1"/>
+    <col min="10763" max="10763" width="6.625" style="1" customWidth="1"/>
+    <col min="10764" max="10764" width="9.625" style="1" customWidth="1"/>
+    <col min="10765" max="10765" width="12.625" style="1" customWidth="1"/>
+    <col min="10766" max="10766" width="6.75" style="1" customWidth="1"/>
     <col min="10767" max="11008" width="9" style="1"/>
-    <col min="11009" max="11009" width="2.85546875" style="1" customWidth="1"/>
-    <col min="11010" max="11010" width="6.28515625" style="1" customWidth="1"/>
-    <col min="11011" max="11015" width="8.85546875" style="1" customWidth="1"/>
+    <col min="11009" max="11009" width="2.875" style="1" customWidth="1"/>
+    <col min="11010" max="11010" width="6.25" style="1" customWidth="1"/>
+    <col min="11011" max="11015" width="8.875" style="1" customWidth="1"/>
     <col min="11016" max="11017" width="9" style="1"/>
-    <col min="11018" max="11018" width="9.42578125" style="1" customWidth="1"/>
-    <col min="11019" max="11019" width="6.5703125" style="1" customWidth="1"/>
-    <col min="11020" max="11020" width="9.5703125" style="1" customWidth="1"/>
-    <col min="11021" max="11021" width="12.5703125" style="1" customWidth="1"/>
-    <col min="11022" max="11022" width="6.7109375" style="1" customWidth="1"/>
+    <col min="11018" max="11018" width="9.375" style="1" customWidth="1"/>
+    <col min="11019" max="11019" width="6.625" style="1" customWidth="1"/>
+    <col min="11020" max="11020" width="9.625" style="1" customWidth="1"/>
+    <col min="11021" max="11021" width="12.625" style="1" customWidth="1"/>
+    <col min="11022" max="11022" width="6.75" style="1" customWidth="1"/>
     <col min="11023" max="11264" width="9" style="1"/>
-    <col min="11265" max="11265" width="2.85546875" style="1" customWidth="1"/>
-    <col min="11266" max="11266" width="6.28515625" style="1" customWidth="1"/>
-    <col min="11267" max="11271" width="8.85546875" style="1" customWidth="1"/>
+    <col min="11265" max="11265" width="2.875" style="1" customWidth="1"/>
+    <col min="11266" max="11266" width="6.25" style="1" customWidth="1"/>
+    <col min="11267" max="11271" width="8.875" style="1" customWidth="1"/>
     <col min="11272" max="11273" width="9" style="1"/>
-    <col min="11274" max="11274" width="9.42578125" style="1" customWidth="1"/>
-    <col min="11275" max="11275" width="6.5703125" style="1" customWidth="1"/>
-    <col min="11276" max="11276" width="9.5703125" style="1" customWidth="1"/>
-    <col min="11277" max="11277" width="12.5703125" style="1" customWidth="1"/>
-    <col min="11278" max="11278" width="6.7109375" style="1" customWidth="1"/>
+    <col min="11274" max="11274" width="9.375" style="1" customWidth="1"/>
+    <col min="11275" max="11275" width="6.625" style="1" customWidth="1"/>
+    <col min="11276" max="11276" width="9.625" style="1" customWidth="1"/>
+    <col min="11277" max="11277" width="12.625" style="1" customWidth="1"/>
+    <col min="11278" max="11278" width="6.75" style="1" customWidth="1"/>
     <col min="11279" max="11520" width="9" style="1"/>
-    <col min="11521" max="11521" width="2.85546875" style="1" customWidth="1"/>
-    <col min="11522" max="11522" width="6.28515625" style="1" customWidth="1"/>
-    <col min="11523" max="11527" width="8.85546875" style="1" customWidth="1"/>
+    <col min="11521" max="11521" width="2.875" style="1" customWidth="1"/>
+    <col min="11522" max="11522" width="6.25" style="1" customWidth="1"/>
+    <col min="11523" max="11527" width="8.875" style="1" customWidth="1"/>
     <col min="11528" max="11529" width="9" style="1"/>
-    <col min="11530" max="11530" width="9.42578125" style="1" customWidth="1"/>
-    <col min="11531" max="11531" width="6.5703125" style="1" customWidth="1"/>
-    <col min="11532" max="11532" width="9.5703125" style="1" customWidth="1"/>
-    <col min="11533" max="11533" width="12.5703125" style="1" customWidth="1"/>
-    <col min="11534" max="11534" width="6.7109375" style="1" customWidth="1"/>
+    <col min="11530" max="11530" width="9.375" style="1" customWidth="1"/>
+    <col min="11531" max="11531" width="6.625" style="1" customWidth="1"/>
+    <col min="11532" max="11532" width="9.625" style="1" customWidth="1"/>
+    <col min="11533" max="11533" width="12.625" style="1" customWidth="1"/>
+    <col min="11534" max="11534" width="6.75" style="1" customWidth="1"/>
     <col min="11535" max="11776" width="9" style="1"/>
-    <col min="11777" max="11777" width="2.85546875" style="1" customWidth="1"/>
-    <col min="11778" max="11778" width="6.28515625" style="1" customWidth="1"/>
-    <col min="11779" max="11783" width="8.85546875" style="1" customWidth="1"/>
+    <col min="11777" max="11777" width="2.875" style="1" customWidth="1"/>
+    <col min="11778" max="11778" width="6.25" style="1" customWidth="1"/>
+    <col min="11779" max="11783" width="8.875" style="1" customWidth="1"/>
     <col min="11784" max="11785" width="9" style="1"/>
-    <col min="11786" max="11786" width="9.42578125" style="1" customWidth="1"/>
-    <col min="11787" max="11787" width="6.5703125" style="1" customWidth="1"/>
-    <col min="11788" max="11788" width="9.5703125" style="1" customWidth="1"/>
-    <col min="11789" max="11789" width="12.5703125" style="1" customWidth="1"/>
-    <col min="11790" max="11790" width="6.7109375" style="1" customWidth="1"/>
+    <col min="11786" max="11786" width="9.375" style="1" customWidth="1"/>
+    <col min="11787" max="11787" width="6.625" style="1" customWidth="1"/>
+    <col min="11788" max="11788" width="9.625" style="1" customWidth="1"/>
+    <col min="11789" max="11789" width="12.625" style="1" customWidth="1"/>
+    <col min="11790" max="11790" width="6.75" style="1" customWidth="1"/>
     <col min="11791" max="12032" width="9" style="1"/>
-    <col min="12033" max="12033" width="2.85546875" style="1" customWidth="1"/>
-    <col min="12034" max="12034" width="6.28515625" style="1" customWidth="1"/>
-    <col min="12035" max="12039" width="8.85546875" style="1" customWidth="1"/>
+    <col min="12033" max="12033" width="2.875" style="1" customWidth="1"/>
+    <col min="12034" max="12034" width="6.25" style="1" customWidth="1"/>
+    <col min="12035" max="12039" width="8.875" style="1" customWidth="1"/>
     <col min="12040" max="12041" width="9" style="1"/>
-    <col min="12042" max="12042" width="9.42578125" style="1" customWidth="1"/>
-    <col min="12043" max="12043" width="6.5703125" style="1" customWidth="1"/>
-    <col min="12044" max="12044" width="9.5703125" style="1" customWidth="1"/>
-    <col min="12045" max="12045" width="12.5703125" style="1" customWidth="1"/>
-    <col min="12046" max="12046" width="6.7109375" style="1" customWidth="1"/>
+    <col min="12042" max="12042" width="9.375" style="1" customWidth="1"/>
+    <col min="12043" max="12043" width="6.625" style="1" customWidth="1"/>
+    <col min="12044" max="12044" width="9.625" style="1" customWidth="1"/>
+    <col min="12045" max="12045" width="12.625" style="1" customWidth="1"/>
+    <col min="12046" max="12046" width="6.75" style="1" customWidth="1"/>
     <col min="12047" max="12288" width="9" style="1"/>
-    <col min="12289" max="12289" width="2.85546875" style="1" customWidth="1"/>
-    <col min="12290" max="12290" width="6.28515625" style="1" customWidth="1"/>
-    <col min="12291" max="12295" width="8.85546875" style="1" customWidth="1"/>
+    <col min="12289" max="12289" width="2.875" style="1" customWidth="1"/>
+    <col min="12290" max="12290" width="6.25" style="1" customWidth="1"/>
+    <col min="12291" max="12295" width="8.875" style="1" customWidth="1"/>
     <col min="12296" max="12297" width="9" style="1"/>
-    <col min="12298" max="12298" width="9.42578125" style="1" customWidth="1"/>
-    <col min="12299" max="12299" width="6.5703125" style="1" customWidth="1"/>
-    <col min="12300" max="12300" width="9.5703125" style="1" customWidth="1"/>
-    <col min="12301" max="12301" width="12.5703125" style="1" customWidth="1"/>
-    <col min="12302" max="12302" width="6.7109375" style="1" customWidth="1"/>
+    <col min="12298" max="12298" width="9.375" style="1" customWidth="1"/>
+    <col min="12299" max="12299" width="6.625" style="1" customWidth="1"/>
+    <col min="12300" max="12300" width="9.625" style="1" customWidth="1"/>
+    <col min="12301" max="12301" width="12.625" style="1" customWidth="1"/>
+    <col min="12302" max="12302" width="6.75" style="1" customWidth="1"/>
     <col min="12303" max="12544" width="9" style="1"/>
-    <col min="12545" max="12545" width="2.85546875" style="1" customWidth="1"/>
-    <col min="12546" max="12546" width="6.28515625" style="1" customWidth="1"/>
-    <col min="12547" max="12551" width="8.85546875" style="1" customWidth="1"/>
+    <col min="12545" max="12545" width="2.875" style="1" customWidth="1"/>
+    <col min="12546" max="12546" width="6.25" style="1" customWidth="1"/>
+    <col min="12547" max="12551" width="8.875" style="1" customWidth="1"/>
     <col min="12552" max="12553" width="9" style="1"/>
-    <col min="12554" max="12554" width="9.42578125" style="1" customWidth="1"/>
-    <col min="12555" max="12555" width="6.5703125" style="1" customWidth="1"/>
-    <col min="12556" max="12556" width="9.5703125" style="1" customWidth="1"/>
-    <col min="12557" max="12557" width="12.5703125" style="1" customWidth="1"/>
-    <col min="12558" max="12558" width="6.7109375" style="1" customWidth="1"/>
+    <col min="12554" max="12554" width="9.375" style="1" customWidth="1"/>
+    <col min="12555" max="12555" width="6.625" style="1" customWidth="1"/>
+    <col min="12556" max="12556" width="9.625" style="1" customWidth="1"/>
+    <col min="12557" max="12557" width="12.625" style="1" customWidth="1"/>
+    <col min="12558" max="12558" width="6.75" style="1" customWidth="1"/>
     <col min="12559" max="12800" width="9" style="1"/>
-    <col min="12801" max="12801" width="2.85546875" style="1" customWidth="1"/>
-    <col min="12802" max="12802" width="6.28515625" style="1" customWidth="1"/>
-    <col min="12803" max="12807" width="8.85546875" style="1" customWidth="1"/>
+    <col min="12801" max="12801" width="2.875" style="1" customWidth="1"/>
+    <col min="12802" max="12802" width="6.25" style="1" customWidth="1"/>
+    <col min="12803" max="12807" width="8.875" style="1" customWidth="1"/>
     <col min="12808" max="12809" width="9" style="1"/>
-    <col min="12810" max="12810" width="9.42578125" style="1" customWidth="1"/>
-    <col min="12811" max="12811" width="6.5703125" style="1" customWidth="1"/>
-    <col min="12812" max="12812" width="9.5703125" style="1" customWidth="1"/>
-    <col min="12813" max="12813" width="12.5703125" style="1" customWidth="1"/>
-    <col min="12814" max="12814" width="6.7109375" style="1" customWidth="1"/>
+    <col min="12810" max="12810" width="9.375" style="1" customWidth="1"/>
+    <col min="12811" max="12811" width="6.625" style="1" customWidth="1"/>
+    <col min="12812" max="12812" width="9.625" style="1" customWidth="1"/>
+    <col min="12813" max="12813" width="12.625" style="1" customWidth="1"/>
+    <col min="12814" max="12814" width="6.75" style="1" customWidth="1"/>
     <col min="12815" max="13056" width="9" style="1"/>
-    <col min="13057" max="13057" width="2.85546875" style="1" customWidth="1"/>
-    <col min="13058" max="13058" width="6.28515625" style="1" customWidth="1"/>
-    <col min="13059" max="13063" width="8.85546875" style="1" customWidth="1"/>
+    <col min="13057" max="13057" width="2.875" style="1" customWidth="1"/>
+    <col min="13058" max="13058" width="6.25" style="1" customWidth="1"/>
+    <col min="13059" max="13063" width="8.875" style="1" customWidth="1"/>
     <col min="13064" max="13065" width="9" style="1"/>
-    <col min="13066" max="13066" width="9.42578125" style="1" customWidth="1"/>
-    <col min="13067" max="13067" width="6.5703125" style="1" customWidth="1"/>
-    <col min="13068" max="13068" width="9.5703125" style="1" customWidth="1"/>
-    <col min="13069" max="13069" width="12.5703125" style="1" customWidth="1"/>
-    <col min="13070" max="13070" width="6.7109375" style="1" customWidth="1"/>
+    <col min="13066" max="13066" width="9.375" style="1" customWidth="1"/>
+    <col min="13067" max="13067" width="6.625" style="1" customWidth="1"/>
+    <col min="13068" max="13068" width="9.625" style="1" customWidth="1"/>
+    <col min="13069" max="13069" width="12.625" style="1" customWidth="1"/>
+    <col min="13070" max="13070" width="6.75" style="1" customWidth="1"/>
     <col min="13071" max="13312" width="9" style="1"/>
-    <col min="13313" max="13313" width="2.85546875" style="1" customWidth="1"/>
-    <col min="13314" max="13314" width="6.28515625" style="1" customWidth="1"/>
-    <col min="13315" max="13319" width="8.85546875" style="1" customWidth="1"/>
+    <col min="13313" max="13313" width="2.875" style="1" customWidth="1"/>
+    <col min="13314" max="13314" width="6.25" style="1" customWidth="1"/>
+    <col min="13315" max="13319" width="8.875" style="1" customWidth="1"/>
     <col min="13320" max="13321" width="9" style="1"/>
-    <col min="13322" max="13322" width="9.42578125" style="1" customWidth="1"/>
-    <col min="13323" max="13323" width="6.5703125" style="1" customWidth="1"/>
-    <col min="13324" max="13324" width="9.5703125" style="1" customWidth="1"/>
-    <col min="13325" max="13325" width="12.5703125" style="1" customWidth="1"/>
-    <col min="13326" max="13326" width="6.7109375" style="1" customWidth="1"/>
+    <col min="13322" max="13322" width="9.375" style="1" customWidth="1"/>
+    <col min="13323" max="13323" width="6.625" style="1" customWidth="1"/>
+    <col min="13324" max="13324" width="9.625" style="1" customWidth="1"/>
+    <col min="13325" max="13325" width="12.625" style="1" customWidth="1"/>
+    <col min="13326" max="13326" width="6.75" style="1" customWidth="1"/>
     <col min="13327" max="13568" width="9" style="1"/>
-    <col min="13569" max="13569" width="2.85546875" style="1" customWidth="1"/>
-    <col min="13570" max="13570" width="6.28515625" style="1" customWidth="1"/>
-    <col min="13571" max="13575" width="8.85546875" style="1" customWidth="1"/>
+    <col min="13569" max="13569" width="2.875" style="1" customWidth="1"/>
+    <col min="13570" max="13570" width="6.25" style="1" customWidth="1"/>
+    <col min="13571" max="13575" width="8.875" style="1" customWidth="1"/>
     <col min="13576" max="13577" width="9" style="1"/>
-    <col min="13578" max="13578" width="9.42578125" style="1" customWidth="1"/>
-    <col min="13579" max="13579" width="6.5703125" style="1" customWidth="1"/>
-    <col min="13580" max="13580" width="9.5703125" style="1" customWidth="1"/>
-    <col min="13581" max="13581" width="12.5703125" style="1" customWidth="1"/>
-    <col min="13582" max="13582" width="6.7109375" style="1" customWidth="1"/>
+    <col min="13578" max="13578" width="9.375" style="1" customWidth="1"/>
+    <col min="13579" max="13579" width="6.625" style="1" customWidth="1"/>
+    <col min="13580" max="13580" width="9.625" style="1" customWidth="1"/>
+    <col min="13581" max="13581" width="12.625" style="1" customWidth="1"/>
+    <col min="13582" max="13582" width="6.75" style="1" customWidth="1"/>
     <col min="13583" max="13824" width="9" style="1"/>
-    <col min="13825" max="13825" width="2.85546875" style="1" customWidth="1"/>
-    <col min="13826" max="13826" width="6.28515625" style="1" customWidth="1"/>
-    <col min="13827" max="13831" width="8.85546875" style="1" customWidth="1"/>
+    <col min="13825" max="13825" width="2.875" style="1" customWidth="1"/>
+    <col min="13826" max="13826" width="6.25" style="1" customWidth="1"/>
+    <col min="13827" max="13831" width="8.875" style="1" customWidth="1"/>
     <col min="13832" max="13833" width="9" style="1"/>
-    <col min="13834" max="13834" width="9.42578125" style="1" customWidth="1"/>
-    <col min="13835" max="13835" width="6.5703125" style="1" customWidth="1"/>
-    <col min="13836" max="13836" width="9.5703125" style="1" customWidth="1"/>
-    <col min="13837" max="13837" width="12.5703125" style="1" customWidth="1"/>
-    <col min="13838" max="13838" width="6.7109375" style="1" customWidth="1"/>
+    <col min="13834" max="13834" width="9.375" style="1" customWidth="1"/>
+    <col min="13835" max="13835" width="6.625" style="1" customWidth="1"/>
+    <col min="13836" max="13836" width="9.625" style="1" customWidth="1"/>
+    <col min="13837" max="13837" width="12.625" style="1" customWidth="1"/>
+    <col min="13838" max="13838" width="6.75" style="1" customWidth="1"/>
     <col min="13839" max="14080" width="9" style="1"/>
-    <col min="14081" max="14081" width="2.85546875" style="1" customWidth="1"/>
-    <col min="14082" max="14082" width="6.28515625" style="1" customWidth="1"/>
-    <col min="14083" max="14087" width="8.85546875" style="1" customWidth="1"/>
+    <col min="14081" max="14081" width="2.875" style="1" customWidth="1"/>
+    <col min="14082" max="14082" width="6.25" style="1" customWidth="1"/>
+    <col min="14083" max="14087" width="8.875" style="1" customWidth="1"/>
     <col min="14088" max="14089" width="9" style="1"/>
-    <col min="14090" max="14090" width="9.42578125" style="1" customWidth="1"/>
-    <col min="14091" max="14091" width="6.5703125" style="1" customWidth="1"/>
-    <col min="14092" max="14092" width="9.5703125" style="1" customWidth="1"/>
-    <col min="14093" max="14093" width="12.5703125" style="1" customWidth="1"/>
-    <col min="14094" max="14094" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14090" max="14090" width="9.375" style="1" customWidth="1"/>
+    <col min="14091" max="14091" width="6.625" style="1" customWidth="1"/>
+    <col min="14092" max="14092" width="9.625" style="1" customWidth="1"/>
+    <col min="14093" max="14093" width="12.625" style="1" customWidth="1"/>
+    <col min="14094" max="14094" width="6.75" style="1" customWidth="1"/>
     <col min="14095" max="14336" width="9" style="1"/>
-    <col min="14337" max="14337" width="2.85546875" style="1" customWidth="1"/>
-    <col min="14338" max="14338" width="6.28515625" style="1" customWidth="1"/>
-    <col min="14339" max="14343" width="8.85546875" style="1" customWidth="1"/>
+    <col min="14337" max="14337" width="2.875" style="1" customWidth="1"/>
+    <col min="14338" max="14338" width="6.25" style="1" customWidth="1"/>
+    <col min="14339" max="14343" width="8.875" style="1" customWidth="1"/>
     <col min="14344" max="14345" width="9" style="1"/>
-    <col min="14346" max="14346" width="9.42578125" style="1" customWidth="1"/>
-    <col min="14347" max="14347" width="6.5703125" style="1" customWidth="1"/>
-    <col min="14348" max="14348" width="9.5703125" style="1" customWidth="1"/>
-    <col min="14349" max="14349" width="12.5703125" style="1" customWidth="1"/>
-    <col min="14350" max="14350" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14346" max="14346" width="9.375" style="1" customWidth="1"/>
+    <col min="14347" max="14347" width="6.625" style="1" customWidth="1"/>
+    <col min="14348" max="14348" width="9.625" style="1" customWidth="1"/>
+    <col min="14349" max="14349" width="12.625" style="1" customWidth="1"/>
+    <col min="14350" max="14350" width="6.75" style="1" customWidth="1"/>
     <col min="14351" max="14592" width="9" style="1"/>
-    <col min="14593" max="14593" width="2.85546875" style="1" customWidth="1"/>
-    <col min="14594" max="14594" width="6.28515625" style="1" customWidth="1"/>
-    <col min="14595" max="14599" width="8.85546875" style="1" customWidth="1"/>
+    <col min="14593" max="14593" width="2.875" style="1" customWidth="1"/>
+    <col min="14594" max="14594" width="6.25" style="1" customWidth="1"/>
+    <col min="14595" max="14599" width="8.875" style="1" customWidth="1"/>
     <col min="14600" max="14601" width="9" style="1"/>
-    <col min="14602" max="14602" width="9.42578125" style="1" customWidth="1"/>
-    <col min="14603" max="14603" width="6.5703125" style="1" customWidth="1"/>
-    <col min="14604" max="14604" width="9.5703125" style="1" customWidth="1"/>
-    <col min="14605" max="14605" width="12.5703125" style="1" customWidth="1"/>
-    <col min="14606" max="14606" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14602" max="14602" width="9.375" style="1" customWidth="1"/>
+    <col min="14603" max="14603" width="6.625" style="1" customWidth="1"/>
+    <col min="14604" max="14604" width="9.625" style="1" customWidth="1"/>
+    <col min="14605" max="14605" width="12.625" style="1" customWidth="1"/>
+    <col min="14606" max="14606" width="6.75" style="1" customWidth="1"/>
     <col min="14607" max="14848" width="9" style="1"/>
-    <col min="14849" max="14849" width="2.85546875" style="1" customWidth="1"/>
-    <col min="14850" max="14850" width="6.28515625" style="1" customWidth="1"/>
-    <col min="14851" max="14855" width="8.85546875" style="1" customWidth="1"/>
+    <col min="14849" max="14849" width="2.875" style="1" customWidth="1"/>
+    <col min="14850" max="14850" width="6.25" style="1" customWidth="1"/>
+    <col min="14851" max="14855" width="8.875" style="1" customWidth="1"/>
     <col min="14856" max="14857" width="9" style="1"/>
-    <col min="14858" max="14858" width="9.42578125" style="1" customWidth="1"/>
-    <col min="14859" max="14859" width="6.5703125" style="1" customWidth="1"/>
-    <col min="14860" max="14860" width="9.5703125" style="1" customWidth="1"/>
-    <col min="14861" max="14861" width="12.5703125" style="1" customWidth="1"/>
-    <col min="14862" max="14862" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14858" max="14858" width="9.375" style="1" customWidth="1"/>
+    <col min="14859" max="14859" width="6.625" style="1" customWidth="1"/>
+    <col min="14860" max="14860" width="9.625" style="1" customWidth="1"/>
+    <col min="14861" max="14861" width="12.625" style="1" customWidth="1"/>
+    <col min="14862" max="14862" width="6.75" style="1" customWidth="1"/>
     <col min="14863" max="15104" width="9" style="1"/>
-    <col min="15105" max="15105" width="2.85546875" style="1" customWidth="1"/>
-    <col min="15106" max="15106" width="6.28515625" style="1" customWidth="1"/>
-    <col min="15107" max="15111" width="8.85546875" style="1" customWidth="1"/>
+    <col min="15105" max="15105" width="2.875" style="1" customWidth="1"/>
+    <col min="15106" max="15106" width="6.25" style="1" customWidth="1"/>
+    <col min="15107" max="15111" width="8.875" style="1" customWidth="1"/>
     <col min="15112" max="15113" width="9" style="1"/>
-    <col min="15114" max="15114" width="9.42578125" style="1" customWidth="1"/>
-    <col min="15115" max="15115" width="6.5703125" style="1" customWidth="1"/>
-    <col min="15116" max="15116" width="9.5703125" style="1" customWidth="1"/>
-    <col min="15117" max="15117" width="12.5703125" style="1" customWidth="1"/>
-    <col min="15118" max="15118" width="6.7109375" style="1" customWidth="1"/>
+    <col min="15114" max="15114" width="9.375" style="1" customWidth="1"/>
+    <col min="15115" max="15115" width="6.625" style="1" customWidth="1"/>
+    <col min="15116" max="15116" width="9.625" style="1" customWidth="1"/>
+    <col min="15117" max="15117" width="12.625" style="1" customWidth="1"/>
+    <col min="15118" max="15118" width="6.75" style="1" customWidth="1"/>
     <col min="15119" max="15360" width="9" style="1"/>
-    <col min="15361" max="15361" width="2.85546875" style="1" customWidth="1"/>
-    <col min="15362" max="15362" width="6.28515625" style="1" customWidth="1"/>
-    <col min="15363" max="15367" width="8.85546875" style="1" customWidth="1"/>
+    <col min="15361" max="15361" width="2.875" style="1" customWidth="1"/>
+    <col min="15362" max="15362" width="6.25" style="1" customWidth="1"/>
+    <col min="15363" max="15367" width="8.875" style="1" customWidth="1"/>
     <col min="15368" max="15369" width="9" style="1"/>
-    <col min="15370" max="15370" width="9.42578125" style="1" customWidth="1"/>
-    <col min="15371" max="15371" width="6.5703125" style="1" customWidth="1"/>
-    <col min="15372" max="15372" width="9.5703125" style="1" customWidth="1"/>
-    <col min="15373" max="15373" width="12.5703125" style="1" customWidth="1"/>
-    <col min="15374" max="15374" width="6.7109375" style="1" customWidth="1"/>
+    <col min="15370" max="15370" width="9.375" style="1" customWidth="1"/>
+    <col min="15371" max="15371" width="6.625" style="1" customWidth="1"/>
+    <col min="15372" max="15372" width="9.625" style="1" customWidth="1"/>
+    <col min="15373" max="15373" width="12.625" style="1" customWidth="1"/>
+    <col min="15374" max="15374" width="6.75" style="1" customWidth="1"/>
     <col min="15375" max="15616" width="9" style="1"/>
-    <col min="15617" max="15617" width="2.85546875" style="1" customWidth="1"/>
-    <col min="15618" max="15618" width="6.28515625" style="1" customWidth="1"/>
-    <col min="15619" max="15623" width="8.85546875" style="1" customWidth="1"/>
+    <col min="15617" max="15617" width="2.875" style="1" customWidth="1"/>
+    <col min="15618" max="15618" width="6.25" style="1" customWidth="1"/>
+    <col min="15619" max="15623" width="8.875" style="1" customWidth="1"/>
     <col min="15624" max="15625" width="9" style="1"/>
-    <col min="15626" max="15626" width="9.42578125" style="1" customWidth="1"/>
-    <col min="15627" max="15627" width="6.5703125" style="1" customWidth="1"/>
-    <col min="15628" max="15628" width="9.5703125" style="1" customWidth="1"/>
-    <col min="15629" max="15629" width="12.5703125" style="1" customWidth="1"/>
-    <col min="15630" max="15630" width="6.7109375" style="1" customWidth="1"/>
+    <col min="15626" max="15626" width="9.375" style="1" customWidth="1"/>
+    <col min="15627" max="15627" width="6.625" style="1" customWidth="1"/>
+    <col min="15628" max="15628" width="9.625" style="1" customWidth="1"/>
+    <col min="15629" max="15629" width="12.625" style="1" customWidth="1"/>
+    <col min="15630" max="15630" width="6.75" style="1" customWidth="1"/>
     <col min="15631" max="15872" width="9" style="1"/>
-    <col min="15873" max="15873" width="2.85546875" style="1" customWidth="1"/>
-    <col min="15874" max="15874" width="6.28515625" style="1" customWidth="1"/>
-    <col min="15875" max="15879" width="8.85546875" style="1" customWidth="1"/>
+    <col min="15873" max="15873" width="2.875" style="1" customWidth="1"/>
+    <col min="15874" max="15874" width="6.25" style="1" customWidth="1"/>
+    <col min="15875" max="15879" width="8.875" style="1" customWidth="1"/>
     <col min="15880" max="15881" width="9" style="1"/>
-    <col min="15882" max="15882" width="9.42578125" style="1" customWidth="1"/>
-    <col min="15883" max="15883" width="6.5703125" style="1" customWidth="1"/>
-    <col min="15884" max="15884" width="9.5703125" style="1" customWidth="1"/>
-    <col min="15885" max="15885" width="12.5703125" style="1" customWidth="1"/>
-    <col min="15886" max="15886" width="6.7109375" style="1" customWidth="1"/>
+    <col min="15882" max="15882" width="9.375" style="1" customWidth="1"/>
+    <col min="15883" max="15883" width="6.625" style="1" customWidth="1"/>
+    <col min="15884" max="15884" width="9.625" style="1" customWidth="1"/>
+    <col min="15885" max="15885" width="12.625" style="1" customWidth="1"/>
+    <col min="15886" max="15886" width="6.75" style="1" customWidth="1"/>
     <col min="15887" max="16128" width="9" style="1"/>
-    <col min="16129" max="16129" width="2.85546875" style="1" customWidth="1"/>
-    <col min="16130" max="16130" width="6.28515625" style="1" customWidth="1"/>
-    <col min="16131" max="16135" width="8.85546875" style="1" customWidth="1"/>
+    <col min="16129" max="16129" width="2.875" style="1" customWidth="1"/>
+    <col min="16130" max="16130" width="6.25" style="1" customWidth="1"/>
+    <col min="16131" max="16135" width="8.875" style="1" customWidth="1"/>
     <col min="16136" max="16137" width="9" style="1"/>
-    <col min="16138" max="16138" width="9.42578125" style="1" customWidth="1"/>
-    <col min="16139" max="16139" width="6.5703125" style="1" customWidth="1"/>
-    <col min="16140" max="16140" width="9.5703125" style="1" customWidth="1"/>
-    <col min="16141" max="16141" width="12.5703125" style="1" customWidth="1"/>
-    <col min="16142" max="16142" width="6.7109375" style="1" customWidth="1"/>
+    <col min="16138" max="16138" width="9.375" style="1" customWidth="1"/>
+    <col min="16139" max="16139" width="6.625" style="1" customWidth="1"/>
+    <col min="16140" max="16140" width="9.625" style="1" customWidth="1"/>
+    <col min="16141" max="16141" width="12.625" style="1" customWidth="1"/>
+    <col min="16142" max="16142" width="6.75" style="1" customWidth="1"/>
     <col min="16143" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="28.5">
+    <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-    </row>
-    <row r="4" spans="1:18" s="4" customFormat="1">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+    </row>
+    <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
       <c r="H4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="53"/>
+      <c r="J4" s="52"/>
       <c r="K4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="54">
+      <c r="L4" s="53">
         <v>42241</v>
       </c>
-      <c r="M4" s="54"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="6"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" spans="1:18" s="4" customFormat="1">
+    <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="53" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="53"/>
+      <c r="J5" s="52"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -2028,7 +2031,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="7"/>
     </row>
-    <row r="6" spans="1:18" s="4" customFormat="1">
+    <row r="6" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="8"/>
@@ -2044,7 +2047,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="7"/>
     </row>
-    <row r="7" spans="1:18" s="4" customFormat="1">
+    <row r="7" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
         <v>6</v>
@@ -2065,7 +2068,7 @@
       <c r="P7" s="3"/>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:18" s="4" customFormat="1" ht="24">
+    <row r="8" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
@@ -2081,22 +2084,22 @@
       <c r="F8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="56" t="s">
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="58"/>
+      <c r="M8" s="57"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="7"/>
     </row>
-    <row r="9" spans="1:18" s="4" customFormat="1">
+    <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13">
         <v>1</v>
       </c>
@@ -2110,7 +2113,7 @@
       <c r="F9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="43" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="44"/>
@@ -2123,7 +2126,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="7"/>
     </row>
-    <row r="10" spans="1:18" s="4" customFormat="1">
+    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13">
         <v>2</v>
       </c>
@@ -2137,7 +2140,7 @@
       <c r="F10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="43" t="s">
         <v>60</v>
       </c>
       <c r="H10" s="44"/>
@@ -2150,7 +2153,7 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="7"/>
     </row>
-    <row r="11" spans="1:18" s="4" customFormat="1">
+    <row r="11" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13">
         <v>3</v>
       </c>
@@ -2158,7 +2161,7 @@
       <c r="D11" s="15"/>
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="43"/>
+      <c r="G11" s="58"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
@@ -2169,7 +2172,7 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="7"/>
     </row>
-    <row r="12" spans="1:18" s="4" customFormat="1">
+    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13">
         <v>4</v>
       </c>
@@ -2177,7 +2180,7 @@
       <c r="D12" s="15"/>
       <c r="E12" s="16"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="43"/>
+      <c r="G12" s="58"/>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
@@ -2188,7 +2191,7 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" spans="1:18" s="4" customFormat="1">
+    <row r="13" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13">
         <v>5</v>
       </c>
@@ -2196,7 +2199,7 @@
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="43"/>
+      <c r="G13" s="58"/>
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
@@ -2207,12 +2210,20 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="7"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
       <c r="E14" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:M12"/>
     <mergeCell ref="G9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="B2:M2"/>
@@ -2226,14 +2237,6 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -2254,23 +2257,23 @@
   <dimension ref="B1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B2" sqref="B2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="2.625" style="22" customWidth="1"/>
     <col min="2" max="2" width="8" style="22" customWidth="1"/>
-    <col min="3" max="3" width="67.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="67.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="22" customWidth="1"/>
     <col min="5" max="5" width="11" style="22" customWidth="1"/>
     <col min="6" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B1" s="23"/>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="59" t="s">
         <v>18</v>
       </c>
@@ -2278,16 +2281,16 @@
       <c r="D2" s="59"/>
       <c r="E2" s="59"/>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
       <c r="D3" s="59"/>
       <c r="E3" s="59"/>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4" s="23"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>7</v>
       </c>
@@ -2301,7 +2304,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B6" s="36">
         <v>1</v>
       </c>
@@ -2313,7 +2316,7 @@
       </c>
       <c r="E6" s="33"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B7" s="36"/>
       <c r="C7" s="29" t="s">
         <v>24</v>
@@ -2323,7 +2326,7 @@
       </c>
       <c r="E7" s="33"/>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B8" s="37"/>
       <c r="C8" s="30" t="s">
         <v>27</v>
@@ -2333,7 +2336,7 @@
       </c>
       <c r="E8" s="34"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B9" s="36">
         <v>2</v>
       </c>
@@ -2345,7 +2348,7 @@
       </c>
       <c r="E9" s="33"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B10" s="36"/>
       <c r="C10" s="29" t="s">
         <v>26</v>
@@ -2355,7 +2358,7 @@
       </c>
       <c r="E10" s="33"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B11" s="37"/>
       <c r="C11" s="30" t="s">
         <v>29</v>
@@ -2365,7 +2368,7 @@
       </c>
       <c r="E11" s="34"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B12" s="36">
         <v>3</v>
       </c>
@@ -2377,7 +2380,7 @@
       </c>
       <c r="E12" s="33"/>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B13" s="36"/>
       <c r="C13" s="29" t="s">
         <v>31</v>
@@ -2387,7 +2390,7 @@
       </c>
       <c r="E13" s="33"/>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B14" s="36"/>
       <c r="C14" s="29" t="s">
         <v>32</v>
@@ -2397,7 +2400,7 @@
       </c>
       <c r="E14" s="33"/>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B15" s="37"/>
       <c r="C15" s="30" t="s">
         <v>43</v>
@@ -2407,75 +2410,91 @@
       </c>
       <c r="E15" s="34"/>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B16" s="36">
         <v>4</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D16" s="39" t="s">
+        <v>66</v>
+      </c>
       <c r="E16" s="33"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B17" s="36"/>
       <c r="C17" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="40"/>
+      <c r="D17" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="E17" s="33"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B18" s="36"/>
       <c r="C18" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="40"/>
+      <c r="D18" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="E18" s="33"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B19" s="37"/>
       <c r="C19" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="41"/>
+      <c r="D19" s="41" t="s">
+        <v>66</v>
+      </c>
       <c r="E19" s="34"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B20" s="36">
         <v>5</v>
       </c>
       <c r="C20" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="39"/>
+      <c r="D20" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="E20" s="33"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B21" s="36"/>
       <c r="C21" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="40"/>
+      <c r="D21" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="E21" s="33"/>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B22" s="36"/>
       <c r="C22" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="40"/>
+      <c r="D22" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="E22" s="33"/>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B23" s="37"/>
       <c r="C23" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="41"/>
+      <c r="D23" s="41" t="s">
+        <v>61</v>
+      </c>
       <c r="E23" s="34"/>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B24" s="36">
         <v>6</v>
       </c>
@@ -2485,7 +2504,7 @@
       <c r="D24" s="39"/>
       <c r="E24" s="33"/>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B25" s="36"/>
       <c r="C25" s="29" t="s">
         <v>41</v>
@@ -2493,7 +2512,7 @@
       <c r="D25" s="40"/>
       <c r="E25" s="33"/>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B26" s="36"/>
       <c r="C26" s="29" t="s">
         <v>42</v>
@@ -2501,7 +2520,7 @@
       <c r="D26" s="40"/>
       <c r="E26" s="33"/>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B27" s="37"/>
       <c r="C27" s="30" t="s">
         <v>57</v>
@@ -2509,7 +2528,7 @@
       <c r="D27" s="41"/>
       <c r="E27" s="34"/>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B28" s="36">
         <v>7</v>
       </c>
@@ -2519,7 +2538,7 @@
       <c r="D28" s="39"/>
       <c r="E28" s="33"/>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B29" s="36"/>
       <c r="C29" s="29" t="s">
         <v>45</v>
@@ -2527,7 +2546,7 @@
       <c r="D29" s="40"/>
       <c r="E29" s="33"/>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B30" s="36"/>
       <c r="C30" s="29" t="s">
         <v>46</v>
@@ -2535,7 +2554,7 @@
       <c r="D30" s="40"/>
       <c r="E30" s="33"/>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B31" s="36"/>
       <c r="C31" s="29" t="s">
         <v>47</v>
@@ -2543,7 +2562,7 @@
       <c r="D31" s="40"/>
       <c r="E31" s="33"/>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B32" s="36"/>
       <c r="C32" s="29" t="s">
         <v>48</v>
@@ -2551,7 +2570,7 @@
       <c r="D32" s="40"/>
       <c r="E32" s="33"/>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B33" s="36"/>
       <c r="C33" s="29" t="s">
         <v>58</v>
@@ -2559,7 +2578,7 @@
       <c r="D33" s="40"/>
       <c r="E33" s="33"/>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B34" s="37"/>
       <c r="C34" s="30" t="s">
         <v>59</v>
@@ -2567,7 +2586,7 @@
       <c r="D34" s="41"/>
       <c r="E34" s="34"/>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B35" s="36">
         <v>8</v>
       </c>
@@ -2579,7 +2598,7 @@
       </c>
       <c r="E35" s="33"/>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B36" s="36"/>
       <c r="C36" s="29" t="s">
         <v>64</v>
@@ -2589,7 +2608,7 @@
       </c>
       <c r="E36" s="33"/>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B37" s="37"/>
       <c r="C37" s="30" t="s">
         <v>65</v>
@@ -2599,7 +2618,7 @@
       </c>
       <c r="E37" s="34"/>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B38" s="36">
         <v>9</v>
       </c>
@@ -2609,7 +2628,7 @@
       <c r="D38" s="39"/>
       <c r="E38" s="33"/>
     </row>
-    <row r="39" spans="2:5">
+    <row r="39" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B39" s="36"/>
       <c r="C39" s="29" t="s">
         <v>51</v>
@@ -2617,7 +2636,7 @@
       <c r="D39" s="40"/>
       <c r="E39" s="33"/>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B40" s="37"/>
       <c r="C40" s="30" t="s">
         <v>56</v>
@@ -2625,7 +2644,7 @@
       <c r="D40" s="41"/>
       <c r="E40" s="34"/>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B41" s="36">
         <v>10</v>
       </c>
@@ -2637,7 +2656,7 @@
       </c>
       <c r="E41" s="33"/>
     </row>
-    <row r="42" spans="2:5">
+    <row r="42" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B42" s="37"/>
       <c r="C42" s="30" t="s">
         <v>53</v>
@@ -2647,7 +2666,7 @@
       </c>
       <c r="E42" s="34"/>
     </row>
-    <row r="43" spans="2:5">
+    <row r="43" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B43" s="36">
         <v>11</v>
       </c>
@@ -2659,7 +2678,7 @@
       </c>
       <c r="E43" s="33"/>
     </row>
-    <row r="44" spans="2:5">
+    <row r="44" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B44" s="36"/>
       <c r="C44" s="29" t="s">
         <v>55</v>
@@ -2669,7 +2688,7 @@
       </c>
       <c r="E44" s="33"/>
     </row>
-    <row r="45" spans="2:5">
+    <row r="45" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B45" s="38"/>
       <c r="C45" s="31" t="s">
         <v>62</v>

--- a/001_GPSCamera_Document/004＿GPSカメラアプリ＿必要な技術.xlsx
+++ b/001_GPSCamera_Document/004＿GPSカメラアプリ＿必要な技術.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
   <si>
     <t>プロジェクト名：</t>
     <rPh sb="6" eb="7">
@@ -533,6 +533,9 @@
   </si>
   <si>
     <t>研修中</t>
+  </si>
+  <si>
+    <t>未研究</t>
   </si>
 </sst>
 </file>
@@ -2256,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2438,7 +2441,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E18" s="33"/>
     </row>
@@ -2448,7 +2451,7 @@
         <v>36</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E19" s="34"/>
     </row>
@@ -2501,7 +2504,9 @@
       <c r="C24" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="39"/>
+      <c r="D24" s="39" t="s">
+        <v>66</v>
+      </c>
       <c r="E24" s="33"/>
     </row>
     <row r="25" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -2509,7 +2514,9 @@
       <c r="C25" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="40"/>
+      <c r="D25" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="E25" s="33"/>
     </row>
     <row r="26" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -2517,7 +2524,9 @@
       <c r="C26" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="40"/>
+      <c r="D26" s="40" t="s">
+        <v>67</v>
+      </c>
       <c r="E26" s="33"/>
     </row>
     <row r="27" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -2525,7 +2534,9 @@
       <c r="C27" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="41"/>
+      <c r="D27" s="41" t="s">
+        <v>67</v>
+      </c>
       <c r="E27" s="34"/>
     </row>
     <row r="28" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -2535,7 +2546,9 @@
       <c r="C28" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="39"/>
+      <c r="D28" s="39" t="s">
+        <v>66</v>
+      </c>
       <c r="E28" s="33"/>
     </row>
     <row r="29" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -2543,7 +2556,9 @@
       <c r="C29" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="40"/>
+      <c r="D29" s="40" t="s">
+        <v>67</v>
+      </c>
       <c r="E29" s="33"/>
     </row>
     <row r="30" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -2551,7 +2566,9 @@
       <c r="C30" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="40"/>
+      <c r="D30" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="E30" s="33"/>
     </row>
     <row r="31" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -2559,7 +2576,9 @@
       <c r="C31" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="40"/>
+      <c r="D31" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="E31" s="33"/>
     </row>
     <row r="32" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -2583,7 +2602,9 @@
       <c r="C34" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="41"/>
+      <c r="D34" s="41" t="s">
+        <v>67</v>
+      </c>
       <c r="E34" s="34"/>
     </row>
     <row r="35" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -2625,7 +2646,9 @@
       <c r="C38" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="39"/>
+      <c r="D38" s="39" t="s">
+        <v>66</v>
+      </c>
       <c r="E38" s="33"/>
     </row>
     <row r="39" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -2633,7 +2656,9 @@
       <c r="C39" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="40"/>
+      <c r="D39" s="40" t="s">
+        <v>61</v>
+      </c>
       <c r="E39" s="33"/>
     </row>
     <row r="40" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -2641,7 +2666,9 @@
       <c r="C40" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="41"/>
+      <c r="D40" s="41" t="s">
+        <v>67</v>
+      </c>
       <c r="E40" s="34"/>
     </row>
     <row r="41" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
